--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751E588-735D-4E84-B9A4-A2015E862E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72FAC2-554A-45B5-9FF4-3F2D3EAFE2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
     <sheet name="Unidades" sheetId="2" r:id="rId2"/>
     <sheet name="BIN" sheetId="4" r:id="rId3"/>
     <sheet name="IPv4" sheetId="5" r:id="rId4"/>
+    <sheet name="HEX" sheetId="6" r:id="rId5"/>
+    <sheet name="IPv6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -955,6 +951,288 @@
   <si>
     <t>00011001</t>
   </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>16^4</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>0xHEX</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0DB6</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>Ceros a la Izq.</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>2001:DB6:ACAD:1::1</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empieza </t>
+  </si>
+  <si>
+    <t>Termina</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Link-Local</t>
+  </si>
+  <si>
+    <t>Unique-Local</t>
+  </si>
+  <si>
+    <t>FE80::</t>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A44E.31B5.8130</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>4 Bits</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>001B.4411.3AB7</t>
+  </si>
+  <si>
+    <t>Direcciones</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>1826.496C.DBC1</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>000C.85AD.A685</t>
+  </si>
+  <si>
+    <t>MAC ADDRESS</t>
+  </si>
+  <si>
+    <t>Interface ID / EUI-64 (Extended Unique Identifier)</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>FE80::/7</t>
+  </si>
+  <si>
+    <t>2000:: /48</t>
+  </si>
+  <si>
+    <t>3FFF:: / 48</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>FDFF::/7</t>
+  </si>
+  <si>
+    <t>FC00::/7</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>sn ID</t>
+  </si>
+  <si>
+    <t>Resumen Ceros</t>
+  </si>
+  <si>
+    <t>Clasificacion</t>
+  </si>
+  <si>
+    <t>CROSSTALK</t>
+  </si>
+  <si>
+    <t>EMI / RFI</t>
+  </si>
+  <si>
+    <t>Interferencia electromagnética o interferencia de radiofrecuencia las señales de EMI y RFI pueden distorsionar y dañar las señales de datos que transportan los medios de cobre. Las posibles fuentes de EMI y RFI incluyen las ondas de radio y dispositivos electromagnéticos como las luces fluorescentes o los motores eléctricos.</t>
+  </si>
+  <si>
+    <t>Perturbación causada por los campos eléctricos o magnéticos de una señal de un hilo a uno adyacente. En los circuitos telefónicos, el crosstalk puede provocar que se escuche parte de otra conversación de voz de un circuito adyacente. Cuando la corriente eléctrica fluye por un hilo, crea un pequeño campo magnético circular alrededor de dicho hilo, que puede captar un hilo adyacente.</t>
+  </si>
 </sst>
 </file>
 
@@ -969,7 +1247,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,8 +1351,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,8 +1521,32 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1566,6 +1890,80 @@
         <color theme="3" tint="-0.499984740745262"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1578,7 +1976,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1683,96 +2081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1781,15 +2089,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1823,12 +2122,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1844,9 +2137,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,15 +2171,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,12 +2245,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,6 +2263,442 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,94 +2708,9 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2100,9 +2726,6 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2112,103 +2735,51 @@
     <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -2531,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651BEDB-B928-44A9-A7A9-86D2E8AFC30B}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,48 +3121,59 @@
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" style="306" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="226"/>
+      <c r="I2" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="227" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="O2" s="228" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q2" s="228" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="226"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="62"/>
+      <c r="I3" s="228"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="62"/>
-      <c r="M3" s="61"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="228"/>
+      <c r="M3" s="227"/>
+      <c r="O3" s="228"/>
+      <c r="Q3" s="228"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2613,19 +3195,25 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="236" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="232" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="232" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q4" s="232" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2647,13 +3235,15 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
+      <c r="I5" s="232"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="66"/>
+      <c r="K5" s="232"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="66"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="Q5" s="232"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2675,13 +3265,15 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="66"/>
+      <c r="I6" s="232"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="66"/>
+      <c r="K6" s="232"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="66"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="232"/>
+      <c r="O6" s="232"/>
+      <c r="Q6" s="232"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2703,13 +3295,15 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="232"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="232"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="Q7" s="232"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2731,13 +3325,15 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="232"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="232"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="66"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="Q8" s="232"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2759,13 +3355,15 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="232"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="66"/>
+      <c r="K9" s="232"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="66"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="232"/>
+      <c r="O9" s="232"/>
+      <c r="Q9" s="232"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2787,13 +3385,15 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="66"/>
+      <c r="I10" s="232"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="232"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="66"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="232"/>
+      <c r="O10" s="232"/>
+      <c r="Q10" s="232"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2815,102 +3415,120 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="66"/>
+      <c r="I11" s="232"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="66"/>
+      <c r="K11" s="232"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="M11" s="232"/>
+      <c r="O11" s="232"/>
+      <c r="Q11" s="232"/>
+    </row>
+    <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="232"/>
+      <c r="O12" s="232"/>
+      <c r="Q12" s="232"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="231"/>
+      <c r="D13" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="242"/>
+      <c r="M13" s="232"/>
+      <c r="O13" s="232"/>
+      <c r="Q13" s="232"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="71" t="s">
+      <c r="C14" s="233"/>
+      <c r="D14" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="M14" s="66"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="239"/>
+      <c r="M14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="Q14" s="232"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63" t="s">
+      <c r="C15" s="231"/>
+      <c r="D15" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="M15" s="66"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="230"/>
+      <c r="M15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="Q15" s="232"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69" t="s">
+      <c r="C16" s="234"/>
+      <c r="D16" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="M16" s="66"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="M16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="Q16" s="232"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="M17" s="66"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="230"/>
+      <c r="M17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="Q17" s="232"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="Q4:Q17"/>
+    <mergeCell ref="O4:O17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
@@ -2932,6 +3550,7 @@
     <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2939,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,19 +3581,19 @@
   <sheetData>
     <row r="1" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -3123,13 +3742,13 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
@@ -3192,24 +3811,24 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="246"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="247" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="84"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="249"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
@@ -3230,19 +3849,19 @@
       <c r="G13" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85" t="s">
+      <c r="K13" s="250"/>
+      <c r="L13" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="91"/>
+      <c r="M13" s="250"/>
+      <c r="N13" s="250"/>
+      <c r="O13" s="251"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
@@ -3263,19 +3882,19 @@
       <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="254" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86" t="s">
+      <c r="K14" s="254"/>
+      <c r="L14" s="254" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="92"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="254"/>
+      <c r="O14" s="255"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
@@ -3296,306 +3915,306 @@
       <c r="G15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87" t="s">
+      <c r="K15" s="252"/>
+      <c r="L15" s="252" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="93"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="252"/>
+      <c r="O15" s="253"/>
     </row>
     <row r="16" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="256" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="61" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="218">
-        <v>0</v>
-      </c>
-      <c r="C19" s="218">
-        <v>0</v>
-      </c>
-      <c r="D19" s="218">
-        <v>0</v>
-      </c>
-      <c r="E19" s="218" t="s">
+      <c r="B19" s="157">
+        <v>0</v>
+      </c>
+      <c r="C19" s="157">
+        <v>0</v>
+      </c>
+      <c r="D19" s="157">
+        <v>0</v>
+      </c>
+      <c r="E19" s="157" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216">
-        <v>1</v>
-      </c>
-      <c r="C20" s="216">
-        <v>1</v>
-      </c>
-      <c r="D20" s="216">
-        <v>1</v>
-      </c>
-      <c r="E20" s="216" t="s">
+      <c r="B20" s="155">
+        <v>1</v>
+      </c>
+      <c r="C20" s="155">
+        <v>1</v>
+      </c>
+      <c r="D20" s="155">
+        <v>1</v>
+      </c>
+      <c r="E20" s="155" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="215">
+      <c r="B21" s="154">
         <v>2</v>
       </c>
-      <c r="C21" s="215">
+      <c r="C21" s="154">
         <v>2</v>
       </c>
-      <c r="D21" s="215">
+      <c r="D21" s="154">
         <v>2</v>
       </c>
-      <c r="E21" s="215" t="s">
+      <c r="E21" s="154" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="219">
+      <c r="B22" s="158">
         <v>3</v>
       </c>
-      <c r="C22" s="219">
+      <c r="C22" s="158">
         <v>3</v>
       </c>
-      <c r="D22" s="219">
+      <c r="D22" s="158">
         <v>3</v>
       </c>
-      <c r="E22" s="219" t="s">
+      <c r="E22" s="158" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="213">
+      <c r="B23" s="152">
         <v>4</v>
       </c>
-      <c r="C23" s="213">
+      <c r="C23" s="152">
         <v>4</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="152">
         <v>4</v>
       </c>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="152" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="214">
+      <c r="B24" s="153">
         <v>5</v>
       </c>
-      <c r="C24" s="214">
+      <c r="C24" s="153">
         <v>5</v>
       </c>
-      <c r="D24" s="214">
+      <c r="D24" s="153">
         <v>5</v>
       </c>
-      <c r="E24" s="214" t="s">
+      <c r="E24" s="153" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="213">
+      <c r="B25" s="152">
         <v>6</v>
       </c>
-      <c r="C25" s="213">
+      <c r="C25" s="152">
         <v>6</v>
       </c>
-      <c r="D25" s="213">
+      <c r="D25" s="152">
         <v>6</v>
       </c>
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="152" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="216">
+      <c r="B26" s="155">
         <v>7</v>
       </c>
-      <c r="C26" s="216">
+      <c r="C26" s="155">
         <v>7</v>
       </c>
-      <c r="D26" s="216">
+      <c r="D26" s="155">
         <v>7</v>
       </c>
-      <c r="E26" s="216" t="s">
+      <c r="E26" s="155" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="213">
+      <c r="B27" s="152">
         <v>8</v>
       </c>
-      <c r="C27" s="213">
+      <c r="C27" s="152">
         <v>8</v>
       </c>
-      <c r="D27" s="213">
+      <c r="D27" s="152">
         <v>10</v>
       </c>
-      <c r="E27" s="213" t="s">
+      <c r="E27" s="152" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="214">
+      <c r="B28" s="153">
         <v>9</v>
       </c>
-      <c r="C28" s="214">
+      <c r="C28" s="153">
         <v>9</v>
       </c>
-      <c r="D28" s="214">
+      <c r="D28" s="153">
         <v>11</v>
       </c>
-      <c r="E28" s="214" t="s">
+      <c r="E28" s="153" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="213">
+      <c r="C29" s="152">
         <v>10</v>
       </c>
-      <c r="D29" s="213">
+      <c r="D29" s="152">
         <v>12</v>
       </c>
-      <c r="E29" s="213" t="s">
+      <c r="E29" s="152" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="214" t="s">
+      <c r="B30" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="214">
+      <c r="C30" s="153">
         <v>11</v>
       </c>
-      <c r="D30" s="214">
+      <c r="D30" s="153">
         <v>13</v>
       </c>
-      <c r="E30" s="214" t="s">
+      <c r="E30" s="153" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="213">
+      <c r="C31" s="152">
         <v>12</v>
       </c>
-      <c r="D31" s="213">
+      <c r="D31" s="152">
         <v>14</v>
       </c>
-      <c r="E31" s="213" t="s">
+      <c r="E31" s="152" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="214">
+      <c r="C32" s="153">
         <v>13</v>
       </c>
-      <c r="D32" s="214">
+      <c r="D32" s="153">
         <v>15</v>
       </c>
-      <c r="E32" s="214" t="s">
+      <c r="E32" s="153" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="213">
+      <c r="C33" s="152">
         <v>14</v>
       </c>
-      <c r="D33" s="213">
+      <c r="D33" s="152">
         <v>16</v>
       </c>
-      <c r="E33" s="213" t="s">
+      <c r="E33" s="152" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="216" t="s">
+      <c r="B34" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="216">
+      <c r="C34" s="155">
         <v>15</v>
       </c>
-      <c r="D34" s="216">
+      <c r="D34" s="155">
         <v>17</v>
       </c>
-      <c r="E34" s="216" t="s">
+      <c r="E34" s="155" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="217">
+      <c r="B35" s="156">
         <v>10</v>
       </c>
-      <c r="C35" s="217">
+      <c r="C35" s="156">
         <v>16</v>
       </c>
-      <c r="D35" s="217">
+      <c r="D35" s="156">
         <v>20</v>
       </c>
-      <c r="E35" s="217">
+      <c r="E35" s="156">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="220">
+      <c r="B36" s="159">
         <v>99</v>
       </c>
-      <c r="C36" s="220">
+      <c r="C36" s="159">
         <v>255</v>
       </c>
-      <c r="D36" s="220">
+      <c r="D36" s="159">
         <v>198</v>
       </c>
-      <c r="E36" s="220">
+      <c r="E36" s="159">
         <v>11111111</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="213">
+      <c r="B37" s="152">
         <v>100</v>
       </c>
-      <c r="C37" s="213">
+      <c r="C37" s="152">
         <v>256</v>
       </c>
-      <c r="D37" s="213">
+      <c r="D37" s="152">
         <v>200</v>
       </c>
-      <c r="E37" s="213">
+      <c r="E37" s="152">
         <v>100000000</v>
       </c>
     </row>
@@ -3626,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ECFBED-E4D1-42A4-B438-E51C33F07CE4}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,70 +4260,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="258" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
-      <c r="K1" s="239" t="s">
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="259"/>
+      <c r="K1" s="264" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="75" t="s">
         <v>89</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="240" t="s">
+      <c r="K2" s="263" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="66">
         <f>2^7</f>
         <v>128</v>
       </c>
@@ -3712,7 +4331,7 @@
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="66">
         <f>2^5</f>
         <v>32</v>
       </c>
@@ -3720,7 +4339,7 @@
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="66">
         <f>2^3</f>
         <v>8</v>
       </c>
@@ -3728,7 +4347,7 @@
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="H3" s="99">
+      <c r="H3" s="66">
         <f>2^1</f>
         <v>2</v>
       </c>
@@ -3736,396 +4355,396 @@
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="70">
         <v>0</v>
       </c>
       <c r="C4" s="34">
         <v>0</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="70">
         <v>0</v>
       </c>
       <c r="E4" s="34">
         <v>0</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="70">
         <v>0</v>
       </c>
       <c r="G4" s="34">
         <v>0</v>
       </c>
-      <c r="H4" s="103">
+      <c r="H4" s="70">
         <v>0</v>
       </c>
       <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
     </row>
     <row r="5" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="K6" s="225" t="s">
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="K6" s="260" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="111"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="259"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102">
+      <c r="A7" s="69">
         <v>10</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="70">
         <v>0</v>
       </c>
       <c r="C7" s="34">
         <v>0</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="70">
         <v>0</v>
       </c>
       <c r="E7" s="34">
         <v>0</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="70">
         <v>1</v>
       </c>
       <c r="G7" s="34">
         <v>0</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="70">
         <v>1</v>
       </c>
       <c r="I7" s="34">
         <v>0</v>
       </c>
-      <c r="K7" s="231">
+      <c r="K7" s="169">
         <v>54</v>
       </c>
-      <c r="L7" s="234">
+      <c r="L7" s="172">
         <v>2</v>
       </c>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="228"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104">
+      <c r="A8" s="71">
         <v>128</v>
       </c>
-      <c r="B8" s="105">
-        <v>1</v>
-      </c>
-      <c r="C8" s="106">
-        <v>0</v>
-      </c>
-      <c r="D8" s="105">
-        <v>0</v>
-      </c>
-      <c r="E8" s="106">
-        <v>0</v>
-      </c>
-      <c r="F8" s="105">
-        <v>0</v>
-      </c>
-      <c r="G8" s="106">
-        <v>0</v>
-      </c>
-      <c r="H8" s="105">
-        <v>0</v>
-      </c>
-      <c r="I8" s="106">
-        <v>0</v>
-      </c>
-      <c r="K8" s="237">
-        <v>0</v>
-      </c>
-      <c r="L8" s="97">
+      <c r="B8" s="72">
+        <v>1</v>
+      </c>
+      <c r="C8" s="73">
+        <v>0</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0</v>
+      </c>
+      <c r="E8" s="73">
+        <v>0</v>
+      </c>
+      <c r="F8" s="72">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0</v>
+      </c>
+      <c r="H8" s="72">
+        <v>0</v>
+      </c>
+      <c r="I8" s="73">
+        <v>0</v>
+      </c>
+      <c r="K8" s="173">
+        <v>0</v>
+      </c>
+      <c r="L8" s="64">
         <v>27</v>
       </c>
-      <c r="M8" s="233">
+      <c r="M8" s="171">
         <v>2</v>
       </c>
-      <c r="N8" s="227"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="229"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="167"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107">
+      <c r="A9" s="74">
         <v>127</v>
       </c>
-      <c r="B9" s="106">
-        <v>0</v>
-      </c>
-      <c r="C9" s="105">
-        <v>1</v>
-      </c>
-      <c r="D9" s="106">
-        <v>1</v>
-      </c>
-      <c r="E9" s="105">
-        <v>1</v>
-      </c>
-      <c r="F9" s="106">
-        <v>1</v>
-      </c>
-      <c r="G9" s="105">
-        <v>1</v>
-      </c>
-      <c r="H9" s="106">
-        <v>1</v>
-      </c>
-      <c r="I9" s="105">
+      <c r="B9" s="73">
+        <v>0</v>
+      </c>
+      <c r="C9" s="72">
+        <v>1</v>
+      </c>
+      <c r="D9" s="73">
+        <v>1</v>
+      </c>
+      <c r="E9" s="72">
+        <v>1</v>
+      </c>
+      <c r="F9" s="73">
+        <v>1</v>
+      </c>
+      <c r="G9" s="72">
+        <v>1</v>
+      </c>
+      <c r="H9" s="73">
+        <v>1</v>
+      </c>
+      <c r="I9" s="72">
         <v>1</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="96">
-        <v>1</v>
-      </c>
-      <c r="M9" s="97">
+      <c r="K9" s="174"/>
+      <c r="L9" s="63">
+        <v>1</v>
+      </c>
+      <c r="M9" s="64">
         <v>13</v>
       </c>
-      <c r="N9" s="233">
+      <c r="N9" s="171">
         <v>2</v>
       </c>
-      <c r="O9" s="227"/>
-      <c r="P9" s="229"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="167"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104">
+      <c r="A10" s="71">
         <v>172</v>
       </c>
-      <c r="B10" s="105">
-        <v>1</v>
-      </c>
-      <c r="C10" s="106">
-        <v>0</v>
-      </c>
-      <c r="D10" s="105">
-        <v>1</v>
-      </c>
-      <c r="E10" s="106">
-        <v>0</v>
-      </c>
-      <c r="F10" s="105">
-        <v>1</v>
-      </c>
-      <c r="G10" s="106">
-        <v>1</v>
-      </c>
-      <c r="H10" s="105">
-        <v>0</v>
-      </c>
-      <c r="I10" s="106">
-        <v>0</v>
-      </c>
-      <c r="K10" s="226"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="96">
-        <v>1</v>
-      </c>
-      <c r="N10" s="97">
+      <c r="B10" s="72">
+        <v>1</v>
+      </c>
+      <c r="C10" s="73">
+        <v>0</v>
+      </c>
+      <c r="D10" s="72">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>0</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73">
+        <v>1</v>
+      </c>
+      <c r="H10" s="72">
+        <v>0</v>
+      </c>
+      <c r="I10" s="73">
+        <v>0</v>
+      </c>
+      <c r="K10" s="164"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="63">
+        <v>1</v>
+      </c>
+      <c r="N10" s="64">
         <v>6</v>
       </c>
-      <c r="O10" s="233">
+      <c r="O10" s="171">
         <v>2</v>
       </c>
-      <c r="P10" s="229"/>
+      <c r="P10" s="167"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107">
+      <c r="A11" s="74">
         <v>192</v>
       </c>
-      <c r="B11" s="106">
-        <v>1</v>
-      </c>
-      <c r="C11" s="105">
-        <v>1</v>
-      </c>
-      <c r="D11" s="106">
-        <v>0</v>
-      </c>
-      <c r="E11" s="105">
-        <v>0</v>
-      </c>
-      <c r="F11" s="106">
-        <v>0</v>
-      </c>
-      <c r="G11" s="105">
-        <v>0</v>
-      </c>
-      <c r="H11" s="106">
-        <v>0</v>
-      </c>
-      <c r="I11" s="105">
-        <v>0</v>
-      </c>
-      <c r="K11" s="226"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="96">
-        <v>0</v>
-      </c>
-      <c r="O11" s="97">
+      <c r="B11" s="73">
+        <v>1</v>
+      </c>
+      <c r="C11" s="72">
+        <v>1</v>
+      </c>
+      <c r="D11" s="73">
+        <v>0</v>
+      </c>
+      <c r="E11" s="72">
+        <v>0</v>
+      </c>
+      <c r="F11" s="73">
+        <v>0</v>
+      </c>
+      <c r="G11" s="72">
+        <v>0</v>
+      </c>
+      <c r="H11" s="73">
+        <v>0</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0</v>
+      </c>
+      <c r="K11" s="164"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="63">
+        <v>0</v>
+      </c>
+      <c r="O11" s="64">
         <v>3</v>
       </c>
-      <c r="P11" s="232">
+      <c r="P11" s="170">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104">
+      <c r="A12" s="71">
         <v>168</v>
       </c>
-      <c r="B12" s="105">
-        <v>1</v>
-      </c>
-      <c r="C12" s="106">
-        <v>0</v>
-      </c>
-      <c r="D12" s="105">
-        <v>1</v>
-      </c>
-      <c r="E12" s="106">
-        <v>0</v>
-      </c>
-      <c r="F12" s="105">
-        <v>1</v>
-      </c>
-      <c r="G12" s="106">
-        <v>0</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0</v>
-      </c>
-      <c r="I12" s="106">
-        <v>0</v>
-      </c>
-      <c r="K12" s="226"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="96">
-        <v>1</v>
-      </c>
-      <c r="P12" s="222">
+      <c r="B12" s="72">
+        <v>1</v>
+      </c>
+      <c r="C12" s="73">
+        <v>0</v>
+      </c>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>0</v>
+      </c>
+      <c r="F12" s="72">
+        <v>1</v>
+      </c>
+      <c r="G12" s="73">
+        <v>0</v>
+      </c>
+      <c r="H12" s="72">
+        <v>0</v>
+      </c>
+      <c r="I12" s="73">
+        <v>0</v>
+      </c>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="63">
+        <v>1</v>
+      </c>
+      <c r="P12" s="161">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="74">
         <v>25</v>
       </c>
-      <c r="B13" s="106">
-        <v>0</v>
-      </c>
-      <c r="C13" s="105">
-        <v>0</v>
-      </c>
-      <c r="D13" s="106">
-        <v>0</v>
-      </c>
-      <c r="E13" s="105">
-        <v>1</v>
-      </c>
-      <c r="F13" s="106">
-        <v>1</v>
-      </c>
-      <c r="G13" s="105">
-        <v>0</v>
-      </c>
-      <c r="H13" s="106">
-        <v>0</v>
-      </c>
-      <c r="I13" s="105">
-        <v>1</v>
-      </c>
-      <c r="K13" s="235" t="s">
+      <c r="B13" s="73">
+        <v>0</v>
+      </c>
+      <c r="C13" s="72">
+        <v>0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>0</v>
+      </c>
+      <c r="E13" s="72">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="72">
+        <v>0</v>
+      </c>
+      <c r="H13" s="73">
+        <v>0</v>
+      </c>
+      <c r="I13" s="72">
+        <v>1</v>
+      </c>
+      <c r="K13" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="236"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="224"/>
+      <c r="L13" s="262"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="262"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="163"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="101">
+      <c r="A14" s="68">
         <v>54</v>
       </c>
       <c r="B14" s="33">
         <v>0</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="66">
         <v>0</v>
       </c>
       <c r="D14" s="33">
         <v>1</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="66">
         <v>1</v>
       </c>
       <c r="F14" s="33">
         <v>0</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="66">
         <v>1</v>
       </c>
       <c r="H14" s="33">
         <v>1</v>
       </c>
-      <c r="I14" s="99">
-        <v>0</v>
-      </c>
-      <c r="K14" s="242">
-        <v>1</v>
-      </c>
-      <c r="L14" s="106">
-        <v>1</v>
-      </c>
-      <c r="M14" s="105">
-        <v>0</v>
-      </c>
-      <c r="N14" s="106">
-        <v>1</v>
-      </c>
-      <c r="O14" s="105">
-        <v>1</v>
-      </c>
-      <c r="P14" s="243">
+      <c r="I14" s="66">
+        <v>0</v>
+      </c>
+      <c r="K14" s="176">
+        <v>1</v>
+      </c>
+      <c r="L14" s="73">
+        <v>1</v>
+      </c>
+      <c r="M14" s="72">
+        <v>0</v>
+      </c>
+      <c r="N14" s="73">
+        <v>1</v>
+      </c>
+      <c r="O14" s="72">
+        <v>1</v>
+      </c>
+      <c r="P14" s="177">
         <v>0</v>
       </c>
     </row>
@@ -4149,9 +4768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6148F79-43E5-497E-9971-83B1A57C48C1}">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,863 +4787,863 @@
   <sheetData>
     <row r="1" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="266" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="157" t="s">
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="266" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131" t="s">
+      <c r="D3" s="268"/>
+      <c r="E3" s="269" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="131" t="s">
+      <c r="F3" s="270"/>
+      <c r="G3" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="130" t="s">
+      <c r="H3" s="270"/>
+      <c r="I3" s="268" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="132"/>
+      <c r="J3" s="270"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="96" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="140">
+      <c r="F5" s="101">
         <v>127255255255</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="159">
+      <c r="J5" s="118">
         <v>10255255255</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="108">
         <v>191255255255</v>
       </c>
-      <c r="G6" s="148" t="s">
+      <c r="G6" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I6" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="160" t="s">
+      <c r="J6" s="119" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="101">
         <v>223255255255</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="143" t="s">
+      <c r="I7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="159">
+      <c r="J7" s="118">
         <v>192168255255</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="116"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="81"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="108">
         <v>239255255255</v>
       </c>
-      <c r="G8" s="168" t="s">
+      <c r="G8" s="277" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="279"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="164">
+      <c r="F9" s="123">
         <v>255255255255</v>
       </c>
-      <c r="G9" s="165" t="s">
+      <c r="G9" s="280" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="283" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="136" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="118" t="s">
+      <c r="J11" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="192"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="142"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="181"/>
-      <c r="C12" s="180" t="s">
+      <c r="B12" s="283"/>
+      <c r="C12" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="193" t="s">
+      <c r="H12" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="182" t="s">
+      <c r="I12" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="M12" s="193" t="s">
+      <c r="M12" s="143" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="181"/>
-      <c r="C13" s="180" t="s">
+      <c r="B13" s="283"/>
+      <c r="C13" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="194" t="s">
+      <c r="H13" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="123" t="s">
+      <c r="J13" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="126" t="s">
+      <c r="K13" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="123" t="s">
+      <c r="L13" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="194" t="s">
+      <c r="M13" s="144" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="181"/>
-      <c r="C14" s="180" t="s">
+      <c r="B14" s="283"/>
+      <c r="C14" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="211" t="s">
+      <c r="D14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="195" t="s">
+      <c r="H14" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="211" t="s">
+      <c r="I14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="127" t="s">
+      <c r="K14" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="120" t="s">
+      <c r="L14" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="195" t="s">
+      <c r="M14" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="181"/>
-      <c r="C15" s="180" t="s">
+      <c r="B15" s="283"/>
+      <c r="C15" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="148">
         <v>10255255255</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="196" t="s">
+      <c r="H15" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="198">
+      <c r="I15" s="148">
         <v>10255255255</v>
       </c>
-      <c r="J15" s="121" t="s">
+      <c r="J15" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="128" t="s">
+      <c r="K15" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="124" t="s">
+      <c r="L15" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="196" t="s">
+      <c r="M15" s="146" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="181"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="283"/>
+      <c r="C16" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="182" t="s">
+      <c r="D16" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="149" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="F16" s="206" t="str">
+      <c r="F16" s="289" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="182" t="s">
+      <c r="G16" s="290"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="149" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="K16" s="206" t="str">
+      <c r="K16" s="289" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="L16" s="207"/>
-      <c r="M16" s="208"/>
+      <c r="L16" s="290"/>
+      <c r="M16" s="291"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="184"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="184"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="136"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="197"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="147"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="283" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="136" t="s">
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="118" t="s">
+      <c r="J18" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="192"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="142"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="181"/>
-      <c r="C19" s="180" t="s">
+      <c r="B19" s="283"/>
+      <c r="C19" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D19" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="182" t="s">
+      <c r="F19" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="193" t="s">
+      <c r="H19" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="182" t="s">
+      <c r="I19" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="122" t="s">
+      <c r="J19" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="241" t="s">
+      <c r="K19" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="M19" s="193" t="s">
+      <c r="M19" s="143" t="s">
         <v>135</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="181"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="283"/>
+      <c r="C20" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="183" t="s">
+      <c r="D20" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="194" t="s">
+      <c r="H20" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="183" t="s">
+      <c r="I20" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="123" t="s">
+      <c r="J20" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="126" t="s">
+      <c r="L20" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="194" t="s">
+      <c r="M20" s="144" t="s">
         <v>119</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="181"/>
-      <c r="C21" s="180" t="s">
+      <c r="B21" s="283"/>
+      <c r="C21" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="211" t="s">
+      <c r="D21" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="120" t="s">
+      <c r="F21" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="127" t="s">
+      <c r="G21" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="195" t="s">
+      <c r="H21" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="211" t="s">
+      <c r="I21" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="120" t="s">
+      <c r="J21" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="120" t="s">
+      <c r="K21" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="L21" s="127" t="s">
+      <c r="L21" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="195" t="s">
+      <c r="M21" s="145" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="181"/>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="283"/>
+      <c r="C22" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="121" t="s">
+      <c r="F22" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="G22" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="196" t="s">
+      <c r="H22" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="183" t="s">
+      <c r="I22" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="121" t="s">
+      <c r="J22" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="121" t="s">
+      <c r="K22" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="L22" s="129" t="s">
+      <c r="L22" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="196" t="s">
+      <c r="M22" s="146" t="s">
         <v>125</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="181"/>
-      <c r="C23" s="180" t="s">
+      <c r="B23" s="283"/>
+      <c r="C23" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="203" t="str">
+      <c r="E23" s="287" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="F23" s="204"/>
-      <c r="G23" s="209" t="str">
+      <c r="F23" s="288"/>
+      <c r="G23" s="275" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="H23" s="210"/>
-      <c r="I23" s="182" t="s">
+      <c r="H23" s="276"/>
+      <c r="I23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="203" t="str">
+      <c r="J23" s="287" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="K23" s="204"/>
-      <c r="L23" s="209" t="str">
+      <c r="K23" s="288"/>
+      <c r="L23" s="275" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="M23" s="210"/>
+      <c r="M23" s="276"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="185"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="185"/>
+      <c r="D24" s="137"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="137"/>
       <c r="J24"/>
       <c r="K24" s="19"/>
-      <c r="M24" s="197"/>
+      <c r="M24" s="147"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="283" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="179" t="s">
+      <c r="C25" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="186" t="s">
+      <c r="E25" s="272" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="136" t="s">
+      <c r="F25" s="273"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="186" t="s">
+      <c r="J25" s="272" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="191"/>
+      <c r="K25" s="273"/>
+      <c r="L25" s="273"/>
+      <c r="M25" s="274"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="181"/>
-      <c r="C26" s="180" t="s">
+      <c r="B26" s="283"/>
+      <c r="C26" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="86">
         <v>11000000</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="86">
         <v>10101000</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="187" t="s">
+      <c r="H26" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="182" t="s">
+      <c r="I26" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="86">
         <v>11000000</v>
       </c>
-      <c r="K26" s="122">
+      <c r="K26" s="86">
         <v>10101000</v>
       </c>
-      <c r="L26" s="122" t="s">
+      <c r="L26" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="M26" s="187" t="s">
+      <c r="M26" s="138" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="181"/>
-      <c r="C27" s="180" t="s">
+      <c r="B27" s="283"/>
+      <c r="C27" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="123">
+      <c r="E27" s="87">
         <v>11111111</v>
       </c>
-      <c r="F27" s="123">
+      <c r="F27" s="87">
         <v>11111111</v>
       </c>
-      <c r="G27" s="123">
+      <c r="G27" s="87">
         <v>11111111</v>
       </c>
-      <c r="H27" s="188" t="s">
+      <c r="H27" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="183" t="s">
+      <c r="I27" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="123">
+      <c r="J27" s="87">
         <v>11111111</v>
       </c>
-      <c r="K27" s="123">
+      <c r="K27" s="87">
         <v>11111111</v>
       </c>
-      <c r="L27" s="123">
+      <c r="L27" s="87">
         <v>11111111</v>
       </c>
-      <c r="M27" s="188" t="s">
+      <c r="M27" s="139" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="181"/>
-      <c r="C28" s="180" t="s">
+      <c r="B28" s="283"/>
+      <c r="C28" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="211" t="s">
+      <c r="D28" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="84">
         <v>10101000</v>
       </c>
-      <c r="G28" s="120" t="s">
+      <c r="G28" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="189" t="s">
+      <c r="H28" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="211" t="s">
+      <c r="I28" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="J28" s="120" t="s">
+      <c r="J28" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="120">
+      <c r="K28" s="84">
         <v>10101000</v>
       </c>
-      <c r="L28" s="120" t="s">
+      <c r="L28" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="M28" s="189" t="s">
+      <c r="M28" s="140" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="181"/>
-      <c r="C29" s="180" t="s">
+      <c r="B29" s="283"/>
+      <c r="C29" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="183" t="s">
+      <c r="D29" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="121" t="s">
+      <c r="E29" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="85">
         <v>10101000</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="190" t="s">
+      <c r="H29" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="183" t="s">
+      <c r="I29" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="121" t="s">
+      <c r="J29" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="85">
         <v>10101000</v>
       </c>
-      <c r="L29" s="121" t="s">
+      <c r="L29" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="M29" s="190" t="s">
+      <c r="M29" s="141" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="181"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="283"/>
+      <c r="C30" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="284" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="F30" s="201"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="205" t="str">
+      <c r="F30" s="285"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="150" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
       </c>
-      <c r="I30" s="182" t="s">
+      <c r="I30" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="284" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="K30" s="201"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="205" t="str">
+      <c r="K30" s="285"/>
+      <c r="L30" s="286"/>
+      <c r="M30" s="150" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
       </c>
@@ -5059,4 +5678,1192 @@
     <ignoredError sqref="C5:C9 E5:E9 G5 I5 E19:H22 E12:H15 G26:H29 E28:E29 J13:M18 J29:K29 M29 J28:K28 M28 J23:M25 J21 M21 J27:M27 J26:K26 J22 L22:M22 J20:K20 J19 M20 J12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEDC826-54FE-44AE-8F2C-24385E50CD29}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="66">
+        <f>16^4</f>
+        <v>65536</v>
+      </c>
+      <c r="C3" s="33">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="D3" s="66">
+        <f>16^2</f>
+        <v>256</v>
+      </c>
+      <c r="E3" s="33">
+        <f>16^1</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="66">
+        <f>16^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="298" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="265" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="265"/>
+      <c r="M6" s="260" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="258"/>
+      <c r="R6" s="259"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69">
+        <v>10</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="70">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="190" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="191" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="169">
+        <v>54</v>
+      </c>
+      <c r="N7" s="172">
+        <v>16</v>
+      </c>
+      <c r="O7" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="297"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>128</v>
+      </c>
+      <c r="B8" s="72">
+        <v>1</v>
+      </c>
+      <c r="C8" s="73">
+        <v>0</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0</v>
+      </c>
+      <c r="E8" s="177">
+        <v>0</v>
+      </c>
+      <c r="F8" s="72">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0</v>
+      </c>
+      <c r="H8" s="72">
+        <v>0</v>
+      </c>
+      <c r="I8" s="73">
+        <v>0</v>
+      </c>
+      <c r="J8" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="182">
+        <v>80</v>
+      </c>
+      <c r="M8" s="196">
+        <v>6</v>
+      </c>
+      <c r="N8" s="196">
+        <v>3</v>
+      </c>
+      <c r="O8" s="292">
+        <v>36</v>
+      </c>
+      <c r="P8" s="293"/>
+      <c r="Q8" s="293"/>
+      <c r="R8" s="294"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74">
+        <v>127</v>
+      </c>
+      <c r="B9" s="73">
+        <v>0</v>
+      </c>
+      <c r="C9" s="72">
+        <v>1</v>
+      </c>
+      <c r="D9" s="73">
+        <v>1</v>
+      </c>
+      <c r="E9" s="186">
+        <v>1</v>
+      </c>
+      <c r="F9" s="73">
+        <v>1</v>
+      </c>
+      <c r="G9" s="72">
+        <v>1</v>
+      </c>
+      <c r="H9" s="73">
+        <v>1</v>
+      </c>
+      <c r="I9" s="72">
+        <v>1</v>
+      </c>
+      <c r="J9" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="M9" s="169">
+        <v>124</v>
+      </c>
+      <c r="N9" s="172">
+        <v>16</v>
+      </c>
+      <c r="O9" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P9" s="296"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="297"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
+        <v>172</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1</v>
+      </c>
+      <c r="C10" s="73">
+        <v>0</v>
+      </c>
+      <c r="D10" s="72">
+        <v>1</v>
+      </c>
+      <c r="E10" s="177">
+        <v>0</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73">
+        <v>1</v>
+      </c>
+      <c r="H10" s="72">
+        <v>0</v>
+      </c>
+      <c r="I10" s="73">
+        <v>0</v>
+      </c>
+      <c r="J10" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="196">
+        <v>12</v>
+      </c>
+      <c r="N10" s="196">
+        <v>7</v>
+      </c>
+      <c r="O10" s="292" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="293"/>
+      <c r="Q10" s="293"/>
+      <c r="R10" s="294"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74">
+        <v>192</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1</v>
+      </c>
+      <c r="C11" s="72">
+        <v>1</v>
+      </c>
+      <c r="D11" s="73">
+        <v>0</v>
+      </c>
+      <c r="E11" s="186">
+        <v>0</v>
+      </c>
+      <c r="F11" s="73">
+        <v>0</v>
+      </c>
+      <c r="G11" s="72">
+        <v>0</v>
+      </c>
+      <c r="H11" s="73">
+        <v>0</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0</v>
+      </c>
+      <c r="J11" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="169">
+        <v>25</v>
+      </c>
+      <c r="N11" s="172">
+        <v>16</v>
+      </c>
+      <c r="O11" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="297"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
+        <v>168</v>
+      </c>
+      <c r="B12" s="72">
+        <v>1</v>
+      </c>
+      <c r="C12" s="73">
+        <v>0</v>
+      </c>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="177">
+        <v>0</v>
+      </c>
+      <c r="F12" s="72">
+        <v>1</v>
+      </c>
+      <c r="G12" s="73">
+        <v>0</v>
+      </c>
+      <c r="H12" s="72">
+        <v>0</v>
+      </c>
+      <c r="I12" s="73">
+        <v>0</v>
+      </c>
+      <c r="J12" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="196">
+        <v>9</v>
+      </c>
+      <c r="N12" s="196">
+        <v>1</v>
+      </c>
+      <c r="O12" s="292">
+        <v>19</v>
+      </c>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="294"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74">
+        <v>25</v>
+      </c>
+      <c r="B13" s="73">
+        <v>0</v>
+      </c>
+      <c r="C13" s="72">
+        <v>0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>0</v>
+      </c>
+      <c r="E13" s="186">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="72">
+        <v>0</v>
+      </c>
+      <c r="H13" s="73">
+        <v>0</v>
+      </c>
+      <c r="I13" s="72">
+        <v>1</v>
+      </c>
+      <c r="J13" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="183">
+        <v>19</v>
+      </c>
+      <c r="M13" s="169">
+        <v>62</v>
+      </c>
+      <c r="N13" s="172">
+        <v>16</v>
+      </c>
+      <c r="O13" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P13" s="296"/>
+      <c r="Q13" s="296"/>
+      <c r="R13" s="297"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>54</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1</v>
+      </c>
+      <c r="E14" s="187">
+        <v>1</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0</v>
+      </c>
+      <c r="G14" s="66">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33">
+        <v>1</v>
+      </c>
+      <c r="I14" s="66">
+        <v>0</v>
+      </c>
+      <c r="J14" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="184">
+        <v>36</v>
+      </c>
+      <c r="M14" s="196">
+        <v>14</v>
+      </c>
+      <c r="N14" s="196">
+        <v>3</v>
+      </c>
+      <c r="O14" s="292" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="293"/>
+      <c r="Q14" s="293"/>
+      <c r="R14" s="294"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74">
+        <v>62</v>
+      </c>
+      <c r="B15" s="73">
+        <v>0</v>
+      </c>
+      <c r="C15" s="72">
+        <v>0</v>
+      </c>
+      <c r="D15" s="73">
+        <v>1</v>
+      </c>
+      <c r="E15" s="186">
+        <v>1</v>
+      </c>
+      <c r="F15" s="73">
+        <v>1</v>
+      </c>
+      <c r="G15" s="72">
+        <v>1</v>
+      </c>
+      <c r="H15" s="73">
+        <v>1</v>
+      </c>
+      <c r="I15" s="72">
+        <v>0</v>
+      </c>
+      <c r="J15" s="178" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="M15" s="169">
+        <v>106</v>
+      </c>
+      <c r="N15" s="172">
+        <v>16</v>
+      </c>
+      <c r="O15" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="297"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
+        <v>106</v>
+      </c>
+      <c r="B16" s="72">
+        <v>0</v>
+      </c>
+      <c r="C16" s="73">
+        <v>1</v>
+      </c>
+      <c r="D16" s="72">
+        <v>1</v>
+      </c>
+      <c r="E16" s="177">
+        <v>0</v>
+      </c>
+      <c r="F16" s="72">
+        <v>1</v>
+      </c>
+      <c r="G16" s="73">
+        <v>0</v>
+      </c>
+      <c r="H16" s="72">
+        <v>1</v>
+      </c>
+      <c r="I16" s="197">
+        <v>0</v>
+      </c>
+      <c r="J16" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" s="196">
+        <v>10</v>
+      </c>
+      <c r="N16" s="196">
+        <v>6</v>
+      </c>
+      <c r="O16" s="292" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="293"/>
+      <c r="Q16" s="293"/>
+      <c r="R16" s="294"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74">
+        <v>139</v>
+      </c>
+      <c r="B17" s="73">
+        <v>1</v>
+      </c>
+      <c r="C17" s="72">
+        <v>0</v>
+      </c>
+      <c r="D17" s="73">
+        <v>0</v>
+      </c>
+      <c r="E17" s="186">
+        <v>0</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1</v>
+      </c>
+      <c r="G17" s="72">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73">
+        <v>1</v>
+      </c>
+      <c r="I17" s="72">
+        <v>1</v>
+      </c>
+      <c r="J17" s="192" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="193" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="169">
+        <v>28</v>
+      </c>
+      <c r="N17" s="172">
+        <v>16</v>
+      </c>
+      <c r="O17" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="296"/>
+      <c r="Q17" s="296"/>
+      <c r="R17" s="297"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
+        <v>124</v>
+      </c>
+      <c r="B18" s="33">
+        <v>0</v>
+      </c>
+      <c r="C18" s="66">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="187">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="G18" s="66">
+        <v>1</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+      <c r="I18" s="66">
+        <v>0</v>
+      </c>
+      <c r="J18" s="194" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="195" t="s">
+        <v>229</v>
+      </c>
+      <c r="M18" s="196">
+        <v>12</v>
+      </c>
+      <c r="N18" s="196">
+        <v>1</v>
+      </c>
+      <c r="O18" s="292" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" s="293"/>
+      <c r="Q18" s="293"/>
+      <c r="R18" s="294"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA523E9B-02D6-4DFC-9913-DDC28647DF6E}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="206" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="302" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="207" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="305" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="223" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="300" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="208" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="209">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="210" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="211" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="212" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="212" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="212" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="212" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="189" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="218" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="218" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="213" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="214">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="215" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="216">
+        <v>1</v>
+      </c>
+      <c r="F3" s="217">
+        <v>0</v>
+      </c>
+      <c r="G3" s="217">
+        <v>0</v>
+      </c>
+      <c r="H3" s="217">
+        <v>0</v>
+      </c>
+      <c r="I3" s="217">
+        <v>1</v>
+      </c>
+      <c r="J3" s="221" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="204" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="219" t="s">
+        <v>284</v>
+      </c>
+      <c r="M3" s="219" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="208" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="209">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="209" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="210" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="211">
+        <v>1</v>
+      </c>
+      <c r="F4" s="303" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="212">
+        <v>1</v>
+      </c>
+      <c r="J4" s="189" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="205" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="220" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="220" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="304" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="222" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="204" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="219" t="s">
+        <v>288</v>
+      </c>
+      <c r="M5" s="219" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="301" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="198" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="198" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="198">
+        <v>31</v>
+      </c>
+      <c r="E8" s="199" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="199" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="198" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="198">
+        <v>81</v>
+      </c>
+      <c r="I8" s="198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="201" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="201">
+        <v>31</v>
+      </c>
+      <c r="E9" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="201" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="201">
+        <v>81</v>
+      </c>
+      <c r="I9" s="201">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="198" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="198" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="198" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="199" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="198" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="198" t="s">
+        <v>261</v>
+      </c>
+      <c r="I10" s="198" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="203" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="201" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="201" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="201" t="s">
+        <v>261</v>
+      </c>
+      <c r="I11" s="201" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="198" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="198" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="198" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="199" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="198" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="201" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="201" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="201" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="201" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="198" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="198" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="199" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="198" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="203" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="201" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="201">
+        <v>85</v>
+      </c>
+      <c r="E15" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="201" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="201" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="201">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="188"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B10:I10 B11:I13 B14:I15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72FAC2-554A-45B5-9FF4-3F2D3EAFE2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C5D41-5EE1-4246-AEA7-56BD332E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="IPv4" sheetId="5" r:id="rId4"/>
     <sheet name="HEX" sheetId="6" r:id="rId5"/>
     <sheet name="IPv6" sheetId="7" r:id="rId6"/>
+    <sheet name="CLASSIC" sheetId="8" r:id="rId7"/>
+    <sheet name="VLSM" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="449">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -1233,6 +1235,810 @@
   <si>
     <t>Perturbación causada por los campos eléctricos o magnéticos de una señal de un hilo a uno adyacente. En los circuitos telefónicos, el crosstalk puede provocar que se escuche parte de otra conversación de voz de un circuito adyacente. Cuando la corriente eléctrica fluye por un hilo, crea un pequeño campo magnético circular alrededor de dicho hilo, que puede captar un hilo adyacente.</t>
   </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>SUBNET</t>
+  </si>
+  <si>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SM Original</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>SM nueva</t>
+  </si>
+  <si>
+    <t>10 bits</t>
+  </si>
+  <si>
+    <t>255.192.0.0</t>
+  </si>
+  <si>
+    <t>subredes</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>ip ini</t>
+  </si>
+  <si>
+    <t>ip fin</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>salto</t>
+  </si>
+  <si>
+    <t>10.64.0.0</t>
+  </si>
+  <si>
+    <t>10.128.0.0</t>
+  </si>
+  <si>
+    <t>10.192.0.0</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <t>10.64.0.1</t>
+  </si>
+  <si>
+    <t>10.128.0.1</t>
+  </si>
+  <si>
+    <t>10.192.0.1</t>
+  </si>
+  <si>
+    <t>10.63.255.255</t>
+  </si>
+  <si>
+    <t>10.63.255.254</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>impar</t>
+  </si>
+  <si>
+    <t>2^h -2 = HOSTS</t>
+  </si>
+  <si>
+    <t>32 - bits subred = h</t>
+  </si>
+  <si>
+    <t>host x subred</t>
+  </si>
+  <si>
+    <t>2^n &gt;= subredes</t>
+  </si>
+  <si>
+    <t>Salto de red</t>
+  </si>
+  <si>
+    <t>256 / subredes</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>2^h -2</t>
+  </si>
+  <si>
+    <t>11 subredes</t>
+  </si>
+  <si>
+    <t>Bits necesarios</t>
+  </si>
+  <si>
+    <t>Calculo de bits</t>
+  </si>
+  <si>
+    <t>salto de red</t>
+  </si>
+  <si>
+    <t>16 posibles</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>255.255.240.0</t>
+  </si>
+  <si>
+    <t>172.20.16.0</t>
+  </si>
+  <si>
+    <t>172.20.15.255</t>
+  </si>
+  <si>
+    <t>172.20.0.1</t>
+  </si>
+  <si>
+    <t>172.20.15.254</t>
+  </si>
+  <si>
+    <t>172.20.16.1</t>
+  </si>
+  <si>
+    <t>3 byte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>172.20.32.0</t>
+  </si>
+  <si>
+    <t>172.20.32.1</t>
+  </si>
+  <si>
+    <t>172.20.31.255</t>
+  </si>
+  <si>
+    <t>172.20.31.254</t>
+  </si>
+  <si>
+    <t>172.20.48.0</t>
+  </si>
+  <si>
+    <t>172.20.64.0</t>
+  </si>
+  <si>
+    <t>172.20.80.0</t>
+  </si>
+  <si>
+    <t>172.20.96.0</t>
+  </si>
+  <si>
+    <t>172.20.112.0</t>
+  </si>
+  <si>
+    <t>172.20.128.0</t>
+  </si>
+  <si>
+    <t>172.20.144.0</t>
+  </si>
+  <si>
+    <t>172.20.160.0</t>
+  </si>
+  <si>
+    <t>172.20.176.0</t>
+  </si>
+  <si>
+    <t>172.20.192.0</t>
+  </si>
+  <si>
+    <t>172.20.208.0</t>
+  </si>
+  <si>
+    <t>172.20.224.0</t>
+  </si>
+  <si>
+    <t>172.20.240.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>172.20.48.1</t>
+  </si>
+  <si>
+    <t>172.20.64.1</t>
+  </si>
+  <si>
+    <t>172.20.80.1</t>
+  </si>
+  <si>
+    <t>172.20.96.1</t>
+  </si>
+  <si>
+    <t>172.20.112.1</t>
+  </si>
+  <si>
+    <t>172.20.128.1</t>
+  </si>
+  <si>
+    <t>172.20.144.1</t>
+  </si>
+  <si>
+    <t>172.20.160.1</t>
+  </si>
+  <si>
+    <t>172.20.176.1</t>
+  </si>
+  <si>
+    <t>172.20.192.1</t>
+  </si>
+  <si>
+    <t>172.20.208.1</t>
+  </si>
+  <si>
+    <t>172.20.224.1</t>
+  </si>
+  <si>
+    <t>172.20.240.1</t>
+  </si>
+  <si>
+    <t>172.20.239.255</t>
+  </si>
+  <si>
+    <t>172.20.223.255</t>
+  </si>
+  <si>
+    <t>172.20.207.255</t>
+  </si>
+  <si>
+    <t>172.20.47.255</t>
+  </si>
+  <si>
+    <t>172.20.63.255</t>
+  </si>
+  <si>
+    <t>172.20.79.255</t>
+  </si>
+  <si>
+    <t>172.20.95.255</t>
+  </si>
+  <si>
+    <t>172.20.111.255</t>
+  </si>
+  <si>
+    <t>172.20.127.255</t>
+  </si>
+  <si>
+    <t>172.20.143.255</t>
+  </si>
+  <si>
+    <t>172.20.159.255</t>
+  </si>
+  <si>
+    <t>172.20.175.255</t>
+  </si>
+  <si>
+    <t>172.20.191.255</t>
+  </si>
+  <si>
+    <t>172.20.47.254</t>
+  </si>
+  <si>
+    <t>172.20.63.254</t>
+  </si>
+  <si>
+    <t>172.20.79.254</t>
+  </si>
+  <si>
+    <t>172.20.95.254</t>
+  </si>
+  <si>
+    <t>172.20.111.254</t>
+  </si>
+  <si>
+    <t>172.20.127.254</t>
+  </si>
+  <si>
+    <t>172.20.143.254</t>
+  </si>
+  <si>
+    <t>172.20.159.254</t>
+  </si>
+  <si>
+    <t>172.20.175.254</t>
+  </si>
+  <si>
+    <t>172.20.191.254</t>
+  </si>
+  <si>
+    <t>172.20.207.254</t>
+  </si>
+  <si>
+    <t>172.20.223.254</t>
+  </si>
+  <si>
+    <t>172.20.239.254</t>
+  </si>
+  <si>
+    <t>172.20.255.254</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>Hosts x subred</t>
+  </si>
+  <si>
+    <t>8 subredes</t>
+  </si>
+  <si>
+    <t>8 posibles</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.192</t>
+  </si>
+  <si>
+    <t>192.168.0.224</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>192.168.0.191</t>
+  </si>
+  <si>
+    <t>192.168.0.223</t>
+  </si>
+  <si>
+    <t>192.168.0.33</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t>192.168.0.97</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.161</t>
+  </si>
+  <si>
+    <t>192.168.0.193</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
 </sst>
 </file>
 
@@ -1247,7 +2053,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +2175,19 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1976,7 +2795,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2780,6 +3599,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -3104,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651BEDB-B928-44A9-A7A9-86D2E8AFC30B}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:O17"/>
     </sheetView>
   </sheetViews>
@@ -6866,4 +7692,877 @@
     <ignoredError sqref="B10:I10 B11:I13 B14:I15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D435661-3ABF-402C-8B05-AD993B7D7E51}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40:F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="307" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="307" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="307">
+        <v>10127255254</v>
+      </c>
+      <c r="I6" s="307">
+        <v>10127255255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="307">
+        <v>10191255254</v>
+      </c>
+      <c r="I7" s="307">
+        <v>10191255255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="307">
+        <v>10255255254</v>
+      </c>
+      <c r="I8" s="307">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="57">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13" s="309" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="309" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="309" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="309" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="310">
+        <f>2^22 - 2</f>
+        <v>4194302</v>
+      </c>
+      <c r="C17" s="311">
+        <f>B17*4</f>
+        <v>16777208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="309" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="308" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="307" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" s="307" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22">
+        <f>256/16</f>
+        <v>16</v>
+      </c>
+      <c r="D22" s="308" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" t="s">
+        <v>347</v>
+      </c>
+      <c r="H22" s="307" t="s">
+        <v>361</v>
+      </c>
+      <c r="I22" s="307" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="308" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" t="s">
+        <v>359</v>
+      </c>
+      <c r="H23" s="307" t="s">
+        <v>408</v>
+      </c>
+      <c r="I23" s="307" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="308" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" s="307" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="307" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25">
+        <f>2^12 -2</f>
+        <v>4094</v>
+      </c>
+      <c r="D25" s="308" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" s="307" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="307" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="308" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>364</v>
+      </c>
+      <c r="G26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26" s="307" t="s">
+        <v>411</v>
+      </c>
+      <c r="I26" s="307" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="308" t="s">
+        <v>355</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G27" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" s="307" t="s">
+        <v>412</v>
+      </c>
+      <c r="I27" s="307" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="308" t="s">
+        <v>356</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28" s="307" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" s="307" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="308" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29" s="307" t="s">
+        <v>414</v>
+      </c>
+      <c r="I29" s="307" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="308" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30" s="307" t="s">
+        <v>415</v>
+      </c>
+      <c r="I30" s="307" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="308" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="307" t="s">
+        <v>416</v>
+      </c>
+      <c r="I31" s="307" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="308" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="307" t="s">
+        <v>417</v>
+      </c>
+      <c r="I32" s="307" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="308" t="s">
+        <v>378</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>371</v>
+      </c>
+      <c r="G33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H33" t="s">
+        <v>418</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="308" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34" t="s">
+        <v>392</v>
+      </c>
+      <c r="H34" t="s">
+        <v>419</v>
+      </c>
+      <c r="I34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="308" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" t="s">
+        <v>420</v>
+      </c>
+      <c r="I35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="308" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H36" t="s">
+        <v>421</v>
+      </c>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="308" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>327</v>
+      </c>
+      <c r="H38" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40">
+        <f>256/8</f>
+        <v>32</v>
+      </c>
+      <c r="D40" s="308"/>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H40" t="s">
+        <v>435</v>
+      </c>
+      <c r="I40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="308" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41" t="s">
+        <v>442</v>
+      </c>
+      <c r="H41" t="s">
+        <v>436</v>
+      </c>
+      <c r="I41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="D42" s="308"/>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H42" t="s">
+        <v>437</v>
+      </c>
+      <c r="I42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B43">
+        <f>2^5-2</f>
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" t="s">
+        <v>444</v>
+      </c>
+      <c r="H43" t="s">
+        <v>438</v>
+      </c>
+      <c r="I43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="308"/>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>431</v>
+      </c>
+      <c r="G44" t="s">
+        <v>445</v>
+      </c>
+      <c r="H44" t="s">
+        <v>439</v>
+      </c>
+      <c r="I44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" t="s">
+        <v>446</v>
+      </c>
+      <c r="H45" t="s">
+        <v>440</v>
+      </c>
+      <c r="I45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="308"/>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>433</v>
+      </c>
+      <c r="G46" t="s">
+        <v>447</v>
+      </c>
+      <c r="H46" t="s">
+        <v>441</v>
+      </c>
+      <c r="I46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>434</v>
+      </c>
+      <c r="G47" t="s">
+        <v>448</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1066F-76F3-4834-8CFB-41449B38856E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C5D41-5EE1-4246-AEA7-56BD332E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8535D-D21E-44F0-9CB8-47817A132E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="477">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -2038,6 +2038,90 @@
   </si>
   <si>
     <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>Variable Length Subnet Mask</t>
+  </si>
+  <si>
+    <t>Se prioriza la cantidad de HOSTS por subred</t>
+  </si>
+  <si>
+    <t>2^h - 2 &gt;= hosts por subred</t>
+  </si>
+  <si>
+    <t>ordenar descendentemente las redes</t>
+  </si>
+  <si>
+    <t>a = 50</t>
+  </si>
+  <si>
+    <t>b = 120</t>
+  </si>
+  <si>
+    <t>c = 30</t>
+  </si>
+  <si>
+    <t>d = 40</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>depto</t>
+  </si>
+  <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>172.16.0.128</t>
+  </si>
+  <si>
+    <t>172.16.0.126</t>
+  </si>
+  <si>
+    <t>172.16.0.127</t>
+  </si>
+  <si>
+    <t>172.16.0.129</t>
+  </si>
+  <si>
+    <t>172.16.0.192</t>
+  </si>
+  <si>
+    <t>172.16.0.190</t>
+  </si>
+  <si>
+    <t>172.16.0.191</t>
+  </si>
+  <si>
+    <t>172.16.0.193</t>
+  </si>
+  <si>
+    <t>172.16.1.0</t>
+  </si>
+  <si>
+    <t>172.16.1.1</t>
+  </si>
+  <si>
+    <t>172.16.0.255</t>
+  </si>
+  <si>
+    <t>172.16.0.254</t>
+  </si>
+  <si>
+    <t>172.16.0.31</t>
+  </si>
+  <si>
+    <t>172.16.0.30</t>
   </si>
 </sst>
 </file>
@@ -3350,252 +3434,6 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3606,6 +3444,252 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -3950,7 +4034,7 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
     <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" style="306" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" style="224" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3961,43 +4045,43 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="226"/>
-      <c r="I2" s="228" t="s">
+      <c r="E2" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="247"/>
+      <c r="I2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="228" t="s">
+      <c r="K2" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="227" t="s">
+      <c r="M2" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="228" t="s">
+      <c r="O2" s="231" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="228" t="s">
+      <c r="Q2" s="231" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="247"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="245" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="225"/>
+      <c r="F3" s="246"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="228"/>
+      <c r="I3" s="231"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="228"/>
-      <c r="M3" s="227"/>
-      <c r="O3" s="228"/>
-      <c r="Q3" s="228"/>
+      <c r="K3" s="231"/>
+      <c r="M3" s="248"/>
+      <c r="O3" s="231"/>
+      <c r="Q3" s="231"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4021,21 +4105,21 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="238" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="232" t="s">
+      <c r="K4" s="230" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="232" t="s">
+      <c r="M4" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="232" t="s">
+      <c r="O4" s="230" t="s">
         <v>295</v>
       </c>
-      <c r="Q4" s="232" t="s">
+      <c r="Q4" s="230" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4061,13 +4145,13 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="232"/>
+      <c r="I5" s="230"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="232"/>
+      <c r="K5" s="230"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="232"/>
-      <c r="O5" s="232"/>
-      <c r="Q5" s="232"/>
+      <c r="M5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="Q5" s="230"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4091,13 +4175,13 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="232"/>
+      <c r="I6" s="230"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="232"/>
+      <c r="K6" s="230"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="232"/>
-      <c r="O6" s="232"/>
-      <c r="Q6" s="232"/>
+      <c r="M6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="Q6" s="230"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4121,13 +4205,13 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="232"/>
+      <c r="I7" s="230"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="232"/>
+      <c r="K7" s="230"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="Q7" s="232"/>
+      <c r="M7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="Q7" s="230"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4151,13 +4235,13 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="232"/>
+      <c r="I8" s="230"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="232"/>
+      <c r="K8" s="230"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="232"/>
-      <c r="O8" s="232"/>
-      <c r="Q8" s="232"/>
+      <c r="M8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="Q8" s="230"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4181,13 +4265,13 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="232"/>
+      <c r="I9" s="230"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="232"/>
+      <c r="K9" s="230"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="232"/>
-      <c r="O9" s="232"/>
-      <c r="Q9" s="232"/>
+      <c r="M9" s="230"/>
+      <c r="O9" s="230"/>
+      <c r="Q9" s="230"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4211,13 +4295,13 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="232"/>
+      <c r="I10" s="230"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="232"/>
+      <c r="K10" s="230"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="232"/>
-      <c r="O10" s="232"/>
-      <c r="Q10" s="232"/>
+      <c r="M10" s="230"/>
+      <c r="O10" s="230"/>
+      <c r="Q10" s="230"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4241,121 +4325,121 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="232"/>
+      <c r="I11" s="230"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="232"/>
+      <c r="K11" s="230"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="232"/>
-      <c r="O11" s="232"/>
-      <c r="Q11" s="232"/>
+      <c r="M11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="Q11" s="230"/>
     </row>
     <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="Q12" s="232"/>
+      <c r="M12" s="230"/>
+      <c r="O12" s="230"/>
+      <c r="Q12" s="230"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="231"/>
-      <c r="D13" s="240" t="s">
+      <c r="C13" s="234"/>
+      <c r="D13" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
-      <c r="M13" s="232"/>
-      <c r="O13" s="232"/>
-      <c r="Q13" s="232"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="244"/>
+      <c r="M13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="Q13" s="230"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="237" t="s">
+      <c r="C14" s="235"/>
+      <c r="D14" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="238"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="239"/>
-      <c r="M14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="Q14" s="232"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="241"/>
+      <c r="M14" s="230"/>
+      <c r="O14" s="230"/>
+      <c r="Q14" s="230"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="231"/>
-      <c r="D15" s="229" t="s">
+      <c r="C15" s="234"/>
+      <c r="D15" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="230"/>
-      <c r="M15" s="232"/>
-      <c r="O15" s="232"/>
-      <c r="Q15" s="232"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="233"/>
+      <c r="M15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="Q15" s="230"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="235" t="s">
+      <c r="C16" s="236"/>
+      <c r="D16" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="235"/>
-      <c r="M16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="Q16" s="232"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="M16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="Q16" s="230"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="229" t="s">
+      <c r="C17" s="234"/>
+      <c r="D17" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="230"/>
-      <c r="M17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="Q17" s="232"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="M17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="Q17" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q4:Q17"/>
-    <mergeCell ref="O4:O17"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
     <mergeCell ref="B14:C14"/>
@@ -4368,12 +4452,12 @@
     <mergeCell ref="K4:K11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D13:K13"/>
+    <mergeCell ref="Q4:Q17"/>
+    <mergeCell ref="O4:O17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4407,19 +4491,19 @@
   <sheetData>
     <row r="1" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="243" t="s">
+      <c r="B2" s="254" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -4568,13 +4652,13 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
@@ -4637,24 +4721,24 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="246"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="257"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="247" t="s">
+      <c r="I12" s="258" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="248"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="248"/>
-      <c r="O12" s="249"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="260"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
@@ -4687,7 +4771,7 @@
       </c>
       <c r="M13" s="250"/>
       <c r="N13" s="250"/>
-      <c r="O13" s="251"/>
+      <c r="O13" s="261"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
@@ -4711,16 +4795,16 @@
       <c r="I14" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="254" t="s">
+      <c r="J14" s="251" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254" t="s">
+      <c r="K14" s="251"/>
+      <c r="L14" s="251" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="255"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="263"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
@@ -4753,16 +4837,16 @@
       </c>
       <c r="M15" s="252"/>
       <c r="N15" s="252"/>
-      <c r="O15" s="253"/>
+      <c r="O15" s="262"/>
     </row>
     <row r="16" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="249" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="61" t="s">
@@ -5046,17 +5130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="L13:O13"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L14:O14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5071,7 +5155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ECFBED-E4D1-42A4-B438-E51C33F07CE4}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5089,24 +5173,24 @@
       <c r="A1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="259"/>
-      <c r="K1" s="264" t="s">
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="265"/>
+      <c r="K1" s="270" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -5136,14 +5220,14 @@
       <c r="I2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="263" t="s">
+      <c r="K2" s="269" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
@@ -5181,12 +5265,12 @@
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
@@ -5216,36 +5300,36 @@
       <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
+      <c r="M4" s="269"/>
+      <c r="N4" s="269"/>
+      <c r="O4" s="269"/>
+      <c r="P4" s="269"/>
     </row>
     <row r="5" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="K6" s="260" t="s">
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="K6" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="259"/>
+      <c r="L6" s="264"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="264"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="265"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69">
@@ -5518,12 +5602,12 @@
       <c r="I13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="261" t="s">
+      <c r="K13" s="267" t="s">
         <v>203</v>
       </c>
-      <c r="L13" s="262"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="262"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="268"/>
+      <c r="N13" s="268"/>
       <c r="O13" s="162"/>
       <c r="P13" s="163"/>
     </row>
@@ -5616,39 +5700,39 @@
       <c r="B2" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="266" t="s">
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="293" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="294"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="269" t="s">
+      <c r="D3" s="295"/>
+      <c r="E3" s="296" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="270"/>
-      <c r="G3" s="269" t="s">
+      <c r="F3" s="297"/>
+      <c r="G3" s="296" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="270"/>
-      <c r="I3" s="268" t="s">
+      <c r="H3" s="297"/>
+      <c r="I3" s="295" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="270"/>
+      <c r="J3" s="297"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="126" t="s">
@@ -5765,9 +5849,9 @@
       <c r="J7" s="118">
         <v>192168255255</v>
       </c>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
       <c r="N7" s="81"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -5786,12 +5870,12 @@
       <c r="F8" s="108">
         <v>239255255255</v>
       </c>
-      <c r="G8" s="277" t="s">
+      <c r="G8" s="287" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="279"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="289"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -5813,12 +5897,12 @@
       <c r="F9" s="123">
         <v>255255255255</v>
       </c>
-      <c r="G9" s="280" t="s">
+      <c r="G9" s="290" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="282"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5836,7 +5920,7 @@
       <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="272" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="132" t="s">
@@ -5862,7 +5946,7 @@
       <c r="M11" s="142"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="283"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="133" t="s">
         <v>159</v>
       </c>
@@ -5898,7 +5982,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="283"/>
+      <c r="B13" s="272"/>
       <c r="C13" s="133" t="s">
         <v>160</v>
       </c>
@@ -5934,7 +6018,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="283"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="133" t="s">
         <v>157</v>
       </c>
@@ -5970,7 +6054,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="283"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="133" t="s">
         <v>158</v>
       </c>
@@ -6006,7 +6090,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="283"/>
+      <c r="B16" s="272"/>
       <c r="C16" s="133" t="s">
         <v>155</v>
       </c>
@@ -6017,12 +6101,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="F16" s="289" t="str">
+      <c r="F16" s="280" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="G16" s="290"/>
-      <c r="H16" s="291"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="282"/>
       <c r="I16" s="134" t="s">
         <v>161</v>
       </c>
@@ -6030,12 +6114,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="K16" s="289" t="str">
+      <c r="K16" s="280" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="L16" s="290"/>
-      <c r="M16" s="291"/>
+      <c r="L16" s="281"/>
+      <c r="M16" s="282"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -6053,7 +6137,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="283" t="s">
+      <c r="B18" s="272" t="s">
         <v>185</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -6081,7 +6165,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="283"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="133" t="s">
         <v>159</v>
       </c>
@@ -6119,7 +6203,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="283"/>
+      <c r="B20" s="272"/>
       <c r="C20" s="133" t="s">
         <v>160</v>
       </c>
@@ -6157,7 +6241,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="283"/>
+      <c r="B21" s="272"/>
       <c r="C21" s="133" t="s">
         <v>157</v>
       </c>
@@ -6195,7 +6279,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="283"/>
+      <c r="B22" s="272"/>
       <c r="C22" s="133" t="s">
         <v>158</v>
       </c>
@@ -6233,36 +6317,36 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="283"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="133" t="s">
         <v>155</v>
       </c>
       <c r="D23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="287" t="str">
+      <c r="E23" s="276" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="F23" s="288"/>
-      <c r="G23" s="275" t="str">
+      <c r="F23" s="277"/>
+      <c r="G23" s="278" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="H23" s="276"/>
+      <c r="H23" s="279"/>
       <c r="I23" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="287" t="str">
+      <c r="J23" s="276" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="K23" s="288"/>
-      <c r="L23" s="275" t="str">
+      <c r="K23" s="277"/>
+      <c r="L23" s="278" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="M23" s="276"/>
+      <c r="M23" s="279"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D24" s="137"/>
@@ -6273,7 +6357,7 @@
       <c r="M24" s="147"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="272" t="s">
         <v>186</v>
       </c>
       <c r="C25" s="132" t="s">
@@ -6282,24 +6366,24 @@
       <c r="D25" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="272" t="s">
+      <c r="E25" s="283" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="273"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="274"/>
+      <c r="F25" s="284"/>
+      <c r="G25" s="284"/>
+      <c r="H25" s="285"/>
       <c r="I25" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="272" t="s">
+      <c r="J25" s="283" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="273"/>
-      <c r="L25" s="273"/>
-      <c r="M25" s="274"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="285"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="283"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="133" t="s">
         <v>159</v>
       </c>
@@ -6335,7 +6419,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="283"/>
+      <c r="B27" s="272"/>
       <c r="C27" s="133" t="s">
         <v>160</v>
       </c>
@@ -6371,7 +6455,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="283"/>
+      <c r="B28" s="272"/>
       <c r="C28" s="133" t="s">
         <v>157</v>
       </c>
@@ -6407,7 +6491,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="283"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="133" t="s">
         <v>158</v>
       </c>
@@ -6443,19 +6527,19 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="283"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="133" t="s">
         <v>155</v>
       </c>
       <c r="D30" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="284" t="str">
+      <c r="E30" s="273" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="F30" s="285"/>
-      <c r="G30" s="286"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="275"/>
       <c r="H30" s="150" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -6463,12 +6547,12 @@
       <c r="I30" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="284" t="str">
+      <c r="J30" s="273" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="K30" s="285"/>
-      <c r="L30" s="286"/>
+      <c r="K30" s="274"/>
+      <c r="L30" s="275"/>
       <c r="M30" s="150" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -6476,6 +6560,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B11:B16"/>
@@ -6487,17 +6582,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="J25:M25"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6510,7 +6594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEDC826-54FE-44AE-8F2C-24385E50CD29}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O10" sqref="O10:R10"/>
     </sheetView>
   </sheetViews>
@@ -6531,13 +6615,13 @@
       <c r="A1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -6588,42 +6672,42 @@
       <c r="A4" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="298" t="s">
+      <c r="B4" s="301" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="271" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265" t="s">
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265" t="s">
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="265"/>
-      <c r="M6" s="260" t="s">
+      <c r="K6" s="271"/>
+      <c r="M6" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="259"/>
+      <c r="N6" s="264"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="264"/>
+      <c r="Q6" s="264"/>
+      <c r="R6" s="265"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69">
@@ -6665,12 +6749,12 @@
       <c r="N7" s="172">
         <v>16</v>
       </c>
-      <c r="O7" s="295" t="s">
+      <c r="O7" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="297"/>
+      <c r="P7" s="299"/>
+      <c r="Q7" s="299"/>
+      <c r="R7" s="300"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
@@ -6712,12 +6796,12 @@
       <c r="N8" s="196">
         <v>3</v>
       </c>
-      <c r="O8" s="292">
+      <c r="O8" s="303">
         <v>36</v>
       </c>
-      <c r="P8" s="293"/>
-      <c r="Q8" s="293"/>
-      <c r="R8" s="294"/>
+      <c r="P8" s="304"/>
+      <c r="Q8" s="304"/>
+      <c r="R8" s="305"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
@@ -6759,12 +6843,12 @@
       <c r="N9" s="172">
         <v>16</v>
       </c>
-      <c r="O9" s="295" t="s">
+      <c r="O9" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="297"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="299"/>
+      <c r="R9" s="300"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
@@ -6806,12 +6890,12 @@
       <c r="N10" s="196">
         <v>7</v>
       </c>
-      <c r="O10" s="292" t="s">
+      <c r="O10" s="303" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="293"/>
-      <c r="Q10" s="293"/>
-      <c r="R10" s="294"/>
+      <c r="P10" s="304"/>
+      <c r="Q10" s="304"/>
+      <c r="R10" s="305"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
@@ -6853,12 +6937,12 @@
       <c r="N11" s="172">
         <v>16</v>
       </c>
-      <c r="O11" s="295" t="s">
+      <c r="O11" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="297"/>
+      <c r="P11" s="299"/>
+      <c r="Q11" s="299"/>
+      <c r="R11" s="300"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
@@ -6900,12 +6984,12 @@
       <c r="N12" s="196">
         <v>1</v>
       </c>
-      <c r="O12" s="292">
+      <c r="O12" s="303">
         <v>19</v>
       </c>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="293"/>
-      <c r="R12" s="294"/>
+      <c r="P12" s="304"/>
+      <c r="Q12" s="304"/>
+      <c r="R12" s="305"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
@@ -6947,12 +7031,12 @@
       <c r="N13" s="172">
         <v>16</v>
       </c>
-      <c r="O13" s="295" t="s">
+      <c r="O13" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P13" s="296"/>
-      <c r="Q13" s="296"/>
-      <c r="R13" s="297"/>
+      <c r="P13" s="299"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="300"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
@@ -6994,12 +7078,12 @@
       <c r="N14" s="196">
         <v>3</v>
       </c>
-      <c r="O14" s="292" t="s">
+      <c r="O14" s="303" t="s">
         <v>226</v>
       </c>
-      <c r="P14" s="293"/>
-      <c r="Q14" s="293"/>
-      <c r="R14" s="294"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="304"/>
+      <c r="R14" s="305"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
@@ -7041,12 +7125,12 @@
       <c r="N15" s="172">
         <v>16</v>
       </c>
-      <c r="O15" s="295" t="s">
+      <c r="O15" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P15" s="296"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="297"/>
+      <c r="P15" s="299"/>
+      <c r="Q15" s="299"/>
+      <c r="R15" s="300"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
@@ -7088,12 +7172,12 @@
       <c r="N16" s="196">
         <v>6</v>
       </c>
-      <c r="O16" s="292" t="s">
+      <c r="O16" s="303" t="s">
         <v>227</v>
       </c>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="293"/>
-      <c r="R16" s="294"/>
+      <c r="P16" s="304"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="305"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74">
@@ -7135,12 +7219,12 @@
       <c r="N17" s="172">
         <v>16</v>
       </c>
-      <c r="O17" s="295" t="s">
+      <c r="O17" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="P17" s="296"/>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="297"/>
+      <c r="P17" s="299"/>
+      <c r="Q17" s="299"/>
+      <c r="R17" s="300"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
@@ -7182,15 +7266,24 @@
       <c r="N18" s="196">
         <v>1</v>
       </c>
-      <c r="O18" s="292" t="s">
+      <c r="O18" s="303" t="s">
         <v>266</v>
       </c>
-      <c r="P18" s="293"/>
-      <c r="Q18" s="293"/>
-      <c r="R18" s="294"/>
+      <c r="P18" s="304"/>
+      <c r="Q18" s="304"/>
+      <c r="R18" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="M6:R6"/>
@@ -7200,15 +7293,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7239,28 +7323,28 @@
       <c r="A1" s="206" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="302" t="s">
+      <c r="B1" s="308" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
       <c r="E1" s="207" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="305" t="s">
+      <c r="F1" s="311" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
       <c r="J1" s="223" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="300" t="s">
+      <c r="K1" s="306" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="208" t="s">
@@ -7360,11 +7444,11 @@
       <c r="E4" s="211">
         <v>1</v>
       </c>
-      <c r="F4" s="303" t="s">
+      <c r="F4" s="309" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
       <c r="I4" s="212">
         <v>1</v>
       </c>
@@ -7385,16 +7469,16 @@
       <c r="A5" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="304" t="s">
+      <c r="B5" s="310" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="310"/>
       <c r="J5" s="222" t="s">
         <v>236</v>
       </c>
@@ -7422,16 +7506,16 @@
       <c r="A7" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="301" t="s">
+      <c r="B7" s="307" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="307"/>
+      <c r="H7" s="307"/>
+      <c r="I7" s="307"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="198" t="s">
@@ -7698,7 +7782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D435661-3ABF-402C-8B05-AD993B7D7E51}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F40" sqref="F40:F47"/>
     </sheetView>
@@ -7786,10 +7870,10 @@
       <c r="G5" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="307" t="s">
+      <c r="H5" s="225" t="s">
         <v>325</v>
       </c>
-      <c r="I5" s="307" t="s">
+      <c r="I5" s="225" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7803,10 +7887,10 @@
       <c r="G6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="307">
+      <c r="H6" s="225">
         <v>10127255254</v>
       </c>
-      <c r="I6" s="307">
+      <c r="I6" s="225">
         <v>10127255255</v>
       </c>
     </row>
@@ -7826,10 +7910,10 @@
       <c r="G7" t="s">
         <v>322</v>
       </c>
-      <c r="H7" s="307">
+      <c r="H7" s="225">
         <v>10191255254</v>
       </c>
-      <c r="I7" s="307">
+      <c r="I7" s="225">
         <v>10191255255</v>
       </c>
     </row>
@@ -7849,10 +7933,10 @@
       <c r="G8" t="s">
         <v>323</v>
       </c>
-      <c r="H8" s="307">
+      <c r="H8" s="225">
         <v>10255255254</v>
       </c>
-      <c r="I8" s="307">
+      <c r="I8" s="225">
         <v>10255255255</v>
       </c>
     </row>
@@ -7904,22 +7988,22 @@
       <c r="B13">
         <v>64</v>
       </c>
-      <c r="C13" s="309" t="s">
+      <c r="C13" s="227" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="309" t="s">
+      <c r="C14" s="227" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="309" t="s">
+      <c r="C15" s="227" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="309" t="s">
+      <c r="C16" s="227" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7927,11 +8011,11 @@
       <c r="A17" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="310">
+      <c r="B17" s="228">
         <f>2^22 - 2</f>
         <v>4194302</v>
       </c>
-      <c r="C17" s="311">
+      <c r="C17" s="229">
         <f>B17*4</f>
         <v>16777208</v>
       </c>
@@ -7943,7 +8027,7 @@
       <c r="B19" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="309" t="s">
+      <c r="C19" s="227" t="s">
         <v>336</v>
       </c>
       <c r="D19" t="s">
@@ -7989,7 +8073,7 @@
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="D21" s="308" t="s">
+      <c r="D21" s="226" t="s">
         <v>349</v>
       </c>
       <c r="E21">
@@ -8001,10 +8085,10 @@
       <c r="G21" t="s">
         <v>345</v>
       </c>
-      <c r="H21" s="307" t="s">
+      <c r="H21" s="225" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="307" t="s">
+      <c r="I21" s="225" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8016,7 +8100,7 @@
         <f>256/16</f>
         <v>16</v>
       </c>
-      <c r="D22" s="308" t="s">
+      <c r="D22" s="226" t="s">
         <v>350</v>
       </c>
       <c r="E22">
@@ -8028,10 +8112,10 @@
       <c r="G22" t="s">
         <v>347</v>
       </c>
-      <c r="H22" s="307" t="s">
+      <c r="H22" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="I22" s="307" t="s">
+      <c r="I22" s="225" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8042,7 +8126,7 @@
       <c r="B23" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="308" t="s">
+      <c r="D23" s="226" t="s">
         <v>351</v>
       </c>
       <c r="E23">
@@ -8054,10 +8138,10 @@
       <c r="G23" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="307" t="s">
+      <c r="H23" s="225" t="s">
         <v>408</v>
       </c>
-      <c r="I23" s="307" t="s">
+      <c r="I23" s="225" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8068,7 +8152,7 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="D24" s="308" t="s">
+      <c r="D24" s="226" t="s">
         <v>352</v>
       </c>
       <c r="E24">
@@ -8080,10 +8164,10 @@
       <c r="G24" t="s">
         <v>382</v>
       </c>
-      <c r="H24" s="307" t="s">
+      <c r="H24" s="225" t="s">
         <v>409</v>
       </c>
-      <c r="I24" s="307" t="s">
+      <c r="I24" s="225" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8095,7 +8179,7 @@
         <f>2^12 -2</f>
         <v>4094</v>
       </c>
-      <c r="D25" s="308" t="s">
+      <c r="D25" s="226" t="s">
         <v>353</v>
       </c>
       <c r="E25">
@@ -8107,15 +8191,15 @@
       <c r="G25" t="s">
         <v>383</v>
       </c>
-      <c r="H25" s="307" t="s">
+      <c r="H25" s="225" t="s">
         <v>410</v>
       </c>
-      <c r="I25" s="307" t="s">
+      <c r="I25" s="225" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="308" t="s">
+      <c r="D26" s="226" t="s">
         <v>354</v>
       </c>
       <c r="E26">
@@ -8127,15 +8211,15 @@
       <c r="G26" t="s">
         <v>384</v>
       </c>
-      <c r="H26" s="307" t="s">
+      <c r="H26" s="225" t="s">
         <v>411</v>
       </c>
-      <c r="I26" s="307" t="s">
+      <c r="I26" s="225" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="226" t="s">
         <v>355</v>
       </c>
       <c r="E27">
@@ -8147,15 +8231,15 @@
       <c r="G27" t="s">
         <v>385</v>
       </c>
-      <c r="H27" s="307" t="s">
+      <c r="H27" s="225" t="s">
         <v>412</v>
       </c>
-      <c r="I27" s="307" t="s">
+      <c r="I27" s="225" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="308" t="s">
+      <c r="D28" s="226" t="s">
         <v>356</v>
       </c>
       <c r="E28">
@@ -8167,15 +8251,15 @@
       <c r="G28" t="s">
         <v>386</v>
       </c>
-      <c r="H28" s="307" t="s">
+      <c r="H28" s="225" t="s">
         <v>413</v>
       </c>
-      <c r="I28" s="307" t="s">
+      <c r="I28" s="225" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="308" t="s">
+      <c r="D29" s="226" t="s">
         <v>357</v>
       </c>
       <c r="E29">
@@ -8187,15 +8271,15 @@
       <c r="G29" t="s">
         <v>387</v>
       </c>
-      <c r="H29" s="307" t="s">
+      <c r="H29" s="225" t="s">
         <v>414</v>
       </c>
-      <c r="I29" s="307" t="s">
+      <c r="I29" s="225" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="308" t="s">
+      <c r="D30" s="226" t="s">
         <v>375</v>
       </c>
       <c r="E30">
@@ -8207,15 +8291,15 @@
       <c r="G30" t="s">
         <v>388</v>
       </c>
-      <c r="H30" s="307" t="s">
+      <c r="H30" s="225" t="s">
         <v>415</v>
       </c>
-      <c r="I30" s="307" t="s">
+      <c r="I30" s="225" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="226" t="s">
         <v>376</v>
       </c>
       <c r="E31">
@@ -8227,15 +8311,15 @@
       <c r="G31" t="s">
         <v>389</v>
       </c>
-      <c r="H31" s="307" t="s">
+      <c r="H31" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="I31" s="307" t="s">
+      <c r="I31" s="225" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="226" t="s">
         <v>377</v>
       </c>
       <c r="E32">
@@ -8247,15 +8331,15 @@
       <c r="G32" t="s">
         <v>390</v>
       </c>
-      <c r="H32" s="307" t="s">
+      <c r="H32" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="I32" s="307" t="s">
+      <c r="I32" s="225" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="226" t="s">
         <v>378</v>
       </c>
       <c r="E33">
@@ -8275,7 +8359,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="226" t="s">
         <v>379</v>
       </c>
       <c r="E34">
@@ -8295,7 +8379,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="226" t="s">
         <v>380</v>
       </c>
       <c r="E35">
@@ -8315,7 +8399,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="308" t="s">
+      <c r="D36" s="226" t="s">
         <v>381</v>
       </c>
       <c r="E36">
@@ -8344,7 +8428,7 @@
       <c r="C38" t="s">
         <v>424</v>
       </c>
-      <c r="D38" s="308" t="s">
+      <c r="D38" s="226" t="s">
         <v>425</v>
       </c>
       <c r="F38" t="s">
@@ -8391,7 +8475,7 @@
         <f>256/8</f>
         <v>32</v>
       </c>
-      <c r="D40" s="308"/>
+      <c r="D40" s="226"/>
       <c r="E40">
         <v>0</v>
       </c>
@@ -8412,7 +8496,7 @@
       <c r="A41" t="s">
         <v>341</v>
       </c>
-      <c r="B41" s="308" t="s">
+      <c r="B41" s="226" t="s">
         <v>427</v>
       </c>
       <c r="E41">
@@ -8438,7 +8522,7 @@
       <c r="B42">
         <v>27</v>
       </c>
-      <c r="D42" s="308"/>
+      <c r="D42" s="226"/>
       <c r="E42">
         <v>2</v>
       </c>
@@ -8480,7 +8564,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="308"/>
+      <c r="D44" s="226"/>
       <c r="E44">
         <v>4</v>
       </c>
@@ -8515,7 +8599,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="308"/>
+      <c r="D46" s="226"/>
       <c r="E46">
         <v>6</v>
       </c>
@@ -8557,12 +8641,164 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1066F-76F3-4834-8CFB-41449B38856E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="225">
+        <v>255255255128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>462</v>
+      </c>
+      <c r="I8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9" s="225">
+        <v>255255255192</v>
+      </c>
+      <c r="H9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I9" t="s">
+        <v>468</v>
+      </c>
+      <c r="J9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10" s="225">
+        <v>255255255192</v>
+      </c>
+      <c r="H10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I10" t="s">
+        <v>474</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11" s="225">
+        <v>255255255224</v>
+      </c>
+      <c r="H11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8535D-D21E-44F0-9CB8-47817A132E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3E924-B686-4247-AA61-7FAB9F4DC13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
-    <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
-    <sheet name="Unidades" sheetId="2" r:id="rId2"/>
-    <sheet name="BIN" sheetId="4" r:id="rId3"/>
+    <sheet name="Modelos" sheetId="11" r:id="rId1"/>
+    <sheet name="TIA-568" sheetId="1" r:id="rId2"/>
+    <sheet name="SIST" sheetId="2" r:id="rId3"/>
     <sheet name="IPv4" sheetId="5" r:id="rId4"/>
-    <sheet name="HEX" sheetId="6" r:id="rId5"/>
-    <sheet name="IPv6" sheetId="7" r:id="rId6"/>
-    <sheet name="CLASSIC" sheetId="8" r:id="rId7"/>
-    <sheet name="VLSM" sheetId="9" r:id="rId8"/>
+    <sheet name="IPv6" sheetId="7" r:id="rId5"/>
+    <sheet name="CLASSIC" sheetId="8" r:id="rId6"/>
+    <sheet name="VLSM" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="506">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -274,19 +273,10 @@
     <t>Amplitud Modulada</t>
   </si>
   <si>
-    <t>El alto de la sinusoide aumenta y disminuye</t>
-  </si>
-  <si>
     <t>Frecuencia modulada</t>
   </si>
   <si>
-    <t>El ancho de la sinusoide crece y decrece</t>
-  </si>
-  <si>
     <t>Modulacion de Fase</t>
-  </si>
-  <si>
-    <t>Utiliza una señal como guia y otra para datos</t>
   </si>
   <si>
     <t>DEC</t>
@@ -999,9 +989,6 @@
     <t>7C</t>
   </si>
   <si>
-    <t>0xHEX</t>
-  </si>
-  <si>
     <t>IPv6</t>
   </si>
   <si>
@@ -1371,12 +1358,6 @@
   </si>
   <si>
     <t>impar</t>
-  </si>
-  <si>
-    <t>2^h -2 = HOSTS</t>
-  </si>
-  <si>
-    <t>32 - bits subred = h</t>
   </si>
   <si>
     <t>host x subred</t>
@@ -2123,21 +2104,122 @@
   <si>
     <t>172.16.0.30</t>
   </si>
+  <si>
+    <t>Modelo OSI</t>
+  </si>
+  <si>
+    <t>PDU</t>
+  </si>
+  <si>
+    <t>Modelo TCP/IP</t>
+  </si>
+  <si>
+    <t>Protocolos</t>
+  </si>
+  <si>
+    <t>Capa 7:  APLICACIÓN</t>
+  </si>
+  <si>
+    <t>Capa 6: PRESENTACION</t>
+  </si>
+  <si>
+    <t>Capa 5: SESION</t>
+  </si>
+  <si>
+    <t>Capa 4: TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Capa 3: RED</t>
+  </si>
+  <si>
+    <t>Capa 2: ENLACE DATOS</t>
+  </si>
+  <si>
+    <t>Capa 1: FISICA</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>SEGMENTO</t>
+  </si>
+  <si>
+    <t>PAQUETE</t>
+  </si>
+  <si>
+    <t>TRAMA</t>
+  </si>
+  <si>
+    <t>BITS</t>
+  </si>
+  <si>
+    <t>Capa de APLICACIÓN</t>
+  </si>
+  <si>
+    <t>Capa de TRANSPORTE</t>
+  </si>
+  <si>
+    <t>Capa de INTERNET</t>
+  </si>
+  <si>
+    <t>Capa de ACCESO RED</t>
+  </si>
+  <si>
+    <t>ARP, ICMP, ICMPv6, IPv4, IPv6</t>
+  </si>
+  <si>
+    <t>TCP, UDP</t>
+  </si>
+  <si>
+    <t>FTP, DNS, DHCP, HTTP, HTTPS, POP, SMTP, SHH, TELNET, TFTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHERNET, FDDI, FRAME RELAY, HDLC, IEEE802.2, PPP </t>
+  </si>
+  <si>
+    <t>El ancho de la señal crece y decrece</t>
+  </si>
+  <si>
+    <t>El alto de la señal aumenta y disminuye</t>
+  </si>
+  <si>
+    <t>Utiliza una señal guia y otra para datos</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>Sistema Hexadecimal (Base 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de numeracion posicional cuyo uso está vinculado a la informática y ciencias de la computación </t>
+  </si>
+  <si>
+    <t>SanganByte</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>Bits Hosts</t>
+  </si>
+  <si>
+    <t>32 - n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2276,8 +2358,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2448,8 +2538,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18A890"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18A84B"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A818"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EA818"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE07B20"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F2121"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C020"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2794,31 +2926,9 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2868,7 +2978,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2878,8 +2988,9 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2907,21 +3018,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3001,9 +3097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3444,11 +3537,29 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3456,15 +3567,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3495,57 +3597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3560,9 +3653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3570,6 +3660,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3588,12 +3729,6 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3603,73 +3738,16 @@
     <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3690,8 +3768,108 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
     <cellStyle name="40% - Énfasis1" xfId="6" builtinId="31"/>
@@ -3699,11 +3877,26 @@
     <cellStyle name="60% - Énfasis1" xfId="7" builtinId="32"/>
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE0C020"/>
+      <color rgb="FF18A890"/>
+      <color rgb="FF18A84B"/>
+      <color rgb="FF29A818"/>
+      <color rgb="FF6EA818"/>
+      <color rgb="FFE0D720"/>
+      <color rgb="FFE07B20"/>
+      <color rgb="FF9F5D21"/>
+      <color rgb="FF9F2121"/>
+      <color rgb="FF40C0AB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4011,11 +4204,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAA1755-889C-48D6-8C94-CFF3498B3032}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="312" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="312" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="312" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="312" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="301" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="302" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="302" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" s="303" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="304" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="303"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="305" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="303"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="306" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="306" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="306" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="306" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="311" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="311" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="311" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="311" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="340" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="307" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="308" t="s">
+        <v>490</v>
+      </c>
+      <c r="E8" s="310" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="313" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="309" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="308"/>
+      <c r="E9" s="310"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B9" location="Cableado!A1" display="Capa 1: FISICA" xr:uid="{16D93A38-CBC3-4262-A568-D37AF0A98542}"/>
+    <hyperlink ref="B8" location="SIST!A1" display="Capa 2: ENLACE DATOS" xr:uid="{8B23261F-6CB1-43AF-B595-432B270C0B1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651BEDB-B928-44A9-A7A9-86D2E8AFC30B}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,7 +4358,7 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
     <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" style="224" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" style="218" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4045,43 +4369,43 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="247"/>
-      <c r="I2" s="231" t="s">
+      <c r="E2" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="225"/>
+      <c r="I2" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="248" t="s">
+      <c r="M2" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="231" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q2" s="231" t="s">
-        <v>293</v>
+      <c r="O2" s="227" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q2" s="227" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="247"/>
+      <c r="C3" s="225"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="245" t="s">
+      <c r="E3" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="246"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="231"/>
+      <c r="I3" s="227"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="231"/>
-      <c r="M3" s="248"/>
-      <c r="O3" s="231"/>
-      <c r="Q3" s="231"/>
+      <c r="K3" s="227"/>
+      <c r="M3" s="226"/>
+      <c r="O3" s="227"/>
+      <c r="Q3" s="227"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4105,22 +4429,22 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="235" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="230" t="s">
+      <c r="K4" s="229" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="230" t="s">
+      <c r="M4" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="230" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q4" s="230" t="s">
-        <v>296</v>
+      <c r="O4" s="229" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q4" s="229" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4145,13 +4469,13 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="230"/>
+      <c r="I5" s="229"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="230"/>
+      <c r="K5" s="229"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="Q5" s="230"/>
+      <c r="M5" s="229"/>
+      <c r="O5" s="229"/>
+      <c r="Q5" s="229"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4175,13 +4499,13 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="230"/>
+      <c r="I6" s="229"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="230"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="Q6" s="230"/>
+      <c r="M6" s="229"/>
+      <c r="O6" s="229"/>
+      <c r="Q6" s="229"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4205,13 +4529,13 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="230"/>
+      <c r="I7" s="229"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="230"/>
+      <c r="K7" s="229"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="Q7" s="230"/>
+      <c r="M7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="Q7" s="229"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4235,13 +4559,13 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="230"/>
+      <c r="I8" s="229"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="230"/>
+      <c r="K8" s="229"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="Q8" s="230"/>
+      <c r="M8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="Q8" s="229"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4265,13 +4589,13 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="230"/>
+      <c r="I9" s="229"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="230"/>
+      <c r="K9" s="229"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="230"/>
-      <c r="O9" s="230"/>
-      <c r="Q9" s="230"/>
+      <c r="M9" s="229"/>
+      <c r="O9" s="229"/>
+      <c r="Q9" s="229"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4295,13 +4619,13 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="230"/>
+      <c r="I10" s="229"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="230"/>
+      <c r="K10" s="229"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="230"/>
-      <c r="O10" s="230"/>
-      <c r="Q10" s="230"/>
+      <c r="M10" s="229"/>
+      <c r="O10" s="229"/>
+      <c r="Q10" s="229"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4325,62 +4649,62 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="230"/>
+      <c r="I11" s="229"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="230"/>
+      <c r="K11" s="229"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="230"/>
-      <c r="O11" s="230"/>
-      <c r="Q11" s="230"/>
-    </row>
-    <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="230"/>
-      <c r="O12" s="230"/>
-      <c r="Q12" s="230"/>
+      <c r="M11" s="229"/>
+      <c r="O11" s="229"/>
+      <c r="Q11" s="229"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="Q12" s="229"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="242" t="s">
+      <c r="C13" s="228"/>
+      <c r="D13" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="244"/>
-      <c r="M13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="Q13" s="230"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="241"/>
+      <c r="M13" s="229"/>
+      <c r="O13" s="229"/>
+      <c r="Q13" s="229"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="235" t="s">
+      <c r="B14" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="239" t="s">
+      <c r="C14" s="230"/>
+      <c r="D14" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="241"/>
-      <c r="M14" s="230"/>
-      <c r="O14" s="230"/>
-      <c r="Q14" s="230"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="M14" s="229"/>
+      <c r="O14" s="229"/>
+      <c r="Q14" s="229"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="234"/>
+      <c r="C15" s="228"/>
       <c r="D15" s="232" t="s">
         <v>15</v>
       </c>
@@ -4391,34 +4715,34 @@
       <c r="I15" s="233"/>
       <c r="J15" s="233"/>
       <c r="K15" s="233"/>
-      <c r="M15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="Q15" s="230"/>
+      <c r="M15" s="229"/>
+      <c r="O15" s="229"/>
+      <c r="Q15" s="229"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="236" t="s">
+      <c r="B16" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="237" t="s">
+      <c r="C16" s="231"/>
+      <c r="D16" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="M16" s="230"/>
-      <c r="O16" s="230"/>
-      <c r="Q16" s="230"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="M16" s="229"/>
+      <c r="O16" s="229"/>
+      <c r="Q16" s="229"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="234"/>
+      <c r="C17" s="228"/>
       <c r="D17" s="232" t="s">
         <v>18</v>
       </c>
@@ -4429,17 +4753,18 @@
       <c r="I17" s="233"/>
       <c r="J17" s="233"/>
       <c r="K17" s="233"/>
-      <c r="M17" s="230"/>
-      <c r="O17" s="230"/>
-      <c r="Q17" s="230"/>
+      <c r="M17" s="229"/>
+      <c r="O17" s="229"/>
+      <c r="Q17" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Q4:Q17"/>
+    <mergeCell ref="O4:O17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
     <mergeCell ref="B14:C14"/>
@@ -4452,29 +4777,26 @@
     <mergeCell ref="K4:K11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D13:K13"/>
-    <mergeCell ref="Q4:Q17"/>
-    <mergeCell ref="O4:O17"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="22" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
@@ -4486,152 +4808,281 @@
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="23" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="254" t="s">
+    <row r="1" spans="1:30" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="325" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="O2" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="258" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="259"/>
+      <c r="Y2" s="263" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="263"/>
+      <c r="AB2" s="263"/>
+      <c r="AC2" s="263"/>
+      <c r="AD2" s="263"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="70" t="s">
         <v>32</v>
       </c>
+      <c r="M3" s="337" t="s">
+        <v>501</v>
+      </c>
       <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="314" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="314"/>
+      <c r="AB3" s="314"/>
+      <c r="AC3" s="314"/>
+      <c r="AD3" s="314"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="28" t="s">
         <v>61</v>
       </c>
+      <c r="M4" s="338" t="s">
+        <v>502</v>
+      </c>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="60">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="Q4" s="28">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="R4" s="60">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="S4" s="28">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="T4" s="60">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="U4" s="28">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="V4" s="60">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+      <c r="W4" s="31">
+        <f>2^0</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="314"/>
+      <c r="Z4" s="314"/>
+      <c r="AA4" s="314"/>
+      <c r="AB4" s="314"/>
+      <c r="AC4" s="314"/>
+      <c r="AD4" s="314"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="339" t="s">
+        <v>503</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>0</v>
+      </c>
+      <c r="R5" s="64">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29">
+        <v>0</v>
+      </c>
+      <c r="T5" s="64">
+        <v>0</v>
+      </c>
+      <c r="U5" s="29">
+        <v>0</v>
+      </c>
+      <c r="V5" s="64">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="314"/>
+      <c r="Z5" s="314"/>
+      <c r="AA5" s="314"/>
+      <c r="AB5" s="314"/>
+      <c r="AC5" s="314"/>
+      <c r="AD5" s="314"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4644,1033 +5095,1529 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="253" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="J7" s="256" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="O7" s="224" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="264" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="264"/>
+      <c r="Y7" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z7" s="258"/>
+      <c r="AA7" s="258"/>
+      <c r="AB7" s="258"/>
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="259"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="M8" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="63">
+        <v>10</v>
+      </c>
+      <c r="P8" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="R8" s="64">
+        <v>0</v>
+      </c>
+      <c r="S8" s="29">
+        <v>0</v>
+      </c>
+      <c r="T8" s="64">
+        <v>1</v>
+      </c>
+      <c r="U8" s="29">
+        <v>0</v>
+      </c>
+      <c r="V8" s="64">
+        <v>1</v>
+      </c>
+      <c r="W8" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="163">
+        <v>54</v>
+      </c>
+      <c r="Z8" s="166">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="160"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="J9" s="151">
+        <v>0</v>
+      </c>
+      <c r="K9" s="151">
+        <v>0</v>
+      </c>
+      <c r="L9" s="151">
+        <v>0</v>
+      </c>
+      <c r="M9" s="151" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="65">
+        <v>128</v>
+      </c>
+      <c r="P9" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>0</v>
+      </c>
+      <c r="R9" s="66">
+        <v>0</v>
+      </c>
+      <c r="S9" s="67">
+        <v>0</v>
+      </c>
+      <c r="T9" s="66">
+        <v>0</v>
+      </c>
+      <c r="U9" s="67">
+        <v>0</v>
+      </c>
+      <c r="V9" s="66">
+        <v>0</v>
+      </c>
+      <c r="W9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="59">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="165">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="161"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="J10" s="149">
+        <v>1</v>
+      </c>
+      <c r="K10" s="149">
+        <v>1</v>
+      </c>
+      <c r="L10" s="149">
+        <v>1</v>
+      </c>
+      <c r="M10" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="68">
+        <v>127</v>
+      </c>
+      <c r="P10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="66">
+        <v>1</v>
+      </c>
+      <c r="R10" s="67">
+        <v>1</v>
+      </c>
+      <c r="S10" s="66">
+        <v>1</v>
+      </c>
+      <c r="T10" s="67">
+        <v>1</v>
+      </c>
+      <c r="U10" s="66">
+        <v>1</v>
+      </c>
+      <c r="V10" s="67">
+        <v>1</v>
+      </c>
+      <c r="W10" s="66">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="59">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="165">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="161"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="255" t="s">
+      <c r="J11" s="148">
+        <v>2</v>
+      </c>
+      <c r="K11" s="148">
+        <v>2</v>
+      </c>
+      <c r="L11" s="148">
+        <v>2</v>
+      </c>
+      <c r="M11" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="65">
+        <v>172</v>
+      </c>
+      <c r="P11" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>0</v>
+      </c>
+      <c r="R11" s="66">
+        <v>1</v>
+      </c>
+      <c r="S11" s="67">
+        <v>0</v>
+      </c>
+      <c r="T11" s="66">
+        <v>1</v>
+      </c>
+      <c r="U11" s="67">
+        <v>1</v>
+      </c>
+      <c r="V11" s="66">
+        <v>0</v>
+      </c>
+      <c r="W11" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="58">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="165">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="161"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="258" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="260"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="C12" s="245"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="152">
+        <v>3</v>
+      </c>
+      <c r="K12" s="152">
+        <v>3</v>
+      </c>
+      <c r="L12" s="152">
+        <v>3</v>
+      </c>
+      <c r="M12" s="152" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="68">
+        <v>192</v>
+      </c>
+      <c r="P12" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>1</v>
+      </c>
+      <c r="R12" s="67">
+        <v>0</v>
+      </c>
+      <c r="S12" s="66">
+        <v>0</v>
+      </c>
+      <c r="T12" s="67">
+        <v>0</v>
+      </c>
+      <c r="U12" s="66">
+        <v>0</v>
+      </c>
+      <c r="V12" s="67">
+        <v>0</v>
+      </c>
+      <c r="W12" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="59">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="J13" s="146">
+        <v>4</v>
+      </c>
+      <c r="K13" s="146">
+        <v>4</v>
+      </c>
+      <c r="L13" s="146">
+        <v>4</v>
+      </c>
+      <c r="M13" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="65">
+        <v>168</v>
+      </c>
+      <c r="P13" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>0</v>
+      </c>
+      <c r="R13" s="66">
+        <v>1</v>
+      </c>
+      <c r="S13" s="67">
+        <v>0</v>
+      </c>
+      <c r="T13" s="66">
+        <v>1</v>
+      </c>
+      <c r="U13" s="67">
+        <v>0</v>
+      </c>
+      <c r="V13" s="66">
+        <v>0</v>
+      </c>
+      <c r="W13" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="159"/>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="58">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="147">
+        <v>5</v>
+      </c>
+      <c r="K14" s="147">
+        <v>5</v>
+      </c>
+      <c r="L14" s="147">
+        <v>5</v>
+      </c>
+      <c r="M14" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="68">
+        <v>25</v>
+      </c>
+      <c r="P14" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>0</v>
+      </c>
+      <c r="R14" s="67">
+        <v>0</v>
+      </c>
+      <c r="S14" s="66">
+        <v>1</v>
+      </c>
+      <c r="T14" s="67">
+        <v>1</v>
+      </c>
+      <c r="U14" s="66">
+        <v>0</v>
+      </c>
+      <c r="V14" s="67">
+        <v>0</v>
+      </c>
+      <c r="W14" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="261" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="157"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="146">
+        <v>6</v>
+      </c>
+      <c r="K15" s="146">
+        <v>6</v>
+      </c>
+      <c r="L15" s="146">
+        <v>6</v>
+      </c>
+      <c r="M15" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="62">
+        <v>54</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>0</v>
+      </c>
+      <c r="R15" s="28">
+        <v>1</v>
+      </c>
+      <c r="S15" s="60">
+        <v>1</v>
+      </c>
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="60">
+        <v>1</v>
+      </c>
+      <c r="V15" s="28">
+        <v>1</v>
+      </c>
+      <c r="W15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="170">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="67">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="149">
+        <v>7</v>
+      </c>
+      <c r="K16" s="149">
+        <v>7</v>
+      </c>
+      <c r="L16" s="149">
+        <v>7</v>
+      </c>
+      <c r="M16" s="149" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="247" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="249"/>
+      <c r="J17" s="146">
+        <v>8</v>
+      </c>
+      <c r="K17" s="146">
+        <v>8</v>
+      </c>
+      <c r="L17" s="146">
+        <v>10</v>
+      </c>
+      <c r="M17" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="326" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="Y17" s="263" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z17" s="263"/>
+      <c r="AA17" s="263"/>
+      <c r="AB17" s="263"/>
+      <c r="AC17" s="263"/>
+      <c r="AD17" s="263"/>
+    </row>
+    <row r="18" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="250" t="s">
+      <c r="C18" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="250"/>
-      <c r="L13" s="250" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="315" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="251"/>
+      <c r="J18" s="147">
+        <v>9</v>
+      </c>
+      <c r="K18" s="147">
+        <v>9</v>
+      </c>
+      <c r="L18" s="147">
+        <v>11</v>
+      </c>
+      <c r="M18" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="P18" s="321" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="320"/>
+      <c r="R18" s="322" t="s">
+        <v>215</v>
+      </c>
+      <c r="S18" s="322"/>
+      <c r="T18" s="320" t="s">
+        <v>214</v>
+      </c>
+      <c r="U18" s="320"/>
+      <c r="V18" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="W18" s="327" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y18" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z18" s="314"/>
+      <c r="AA18" s="314"/>
+      <c r="AB18" s="314"/>
+      <c r="AC18" s="314"/>
+      <c r="AD18" s="314"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="254" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="250"/>
-      <c r="N13" s="250"/>
-      <c r="O13" s="261"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="D19" s="254"/>
+      <c r="E19" s="316" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="255"/>
+      <c r="J19" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="146">
+        <v>10</v>
+      </c>
+      <c r="L19" s="146">
+        <v>12</v>
+      </c>
+      <c r="M19" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="319">
+        <f>16^4</f>
+        <v>65536</v>
+      </c>
+      <c r="Q19" s="318"/>
+      <c r="R19" s="323">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="S19" s="323"/>
+      <c r="T19" s="318">
+        <f>16^2</f>
+        <v>256</v>
+      </c>
+      <c r="U19" s="318"/>
+      <c r="V19" s="28">
+        <f>16^1</f>
+        <v>16</v>
+      </c>
+      <c r="W19" s="181">
+        <f>16^0</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="314"/>
+      <c r="Z19" s="314"/>
+      <c r="AA19" s="314"/>
+      <c r="AB19" s="314"/>
+      <c r="AC19" s="314"/>
+      <c r="AD19" s="314"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="252" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="252"/>
+      <c r="E20" s="317" t="s">
+        <v>497</v>
+      </c>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="253"/>
+      <c r="J20" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="147">
+        <v>11</v>
+      </c>
+      <c r="L20" s="147">
+        <v>13</v>
+      </c>
+      <c r="M20" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" s="328" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q20" s="329"/>
+      <c r="R20" s="329"/>
+      <c r="S20" s="329"/>
+      <c r="T20" s="329"/>
+      <c r="U20" s="329"/>
+      <c r="V20" s="329"/>
+      <c r="W20" s="330"/>
+      <c r="Y20" s="314"/>
+      <c r="Z20" s="314"/>
+      <c r="AA20" s="314"/>
+      <c r="AB20" s="314"/>
+      <c r="AC20" s="314"/>
+      <c r="AD20" s="314"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J21" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="146">
+        <v>12</v>
+      </c>
+      <c r="L21" s="146">
+        <v>14</v>
+      </c>
+      <c r="M21" s="146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J22" s="147" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="147">
+        <v>13</v>
+      </c>
+      <c r="L22" s="147">
+        <v>15</v>
+      </c>
+      <c r="M22" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="224" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="264" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="264"/>
+      <c r="T22" s="264" t="s">
+        <v>261</v>
+      </c>
+      <c r="U22" s="264"/>
+      <c r="V22" s="264"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y22" s="264"/>
+      <c r="AA22" s="331" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB22" s="324"/>
+      <c r="AC22" s="324"/>
+      <c r="AD22" s="332"/>
+      <c r="AE22" s="333"/>
+      <c r="AF22" s="333"/>
+    </row>
+    <row r="23" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="146">
+        <v>14</v>
+      </c>
+      <c r="L23" s="146">
+        <v>16</v>
+      </c>
+      <c r="M23" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="63">
+        <v>10</v>
+      </c>
+      <c r="P23" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="64">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="64">
+        <v>1</v>
+      </c>
+      <c r="U23" s="29">
+        <v>0</v>
+      </c>
+      <c r="V23" s="64">
+        <v>1</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0</v>
+      </c>
+      <c r="X23" s="184" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" s="185" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA23" s="163">
+        <v>54</v>
+      </c>
+      <c r="AB23" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD23" s="294"/>
+      <c r="AE23" s="334"/>
+      <c r="AF23" s="334"/>
+    </row>
+    <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="149">
+        <v>15</v>
+      </c>
+      <c r="L24" s="149">
+        <v>17</v>
+      </c>
+      <c r="M24" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="65">
+        <v>128</v>
+      </c>
+      <c r="P24" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>0</v>
+      </c>
+      <c r="R24" s="66">
+        <v>0</v>
+      </c>
+      <c r="S24" s="171">
+        <v>0</v>
+      </c>
+      <c r="T24" s="66">
+        <v>0</v>
+      </c>
+      <c r="U24" s="67">
+        <v>0</v>
+      </c>
+      <c r="V24" s="66">
+        <v>0</v>
+      </c>
+      <c r="W24" s="67">
+        <v>0</v>
+      </c>
+      <c r="X24" s="173" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y24" s="176">
+        <v>80</v>
+      </c>
+      <c r="AA24" s="190">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="190">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="291">
         <v>36</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="251" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="251"/>
-      <c r="L14" s="251" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="251"/>
-      <c r="N14" s="251"/>
-      <c r="O14" s="263"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="252" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="252"/>
-      <c r="N15" s="252"/>
-      <c r="O15" s="262"/>
-    </row>
-    <row r="16" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="249" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="157">
-        <v>0</v>
-      </c>
-      <c r="C19" s="157">
-        <v>0</v>
-      </c>
-      <c r="D19" s="157">
-        <v>0</v>
-      </c>
-      <c r="E19" s="157" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="155">
-        <v>1</v>
-      </c>
-      <c r="C20" s="155">
-        <v>1</v>
-      </c>
-      <c r="D20" s="155">
-        <v>1</v>
-      </c>
-      <c r="E20" s="155" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="154">
-        <v>2</v>
-      </c>
-      <c r="C21" s="154">
-        <v>2</v>
-      </c>
-      <c r="D21" s="154">
-        <v>2</v>
-      </c>
-      <c r="E21" s="154" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="158">
+      <c r="AD24" s="292"/>
+      <c r="AE24" s="335"/>
+      <c r="AF24" s="335"/>
+    </row>
+    <row r="25" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="150">
+        <v>10</v>
+      </c>
+      <c r="K25" s="150">
+        <v>16</v>
+      </c>
+      <c r="L25" s="150">
+        <v>20</v>
+      </c>
+      <c r="M25" s="150">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="68">
+        <v>127</v>
+      </c>
+      <c r="P25" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="66">
+        <v>1</v>
+      </c>
+      <c r="R25" s="67">
+        <v>1</v>
+      </c>
+      <c r="S25" s="180">
+        <v>1</v>
+      </c>
+      <c r="T25" s="67">
+        <v>1</v>
+      </c>
+      <c r="U25" s="66">
+        <v>1</v>
+      </c>
+      <c r="V25" s="67">
+        <v>1</v>
+      </c>
+      <c r="W25" s="66">
+        <v>1</v>
+      </c>
+      <c r="X25" s="174" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA25" s="163">
+        <v>124</v>
+      </c>
+      <c r="AB25" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC25" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD25" s="294"/>
+      <c r="AE25" s="334"/>
+      <c r="AF25" s="334"/>
+    </row>
+    <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="153">
+        <v>99</v>
+      </c>
+      <c r="K26" s="153">
+        <v>255</v>
+      </c>
+      <c r="L26" s="153">
+        <v>198</v>
+      </c>
+      <c r="M26" s="153">
+        <v>11111111</v>
+      </c>
+      <c r="O26" s="65">
+        <v>172</v>
+      </c>
+      <c r="P26" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="67">
+        <v>0</v>
+      </c>
+      <c r="R26" s="66">
+        <v>1</v>
+      </c>
+      <c r="S26" s="171">
+        <v>0</v>
+      </c>
+      <c r="T26" s="66">
+        <v>1</v>
+      </c>
+      <c r="U26" s="67">
+        <v>1</v>
+      </c>
+      <c r="V26" s="66">
+        <v>0</v>
+      </c>
+      <c r="W26" s="67">
+        <v>0</v>
+      </c>
+      <c r="X26" s="173" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" s="176" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA26" s="190">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="190">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="291" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD26" s="292"/>
+      <c r="AE26" s="335"/>
+      <c r="AF26" s="335"/>
+    </row>
+    <row r="27" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="146">
+        <v>100</v>
+      </c>
+      <c r="K27" s="146">
+        <v>256</v>
+      </c>
+      <c r="L27" s="146">
+        <v>200</v>
+      </c>
+      <c r="M27" s="146">
+        <v>100000000</v>
+      </c>
+      <c r="O27" s="68">
+        <v>192</v>
+      </c>
+      <c r="P27" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="66">
+        <v>1</v>
+      </c>
+      <c r="R27" s="67">
+        <v>0</v>
+      </c>
+      <c r="S27" s="180">
+        <v>0</v>
+      </c>
+      <c r="T27" s="67">
+        <v>0</v>
+      </c>
+      <c r="U27" s="66">
+        <v>0</v>
+      </c>
+      <c r="V27" s="67">
+        <v>0</v>
+      </c>
+      <c r="W27" s="66">
+        <v>0</v>
+      </c>
+      <c r="X27" s="174" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" s="177" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA27" s="163">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD27" s="294"/>
+      <c r="AE27" s="334"/>
+      <c r="AF27" s="334"/>
+    </row>
+    <row r="28" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="65">
+        <v>168</v>
+      </c>
+      <c r="P28" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="67">
+        <v>0</v>
+      </c>
+      <c r="R28" s="66">
+        <v>1</v>
+      </c>
+      <c r="S28" s="171">
+        <v>0</v>
+      </c>
+      <c r="T28" s="66">
+        <v>1</v>
+      </c>
+      <c r="U28" s="67">
+        <v>0</v>
+      </c>
+      <c r="V28" s="66">
+        <v>0</v>
+      </c>
+      <c r="W28" s="67">
+        <v>0</v>
+      </c>
+      <c r="X28" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y28" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA28" s="190">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="190">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="291">
+        <v>19</v>
+      </c>
+      <c r="AD28" s="292"/>
+      <c r="AE28" s="335"/>
+      <c r="AF28" s="335"/>
+    </row>
+    <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="68">
+        <v>25</v>
+      </c>
+      <c r="P29" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="66">
+        <v>0</v>
+      </c>
+      <c r="R29" s="67">
+        <v>0</v>
+      </c>
+      <c r="S29" s="180">
+        <v>1</v>
+      </c>
+      <c r="T29" s="67">
+        <v>1</v>
+      </c>
+      <c r="U29" s="66">
+        <v>0</v>
+      </c>
+      <c r="V29" s="67">
+        <v>0</v>
+      </c>
+      <c r="W29" s="66">
+        <v>1</v>
+      </c>
+      <c r="X29" s="174" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" s="177">
+        <v>19</v>
+      </c>
+      <c r="AA29" s="163">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC29" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD29" s="294"/>
+      <c r="AE29" s="334"/>
+      <c r="AF29" s="334"/>
+    </row>
+    <row r="30" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="62">
+        <v>54</v>
+      </c>
+      <c r="P30" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="60">
+        <v>0</v>
+      </c>
+      <c r="R30" s="28">
+        <v>1</v>
+      </c>
+      <c r="S30" s="181">
+        <v>1</v>
+      </c>
+      <c r="T30" s="28">
+        <v>0</v>
+      </c>
+      <c r="U30" s="60">
+        <v>1</v>
+      </c>
+      <c r="V30" s="28">
+        <v>1</v>
+      </c>
+      <c r="W30" s="60">
+        <v>0</v>
+      </c>
+      <c r="X30" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" s="178">
+        <v>36</v>
+      </c>
+      <c r="AA30" s="190">
+        <v>14</v>
+      </c>
+      <c r="AB30" s="190">
         <v>3</v>
       </c>
-      <c r="C22" s="158">
-        <v>3</v>
-      </c>
-      <c r="D22" s="158">
-        <v>3</v>
-      </c>
-      <c r="E22" s="158" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="152">
-        <v>4</v>
-      </c>
-      <c r="C23" s="152">
-        <v>4</v>
-      </c>
-      <c r="D23" s="152">
-        <v>4</v>
-      </c>
-      <c r="E23" s="152" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="153">
-        <v>5</v>
-      </c>
-      <c r="C24" s="153">
-        <v>5</v>
-      </c>
-      <c r="D24" s="153">
-        <v>5</v>
-      </c>
-      <c r="E24" s="153" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="152">
+      <c r="AC30" s="291" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD30" s="292"/>
+      <c r="AE30" s="335"/>
+      <c r="AF30" s="335"/>
+    </row>
+    <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="68">
+        <v>62</v>
+      </c>
+      <c r="P31" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="66">
+        <v>0</v>
+      </c>
+      <c r="R31" s="67">
+        <v>1</v>
+      </c>
+      <c r="S31" s="180">
+        <v>1</v>
+      </c>
+      <c r="T31" s="67">
+        <v>1</v>
+      </c>
+      <c r="U31" s="66">
+        <v>1</v>
+      </c>
+      <c r="V31" s="67">
+        <v>1</v>
+      </c>
+      <c r="W31" s="66">
+        <v>0</v>
+      </c>
+      <c r="X31" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" s="179" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA31" s="163">
+        <v>106</v>
+      </c>
+      <c r="AB31" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC31" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD31" s="294"/>
+      <c r="AE31" s="334"/>
+      <c r="AF31" s="334"/>
+    </row>
+    <row r="32" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="65">
+        <v>106</v>
+      </c>
+      <c r="P32" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="67">
+        <v>1</v>
+      </c>
+      <c r="R32" s="66">
+        <v>1</v>
+      </c>
+      <c r="S32" s="171">
+        <v>0</v>
+      </c>
+      <c r="T32" s="66">
+        <v>1</v>
+      </c>
+      <c r="U32" s="67">
+        <v>0</v>
+      </c>
+      <c r="V32" s="66">
+        <v>1</v>
+      </c>
+      <c r="W32" s="191">
+        <v>0</v>
+      </c>
+      <c r="X32" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y32" s="178" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA32" s="190">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="190">
         <v>6</v>
       </c>
-      <c r="C25" s="152">
-        <v>6</v>
-      </c>
-      <c r="D25" s="152">
-        <v>6</v>
-      </c>
-      <c r="E25" s="152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="155">
-        <v>7</v>
-      </c>
-      <c r="C26" s="155">
-        <v>7</v>
-      </c>
-      <c r="D26" s="155">
-        <v>7</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="152">
-        <v>8</v>
-      </c>
-      <c r="C27" s="152">
-        <v>8</v>
-      </c>
-      <c r="D27" s="152">
-        <v>10</v>
-      </c>
-      <c r="E27" s="152" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="153">
-        <v>9</v>
-      </c>
-      <c r="C28" s="153">
-        <v>9</v>
-      </c>
-      <c r="D28" s="153">
-        <v>11</v>
-      </c>
-      <c r="E28" s="153" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="152">
-        <v>10</v>
-      </c>
-      <c r="D29" s="152">
+      <c r="AC32" s="291" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD32" s="292"/>
+      <c r="AE32" s="335"/>
+      <c r="AF32" s="335"/>
+    </row>
+    <row r="33" spans="15:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="68">
+        <v>139</v>
+      </c>
+      <c r="P33" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="66">
+        <v>0</v>
+      </c>
+      <c r="R33" s="67">
+        <v>0</v>
+      </c>
+      <c r="S33" s="180">
+        <v>0</v>
+      </c>
+      <c r="T33" s="67">
+        <v>1</v>
+      </c>
+      <c r="U33" s="66">
+        <v>0</v>
+      </c>
+      <c r="V33" s="67">
+        <v>1</v>
+      </c>
+      <c r="W33" s="66">
+        <v>1</v>
+      </c>
+      <c r="X33" s="186" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y33" s="187" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA33" s="163">
+        <v>28</v>
+      </c>
+      <c r="AB33" s="166">
+        <v>16</v>
+      </c>
+      <c r="AC33" s="293" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD33" s="294"/>
+      <c r="AE33" s="334"/>
+      <c r="AF33" s="334"/>
+    </row>
+    <row r="34" spans="15:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="62">
+        <v>124</v>
+      </c>
+      <c r="P34" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="60">
+        <v>1</v>
+      </c>
+      <c r="R34" s="28">
+        <v>1</v>
+      </c>
+      <c r="S34" s="181">
+        <v>1</v>
+      </c>
+      <c r="T34" s="28">
+        <v>1</v>
+      </c>
+      <c r="U34" s="60">
+        <v>1</v>
+      </c>
+      <c r="V34" s="28">
+        <v>0</v>
+      </c>
+      <c r="W34" s="60">
+        <v>0</v>
+      </c>
+      <c r="X34" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y34" s="189" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA34" s="190">
         <v>12</v>
       </c>
-      <c r="E29" s="152" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="153">
-        <v>11</v>
-      </c>
-      <c r="D30" s="153">
-        <v>13</v>
-      </c>
-      <c r="E30" s="153" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="152" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="152">
-        <v>12</v>
-      </c>
-      <c r="D31" s="152">
-        <v>14</v>
-      </c>
-      <c r="E31" s="152" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="153" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="153">
-        <v>13</v>
-      </c>
-      <c r="D32" s="153">
-        <v>15</v>
-      </c>
-      <c r="E32" s="153" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="152">
-        <v>14</v>
-      </c>
-      <c r="D33" s="152">
-        <v>16</v>
-      </c>
-      <c r="E33" s="152" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="155">
-        <v>15</v>
-      </c>
-      <c r="D34" s="155">
-        <v>17</v>
-      </c>
-      <c r="E34" s="155" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="156">
-        <v>10</v>
-      </c>
-      <c r="C35" s="156">
-        <v>16</v>
-      </c>
-      <c r="D35" s="156">
-        <v>20</v>
-      </c>
-      <c r="E35" s="156">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="159">
-        <v>99</v>
-      </c>
-      <c r="C36" s="159">
-        <v>255</v>
-      </c>
-      <c r="D36" s="159">
-        <v>198</v>
-      </c>
-      <c r="E36" s="159">
-        <v>11111111</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="152">
-        <v>100</v>
-      </c>
-      <c r="C37" s="152">
-        <v>256</v>
-      </c>
-      <c r="D37" s="152">
-        <v>200</v>
-      </c>
-      <c r="E37" s="152">
-        <v>100000000</v>
-      </c>
+      <c r="AB34" s="190">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="291" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD34" s="292"/>
+      <c r="AE34" s="335"/>
+      <c r="AF34" s="335"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:L2"/>
+  <mergeCells count="42">
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="Y18:AD20"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P20:W20"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="P17:W17"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="E19:E34" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ECFBED-E4D1-42A4-B438-E51C33F07CE4}">
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="57" customWidth="1"/>
-    <col min="2" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="1.28515625" customWidth="1"/>
-    <col min="11" max="16" width="4.7109375" customWidth="1"/>
-    <col min="25" max="25" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="264" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="265"/>
-      <c r="K1" s="270" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="269" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="66">
-        <f>2^7</f>
-        <v>128</v>
-      </c>
-      <c r="C3" s="33">
-        <f>2^6</f>
-        <v>64</v>
-      </c>
-      <c r="D3" s="66">
-        <f>2^5</f>
-        <v>32</v>
-      </c>
-      <c r="E3" s="33">
-        <f>2^4</f>
-        <v>16</v>
-      </c>
-      <c r="F3" s="66">
-        <f>2^3</f>
-        <v>8</v>
-      </c>
-      <c r="G3" s="33">
-        <f>2^2</f>
-        <v>4</v>
-      </c>
-      <c r="H3" s="66">
-        <f>2^1</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="36">
-        <f>2^0</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="269"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="70">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="70">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0</v>
-      </c>
-      <c r="F4" s="70">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0</v>
-      </c>
-      <c r="H4" s="70">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0</v>
-      </c>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269"/>
-      <c r="N4" s="269"/>
-      <c r="O4" s="269"/>
-      <c r="P4" s="269"/>
-    </row>
-    <row r="5" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="271" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="K6" s="266" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="264"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="264"/>
-      <c r="O6" s="264"/>
-      <c r="P6" s="265"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69">
-        <v>10</v>
-      </c>
-      <c r="B7" s="70">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="70">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="K7" s="169">
-        <v>54</v>
-      </c>
-      <c r="L7" s="172">
-        <v>2</v>
-      </c>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="166"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71">
-        <v>128</v>
-      </c>
-      <c r="B8" s="72">
-        <v>1</v>
-      </c>
-      <c r="C8" s="73">
-        <v>0</v>
-      </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="73">
-        <v>0</v>
-      </c>
-      <c r="F8" s="72">
-        <v>0</v>
-      </c>
-      <c r="G8" s="73">
-        <v>0</v>
-      </c>
-      <c r="H8" s="72">
-        <v>0</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="K8" s="173">
-        <v>0</v>
-      </c>
-      <c r="L8" s="64">
-        <v>27</v>
-      </c>
-      <c r="M8" s="171">
-        <v>2</v>
-      </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="167"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74">
-        <v>127</v>
-      </c>
-      <c r="B9" s="73">
-        <v>0</v>
-      </c>
-      <c r="C9" s="72">
-        <v>1</v>
-      </c>
-      <c r="D9" s="73">
-        <v>1</v>
-      </c>
-      <c r="E9" s="72">
-        <v>1</v>
-      </c>
-      <c r="F9" s="73">
-        <v>1</v>
-      </c>
-      <c r="G9" s="72">
-        <v>1</v>
-      </c>
-      <c r="H9" s="73">
-        <v>1</v>
-      </c>
-      <c r="I9" s="72">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="63">
-        <v>1</v>
-      </c>
-      <c r="M9" s="64">
-        <v>13</v>
-      </c>
-      <c r="N9" s="171">
-        <v>2</v>
-      </c>
-      <c r="O9" s="165"/>
-      <c r="P9" s="167"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71">
-        <v>172</v>
-      </c>
-      <c r="B10" s="72">
-        <v>1</v>
-      </c>
-      <c r="C10" s="73">
-        <v>0</v>
-      </c>
-      <c r="D10" s="72">
-        <v>1</v>
-      </c>
-      <c r="E10" s="73">
-        <v>0</v>
-      </c>
-      <c r="F10" s="72">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1</v>
-      </c>
-      <c r="H10" s="72">
-        <v>0</v>
-      </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="K10" s="164"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="63">
-        <v>1</v>
-      </c>
-      <c r="N10" s="64">
-        <v>6</v>
-      </c>
-      <c r="O10" s="171">
-        <v>2</v>
-      </c>
-      <c r="P10" s="167"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
-        <v>192</v>
-      </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="72">
-        <v>1</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="72">
-        <v>0</v>
-      </c>
-      <c r="F11" s="73">
-        <v>0</v>
-      </c>
-      <c r="G11" s="72">
-        <v>0</v>
-      </c>
-      <c r="H11" s="73">
-        <v>0</v>
-      </c>
-      <c r="I11" s="72">
-        <v>0</v>
-      </c>
-      <c r="K11" s="164"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="63">
-        <v>0</v>
-      </c>
-      <c r="O11" s="64">
-        <v>3</v>
-      </c>
-      <c r="P11" s="170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
-        <v>168</v>
-      </c>
-      <c r="B12" s="72">
-        <v>1</v>
-      </c>
-      <c r="C12" s="73">
-        <v>0</v>
-      </c>
-      <c r="D12" s="72">
-        <v>1</v>
-      </c>
-      <c r="E12" s="73">
-        <v>0</v>
-      </c>
-      <c r="F12" s="72">
-        <v>1</v>
-      </c>
-      <c r="G12" s="73">
-        <v>0</v>
-      </c>
-      <c r="H12" s="72">
-        <v>0</v>
-      </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="63">
-        <v>1</v>
-      </c>
-      <c r="P12" s="161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
-        <v>25</v>
-      </c>
-      <c r="B13" s="73">
-        <v>0</v>
-      </c>
-      <c r="C13" s="72">
-        <v>0</v>
-      </c>
-      <c r="D13" s="73">
-        <v>0</v>
-      </c>
-      <c r="E13" s="72">
-        <v>1</v>
-      </c>
-      <c r="F13" s="73">
-        <v>1</v>
-      </c>
-      <c r="G13" s="72">
-        <v>0</v>
-      </c>
-      <c r="H13" s="73">
-        <v>0</v>
-      </c>
-      <c r="I13" s="72">
-        <v>1</v>
-      </c>
-      <c r="K13" s="267" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="268"/>
-      <c r="M13" s="268"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="163"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
-        <v>54</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" s="66">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0</v>
-      </c>
-      <c r="G14" s="66">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33">
-        <v>1</v>
-      </c>
-      <c r="I14" s="66">
-        <v>0</v>
-      </c>
-      <c r="K14" s="176">
-        <v>1</v>
-      </c>
-      <c r="L14" s="73">
-        <v>1</v>
-      </c>
-      <c r="M14" s="72">
-        <v>0</v>
-      </c>
-      <c r="N14" s="73">
-        <v>1</v>
-      </c>
-      <c r="O14" s="72">
-        <v>1</v>
-      </c>
-      <c r="P14" s="177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K2:P4"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="B6:I6"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5678,899 +6625,888 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6148F79-43E5-497E-9971-83B1A57C48C1}">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="52" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="19" customWidth="1"/>
     <col min="7" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="52" customWidth="1"/>
     <col min="11" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="293" t="s">
+      <c r="B2" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="265" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="265" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="267" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="267"/>
+      <c r="E3" s="268" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="269"/>
+      <c r="G3" s="268" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="269"/>
+      <c r="I3" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="269"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="293" t="s">
+      <c r="E4" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="95">
+        <v>127255255255</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="112">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="102">
+        <v>191255255255</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="294"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="125" t="s">
+      <c r="I6" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="295" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="295"/>
-      <c r="E3" s="296" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="297"/>
-      <c r="G3" s="296" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="297"/>
-      <c r="I3" s="295" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="297"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="98" t="s">
+      <c r="E7" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="95">
+        <v>223255255255</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="112">
+        <v>192168255255</v>
+      </c>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="75"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D8" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E8" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="101">
-        <v>127255255255</v>
-      </c>
-      <c r="G5" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="118">
-        <v>10255255255</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="108">
-        <v>191255255255</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="101">
-        <v>223255255255</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="118">
-        <v>192168255255</v>
-      </c>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="81"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="106" t="s">
+      <c r="F8" s="102">
+        <v>239255255255</v>
+      </c>
+      <c r="G8" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="108">
-        <v>239255255255</v>
-      </c>
-      <c r="G8" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="289"/>
+      <c r="H8" s="277"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="278"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="121" t="s">
+      <c r="B9" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="117">
+        <v>255255255255</v>
+      </c>
+      <c r="G9" s="279" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="123">
-        <v>255255255255</v>
-      </c>
-      <c r="G9" s="290" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="281"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
+    <row r="10" spans="2:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="272" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="97" t="s">
+      <c r="B11" s="282" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="136"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="282"/>
+      <c r="C12" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" s="137" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="282"/>
+      <c r="C13" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="138" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="282"/>
+      <c r="C14" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="139" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="282"/>
+      <c r="C15" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="142">
+        <v>10255255255</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="142">
+        <v>10255255255</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="282"/>
+      <c r="C16" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="142"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="272"/>
-      <c r="C12" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="134" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="143" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="272"/>
-      <c r="C13" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="144" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="272"/>
-      <c r="C14" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="151" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="151" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="145" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="272"/>
-      <c r="C15" s="133" t="s">
+      <c r="D16" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="148">
-        <v>10255255255</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="146" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="148">
-        <v>10255255255</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="146" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="272"/>
-      <c r="C16" s="133" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="149" t="str">
+      <c r="E16" s="143" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="F16" s="280" t="str">
+      <c r="F16" s="288" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="149" t="str">
+      <c r="G16" s="289"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="143" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="K16" s="280" t="str">
+      <c r="K16" s="288" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="L16" s="281"/>
-      <c r="M16" s="282"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="290"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="136"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="141"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="272" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="142"/>
+      <c r="B18" s="282" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="272"/>
-      <c r="C19" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="134" t="s">
+      <c r="B19" s="282"/>
+      <c r="C19" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="H19" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="134" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="143" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="134" t="s">
+      <c r="I19" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="175" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="143" t="s">
-        <v>135</v>
+      <c r="L19" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="137" t="s">
+        <v>132</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="272"/>
-      <c r="C20" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="135" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="144" t="s">
-        <v>119</v>
+      <c r="B20" s="282"/>
+      <c r="C20" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="138" t="s">
+        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="272"/>
-      <c r="C21" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="151" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="84" t="s">
+      <c r="B21" s="282"/>
+      <c r="C21" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="151" t="s">
-        <v>207</v>
-      </c>
-      <c r="J21" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="M21" s="145" t="s">
-        <v>119</v>
+      <c r="E21" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="145" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="139" t="s">
+        <v>116</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="272"/>
-      <c r="C22" s="133" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="146" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="146" t="s">
-        <v>125</v>
+      <c r="B22" s="282"/>
+      <c r="C22" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="140" t="s">
+        <v>122</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="272"/>
-      <c r="C23" s="133" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="276" t="str">
+      <c r="B23" s="282"/>
+      <c r="C23" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="286" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="F23" s="277"/>
-      <c r="G23" s="278" t="str">
+      <c r="F23" s="287"/>
+      <c r="G23" s="274" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="H23" s="279"/>
-      <c r="I23" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="276" t="str">
+      <c r="H23" s="275"/>
+      <c r="I23" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="286" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="K23" s="277"/>
-      <c r="L23" s="278" t="str">
+      <c r="K23" s="287"/>
+      <c r="L23" s="274" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="M23" s="279"/>
+      <c r="M23" s="275"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="137"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="137"/>
+      <c r="D24" s="131"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="131"/>
       <c r="J24"/>
       <c r="K24" s="19"/>
-      <c r="M24" s="147"/>
+      <c r="M24" s="141"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="272" t="s">
+      <c r="B25" s="282" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="271" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="272"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="271" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="272"/>
+      <c r="L25" s="272"/>
+      <c r="M25" s="273"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="282"/>
+      <c r="C26" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="80">
+        <v>11000000</v>
+      </c>
+      <c r="F26" s="80">
+        <v>10101000</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="80">
+        <v>11000000</v>
+      </c>
+      <c r="K26" s="80">
+        <v>10101000</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="282"/>
+      <c r="C27" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="F27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="G27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="H27" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="K27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="L27" s="81">
+        <v>11111111</v>
+      </c>
+      <c r="M27" s="133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="282"/>
+      <c r="C28" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="78">
+        <v>10101000</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="97" t="s">
+      <c r="J28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="78">
+        <v>10101000</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" s="134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="282"/>
+      <c r="C29" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="79">
+        <v>10101000</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="79">
+        <v>10101000</v>
+      </c>
+      <c r="L29" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" s="135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="282"/>
+      <c r="C30" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="284"/>
-      <c r="G25" s="284"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="283" t="s">
-        <v>154</v>
-      </c>
-      <c r="K25" s="284"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="285"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="272"/>
-      <c r="C26" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="86">
-        <v>11000000</v>
-      </c>
-      <c r="F26" s="86">
-        <v>10101000</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="86">
-        <v>11000000</v>
-      </c>
-      <c r="K26" s="86">
-        <v>10101000</v>
-      </c>
-      <c r="L26" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="272"/>
-      <c r="C27" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="135" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="F27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="G27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="H27" s="139" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="135" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="K27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="L27" s="87">
-        <v>11111111</v>
-      </c>
-      <c r="M27" s="139" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="272"/>
-      <c r="C28" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="84">
-        <v>10101000</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="151" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="84">
-        <v>10101000</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="M28" s="140" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="272"/>
-      <c r="C29" s="133" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="85">
-        <v>10101000</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="135" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="85">
-        <v>10101000</v>
-      </c>
-      <c r="L29" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="141" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="272"/>
-      <c r="C30" s="133" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="273" t="str">
+      <c r="D30" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="283" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="F30" s="274"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="150" t="str">
+      <c r="F30" s="284"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
       </c>
-      <c r="I30" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="273" t="str">
+      <c r="I30" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="283" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="K30" s="274"/>
-      <c r="L30" s="275"/>
-      <c r="M30" s="150" t="str">
+      <c r="K30" s="284"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B11:B16"/>
@@ -6582,6 +7518,17 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="J25:M25"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6591,714 +7538,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEDC826-54FE-44AE-8F2C-24385E50CD29}">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:R10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="264" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="66">
-        <f>16^4</f>
-        <v>65536</v>
-      </c>
-      <c r="C3" s="33">
-        <f>16^3</f>
-        <v>4096</v>
-      </c>
-      <c r="D3" s="66">
-        <f>16^2</f>
-        <v>256</v>
-      </c>
-      <c r="E3" s="33">
-        <f>16^1</f>
-        <v>16</v>
-      </c>
-      <c r="F3" s="66">
-        <f>16^0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="301" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="271" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="271"/>
-      <c r="M6" s="266" t="s">
-        <v>193</v>
-      </c>
-      <c r="N6" s="264"/>
-      <c r="O6" s="264"/>
-      <c r="P6" s="264"/>
-      <c r="Q6" s="264"/>
-      <c r="R6" s="265"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69">
-        <v>10</v>
-      </c>
-      <c r="B7" s="70">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="70">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="190" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="191" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="169">
-        <v>54</v>
-      </c>
-      <c r="N7" s="172">
-        <v>16</v>
-      </c>
-      <c r="O7" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P7" s="299"/>
-      <c r="Q7" s="299"/>
-      <c r="R7" s="300"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
-        <v>128</v>
-      </c>
-      <c r="B8" s="72">
-        <v>1</v>
-      </c>
-      <c r="C8" s="73">
-        <v>0</v>
-      </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="177">
-        <v>0</v>
-      </c>
-      <c r="F8" s="72">
-        <v>0</v>
-      </c>
-      <c r="G8" s="73">
-        <v>0</v>
-      </c>
-      <c r="H8" s="72">
-        <v>0</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="179" t="s">
-        <v>221</v>
-      </c>
-      <c r="K8" s="182">
-        <v>80</v>
-      </c>
-      <c r="M8" s="196">
-        <v>6</v>
-      </c>
-      <c r="N8" s="196">
-        <v>3</v>
-      </c>
-      <c r="O8" s="303">
-        <v>36</v>
-      </c>
-      <c r="P8" s="304"/>
-      <c r="Q8" s="304"/>
-      <c r="R8" s="305"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74">
-        <v>127</v>
-      </c>
-      <c r="B9" s="73">
-        <v>0</v>
-      </c>
-      <c r="C9" s="72">
-        <v>1</v>
-      </c>
-      <c r="D9" s="73">
-        <v>1</v>
-      </c>
-      <c r="E9" s="186">
-        <v>1</v>
-      </c>
-      <c r="F9" s="73">
-        <v>1</v>
-      </c>
-      <c r="G9" s="72">
-        <v>1</v>
-      </c>
-      <c r="H9" s="73">
-        <v>1</v>
-      </c>
-      <c r="I9" s="72">
-        <v>1</v>
-      </c>
-      <c r="J9" s="180" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="M9" s="169">
-        <v>124</v>
-      </c>
-      <c r="N9" s="172">
-        <v>16</v>
-      </c>
-      <c r="O9" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P9" s="299"/>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="300"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
-        <v>172</v>
-      </c>
-      <c r="B10" s="72">
-        <v>1</v>
-      </c>
-      <c r="C10" s="73">
-        <v>0</v>
-      </c>
-      <c r="D10" s="72">
-        <v>1</v>
-      </c>
-      <c r="E10" s="177">
-        <v>0</v>
-      </c>
-      <c r="F10" s="72">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1</v>
-      </c>
-      <c r="H10" s="72">
-        <v>0</v>
-      </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="J10" s="179" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="182" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="196">
-        <v>12</v>
-      </c>
-      <c r="N10" s="196">
-        <v>7</v>
-      </c>
-      <c r="O10" s="303" t="s">
-        <v>229</v>
-      </c>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="305"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
-        <v>192</v>
-      </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11" s="72">
-        <v>1</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="186">
-        <v>0</v>
-      </c>
-      <c r="F11" s="73">
-        <v>0</v>
-      </c>
-      <c r="G11" s="72">
-        <v>0</v>
-      </c>
-      <c r="H11" s="73">
-        <v>0</v>
-      </c>
-      <c r="I11" s="72">
-        <v>0</v>
-      </c>
-      <c r="J11" s="180" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" s="169">
-        <v>25</v>
-      </c>
-      <c r="N11" s="172">
-        <v>16</v>
-      </c>
-      <c r="O11" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P11" s="299"/>
-      <c r="Q11" s="299"/>
-      <c r="R11" s="300"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
-        <v>168</v>
-      </c>
-      <c r="B12" s="72">
-        <v>1</v>
-      </c>
-      <c r="C12" s="73">
-        <v>0</v>
-      </c>
-      <c r="D12" s="72">
-        <v>1</v>
-      </c>
-      <c r="E12" s="177">
-        <v>0</v>
-      </c>
-      <c r="F12" s="72">
-        <v>1</v>
-      </c>
-      <c r="G12" s="73">
-        <v>0</v>
-      </c>
-      <c r="H12" s="72">
-        <v>0</v>
-      </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="J12" s="181" t="s">
-        <v>221</v>
-      </c>
-      <c r="K12" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="M12" s="196">
-        <v>9</v>
-      </c>
-      <c r="N12" s="196">
-        <v>1</v>
-      </c>
-      <c r="O12" s="303">
-        <v>19</v>
-      </c>
-      <c r="P12" s="304"/>
-      <c r="Q12" s="304"/>
-      <c r="R12" s="305"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74">
-        <v>25</v>
-      </c>
-      <c r="B13" s="73">
-        <v>0</v>
-      </c>
-      <c r="C13" s="72">
-        <v>0</v>
-      </c>
-      <c r="D13" s="73">
-        <v>0</v>
-      </c>
-      <c r="E13" s="186">
-        <v>1</v>
-      </c>
-      <c r="F13" s="73">
-        <v>1</v>
-      </c>
-      <c r="G13" s="72">
-        <v>0</v>
-      </c>
-      <c r="H13" s="73">
-        <v>0</v>
-      </c>
-      <c r="I13" s="72">
-        <v>1</v>
-      </c>
-      <c r="J13" s="180" t="s">
-        <v>221</v>
-      </c>
-      <c r="K13" s="183">
-        <v>19</v>
-      </c>
-      <c r="M13" s="169">
-        <v>62</v>
-      </c>
-      <c r="N13" s="172">
-        <v>16</v>
-      </c>
-      <c r="O13" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="300"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
-        <v>54</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" s="187">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0</v>
-      </c>
-      <c r="G14" s="66">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33">
-        <v>1</v>
-      </c>
-      <c r="I14" s="66">
-        <v>0</v>
-      </c>
-      <c r="J14" s="181" t="s">
-        <v>221</v>
-      </c>
-      <c r="K14" s="184">
-        <v>36</v>
-      </c>
-      <c r="M14" s="196">
-        <v>14</v>
-      </c>
-      <c r="N14" s="196">
-        <v>3</v>
-      </c>
-      <c r="O14" s="303" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="305"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74">
-        <v>62</v>
-      </c>
-      <c r="B15" s="73">
-        <v>0</v>
-      </c>
-      <c r="C15" s="72">
-        <v>0</v>
-      </c>
-      <c r="D15" s="73">
-        <v>1</v>
-      </c>
-      <c r="E15" s="186">
-        <v>1</v>
-      </c>
-      <c r="F15" s="73">
-        <v>1</v>
-      </c>
-      <c r="G15" s="72">
-        <v>1</v>
-      </c>
-      <c r="H15" s="73">
-        <v>1</v>
-      </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
-      <c r="J15" s="178" t="s">
-        <v>221</v>
-      </c>
-      <c r="K15" s="185" t="s">
-        <v>226</v>
-      </c>
-      <c r="M15" s="169">
-        <v>106</v>
-      </c>
-      <c r="N15" s="172">
-        <v>16</v>
-      </c>
-      <c r="O15" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P15" s="299"/>
-      <c r="Q15" s="299"/>
-      <c r="R15" s="300"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
-        <v>106</v>
-      </c>
-      <c r="B16" s="72">
-        <v>0</v>
-      </c>
-      <c r="C16" s="73">
-        <v>1</v>
-      </c>
-      <c r="D16" s="72">
-        <v>1</v>
-      </c>
-      <c r="E16" s="177">
-        <v>0</v>
-      </c>
-      <c r="F16" s="72">
-        <v>1</v>
-      </c>
-      <c r="G16" s="73">
-        <v>0</v>
-      </c>
-      <c r="H16" s="72">
-        <v>1</v>
-      </c>
-      <c r="I16" s="197">
-        <v>0</v>
-      </c>
-      <c r="J16" s="181" t="s">
-        <v>221</v>
-      </c>
-      <c r="K16" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="M16" s="196">
-        <v>10</v>
-      </c>
-      <c r="N16" s="196">
-        <v>6</v>
-      </c>
-      <c r="O16" s="303" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="304"/>
-      <c r="Q16" s="304"/>
-      <c r="R16" s="305"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74">
-        <v>139</v>
-      </c>
-      <c r="B17" s="73">
-        <v>1</v>
-      </c>
-      <c r="C17" s="72">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0</v>
-      </c>
-      <c r="E17" s="186">
-        <v>0</v>
-      </c>
-      <c r="F17" s="73">
-        <v>1</v>
-      </c>
-      <c r="G17" s="72">
-        <v>0</v>
-      </c>
-      <c r="H17" s="73">
-        <v>1</v>
-      </c>
-      <c r="I17" s="72">
-        <v>1</v>
-      </c>
-      <c r="J17" s="192" t="s">
-        <v>221</v>
-      </c>
-      <c r="K17" s="193" t="s">
-        <v>228</v>
-      </c>
-      <c r="M17" s="169">
-        <v>28</v>
-      </c>
-      <c r="N17" s="172">
-        <v>16</v>
-      </c>
-      <c r="O17" s="298" t="s">
-        <v>243</v>
-      </c>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="300"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
-        <v>124</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0</v>
-      </c>
-      <c r="C18" s="66">
-        <v>1</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="187">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-      <c r="G18" s="66">
-        <v>1</v>
-      </c>
-      <c r="H18" s="33">
-        <v>0</v>
-      </c>
-      <c r="I18" s="66">
-        <v>0</v>
-      </c>
-      <c r="J18" s="194" t="s">
-        <v>221</v>
-      </c>
-      <c r="K18" s="195" t="s">
-        <v>229</v>
-      </c>
-      <c r="M18" s="196">
-        <v>12</v>
-      </c>
-      <c r="N18" s="196">
-        <v>1</v>
-      </c>
-      <c r="O18" s="303" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" s="304"/>
-      <c r="Q18" s="304"/>
-      <c r="R18" s="305"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="O7:R7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA523E9B-02D6-4DFC-9913-DDC28647DF6E}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -7320,446 +7559,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="200" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="297" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="201" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="300" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="217" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="295" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="203">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="204" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="308" t="s">
+      <c r="E2" s="205" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="206" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="212" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" s="212" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="208">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="208" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="209" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="210">
+        <v>1</v>
+      </c>
+      <c r="F3" s="211">
+        <v>0</v>
+      </c>
+      <c r="G3" s="211">
+        <v>0</v>
+      </c>
+      <c r="H3" s="211">
+        <v>0</v>
+      </c>
+      <c r="I3" s="211">
+        <v>1</v>
+      </c>
+      <c r="J3" s="215" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" s="213" t="s">
+        <v>280</v>
+      </c>
+      <c r="M3" s="213" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="203">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="204" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="205">
+        <v>1</v>
+      </c>
+      <c r="F4" s="298" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="298"/>
+      <c r="H4" s="298"/>
+      <c r="I4" s="206">
+        <v>1</v>
+      </c>
+      <c r="J4" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="214" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4" s="214" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="299" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="207" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="311" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="306" t="s">
-        <v>292</v>
-      </c>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="209">
-        <v>2001</v>
-      </c>
-      <c r="C2" s="209" t="s">
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="216" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="210" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="211" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="212" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="212" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="212" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="212" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" s="189" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="83" t="s">
+      <c r="K5" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="M5" s="213" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="296" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="192" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="192">
+        <v>31</v>
+      </c>
+      <c r="E8" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="192" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="192">
+        <v>81</v>
+      </c>
+      <c r="I8" s="192">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="194" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="195" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="195" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="195">
+        <v>31</v>
+      </c>
+      <c r="E9" s="196" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="196" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="195" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="195">
+        <v>81</v>
+      </c>
+      <c r="I9" s="195">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="192" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="192" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="192" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="194" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="197" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="195" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="195" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="196" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="196" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="195" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="195" t="s">
+        <v>258</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="192" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="192" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="218" t="s">
-        <v>244</v>
-      </c>
-      <c r="M2" s="218" t="s">
+      <c r="E12" s="193" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="192" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="192" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="194" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="214">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="214" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="215" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="216">
-        <v>1</v>
-      </c>
-      <c r="F3" s="217">
-        <v>0</v>
-      </c>
-      <c r="G3" s="217">
-        <v>0</v>
-      </c>
-      <c r="H3" s="217">
-        <v>0</v>
-      </c>
-      <c r="I3" s="217">
-        <v>1</v>
-      </c>
-      <c r="J3" s="221" t="s">
-        <v>236</v>
-      </c>
-      <c r="K3" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="L3" s="219" t="s">
-        <v>284</v>
-      </c>
-      <c r="M3" s="219" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="208" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="209">
-        <v>2001</v>
-      </c>
-      <c r="C4" s="209" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="210" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="211">
-        <v>1</v>
-      </c>
-      <c r="F4" s="309" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="212">
-        <v>1</v>
-      </c>
-      <c r="J4" s="189" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="205" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" s="220" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="220" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="310" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="222" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="204" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="219" t="s">
-        <v>288</v>
-      </c>
-      <c r="M5" s="219" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="307" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="307"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="307"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="198" t="s">
+      <c r="B13" s="195" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="196" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="196" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="195" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="195" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="195" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="C14" s="192" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="192" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="193" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="F14" s="193" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="198">
-        <v>31</v>
-      </c>
-      <c r="E8" s="199" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="199" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="198" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="198">
-        <v>81</v>
-      </c>
-      <c r="I8" s="198">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="201" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="201" t="s">
+      <c r="G14" s="192" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="192" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="192" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="194" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="197" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="195">
+        <v>85</v>
+      </c>
+      <c r="E15" s="196" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="196" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="201">
-        <v>31</v>
-      </c>
-      <c r="E9" s="202" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="202" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="201" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="201">
-        <v>81</v>
-      </c>
-      <c r="I9" s="201">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="198" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="198" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="198" t="s">
+      <c r="G15" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="199" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="199" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="198" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="198" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="198" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="203" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="201" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="201" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="202" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="201" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="201" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="201" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="198" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="198" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="198" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="199" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="199" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="198" t="s">
-        <v>276</v>
-      </c>
-      <c r="H12" s="198" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="198" t="s">
-        <v>274</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="201" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="201" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="201" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="202" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="202" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="201" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="201" t="s">
-        <v>273</v>
-      </c>
-      <c r="I13" s="201" t="s">
-        <v>274</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="198" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="198" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="198" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="199" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="199" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="198" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="198" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="198" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="200" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="203" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="201" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="201">
+      <c r="H15" s="195" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="195">
         <v>85</v>
       </c>
-      <c r="E15" s="202" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="202" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="201" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="201" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" s="201">
-        <v>85</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
+      <c r="A16" s="182"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7778,13 +8017,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D435661-3ABF-402C-8B05-AD993B7D7E51}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40:F47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7800,81 +8039,81 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="E1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>328</v>
-      </c>
       <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
         <v>307</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
         <v>308</v>
       </c>
-      <c r="G4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" t="s">
-        <v>312</v>
-      </c>
-      <c r="H5" s="225" t="s">
-        <v>325</v>
-      </c>
-      <c r="I5" s="225" t="s">
-        <v>324</v>
+      <c r="H5" s="219" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="219" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7882,67 +8121,67 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H6" s="225">
+        <v>317</v>
+      </c>
+      <c r="H6" s="219">
         <v>10127255254</v>
       </c>
-      <c r="I6" s="225">
+      <c r="I6" s="219">
         <v>10127255255</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>132</v>
+        <v>294</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" s="225">
+        <v>318</v>
+      </c>
+      <c r="H7" s="219">
         <v>10191255254</v>
       </c>
-      <c r="I7" s="225">
+      <c r="I7" s="219">
         <v>10191255255</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="57">
+        <v>295</v>
+      </c>
+      <c r="B8" s="52">
         <v>1</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="225">
+        <v>319</v>
+      </c>
+      <c r="H8" s="219">
         <v>10255255254</v>
       </c>
-      <c r="I8" s="225">
+      <c r="I8" s="219">
         <v>10255255255</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -7950,598 +8189,598 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
         <v>302</v>
-      </c>
-      <c r="B11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="57">
+        <v>301</v>
+      </c>
+      <c r="C12" s="52">
         <v>11000000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B13">
         <v>64</v>
       </c>
-      <c r="C13" s="227" t="s">
-        <v>317</v>
+      <c r="C13" s="221" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="227" t="s">
-        <v>318</v>
+      <c r="C14" s="221" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="227" t="s">
-        <v>319</v>
+      <c r="C15" s="221" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="227" t="s">
-        <v>320</v>
+      <c r="C16" s="221" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="228">
+        <v>324</v>
+      </c>
+      <c r="B17" s="222">
         <f>2^22 - 2</f>
         <v>4194302</v>
       </c>
-      <c r="C17" s="229">
+      <c r="C17" s="223">
         <f>B17*4</f>
         <v>16777208</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="227" t="s">
-        <v>336</v>
+        <v>159</v>
+      </c>
+      <c r="C19" s="221" t="s">
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I20" t="s">
         <v>307</v>
-      </c>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" t="s">
-        <v>310</v>
-      </c>
-      <c r="I20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="D21" s="226" t="s">
-        <v>349</v>
+      <c r="D21" s="220" t="s">
+        <v>343</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
-      </c>
-      <c r="H21" s="225" t="s">
-        <v>346</v>
-      </c>
-      <c r="I21" s="225" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="H21" s="219" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" s="219" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B22">
         <f>256/16</f>
         <v>16</v>
       </c>
-      <c r="D22" s="226" t="s">
-        <v>350</v>
+      <c r="D22" s="220" t="s">
+        <v>344</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G22" t="s">
-        <v>347</v>
-      </c>
-      <c r="H22" s="225" t="s">
-        <v>361</v>
-      </c>
-      <c r="I22" s="225" t="s">
-        <v>360</v>
+        <v>341</v>
+      </c>
+      <c r="H22" s="219" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="219" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" s="226" t="s">
-        <v>351</v>
+        <v>336</v>
+      </c>
+      <c r="D23" s="220" t="s">
+        <v>345</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G23" t="s">
-        <v>359</v>
-      </c>
-      <c r="H23" s="225" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" s="225" t="s">
-        <v>398</v>
+        <v>353</v>
+      </c>
+      <c r="H23" s="219" t="s">
+        <v>402</v>
+      </c>
+      <c r="I23" s="219" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="D24" s="226" t="s">
-        <v>352</v>
+      <c r="D24" s="220" t="s">
+        <v>346</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G24" t="s">
-        <v>382</v>
-      </c>
-      <c r="H24" s="225" t="s">
-        <v>409</v>
-      </c>
-      <c r="I24" s="225" t="s">
-        <v>399</v>
+        <v>376</v>
+      </c>
+      <c r="H24" s="219" t="s">
+        <v>403</v>
+      </c>
+      <c r="I24" s="219" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B25">
         <f>2^12 -2</f>
         <v>4094</v>
       </c>
-      <c r="D25" s="226" t="s">
-        <v>353</v>
+      <c r="D25" s="220" t="s">
+        <v>347</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G25" t="s">
-        <v>383</v>
-      </c>
-      <c r="H25" s="225" t="s">
-        <v>410</v>
-      </c>
-      <c r="I25" s="225" t="s">
-        <v>400</v>
+        <v>377</v>
+      </c>
+      <c r="H25" s="219" t="s">
+        <v>404</v>
+      </c>
+      <c r="I25" s="219" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="226" t="s">
-        <v>354</v>
+      <c r="D26" s="220" t="s">
+        <v>348</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
-      </c>
-      <c r="H26" s="225" t="s">
-        <v>411</v>
-      </c>
-      <c r="I26" s="225" t="s">
-        <v>401</v>
+        <v>378</v>
+      </c>
+      <c r="H26" s="219" t="s">
+        <v>405</v>
+      </c>
+      <c r="I26" s="219" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="226" t="s">
-        <v>355</v>
+      <c r="D27" s="220" t="s">
+        <v>349</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" s="225" t="s">
-        <v>412</v>
-      </c>
-      <c r="I27" s="225" t="s">
-        <v>402</v>
+        <v>379</v>
+      </c>
+      <c r="H27" s="219" t="s">
+        <v>406</v>
+      </c>
+      <c r="I27" s="219" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="226" t="s">
-        <v>356</v>
+      <c r="D28" s="220" t="s">
+        <v>350</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G28" t="s">
-        <v>386</v>
-      </c>
-      <c r="H28" s="225" t="s">
-        <v>413</v>
-      </c>
-      <c r="I28" s="225" t="s">
-        <v>403</v>
+        <v>380</v>
+      </c>
+      <c r="H28" s="219" t="s">
+        <v>407</v>
+      </c>
+      <c r="I28" s="219" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="226" t="s">
-        <v>357</v>
+      <c r="D29" s="220" t="s">
+        <v>351</v>
       </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H29" s="225" t="s">
-        <v>414</v>
-      </c>
-      <c r="I29" s="225" t="s">
-        <v>404</v>
+        <v>381</v>
+      </c>
+      <c r="H29" s="219" t="s">
+        <v>408</v>
+      </c>
+      <c r="I29" s="219" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="226" t="s">
-        <v>375</v>
+      <c r="D30" s="220" t="s">
+        <v>369</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G30" t="s">
-        <v>388</v>
-      </c>
-      <c r="H30" s="225" t="s">
-        <v>415</v>
-      </c>
-      <c r="I30" s="225" t="s">
-        <v>405</v>
+        <v>382</v>
+      </c>
+      <c r="H30" s="219" t="s">
+        <v>409</v>
+      </c>
+      <c r="I30" s="219" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="226" t="s">
-        <v>376</v>
+      <c r="D31" s="220" t="s">
+        <v>370</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G31" t="s">
-        <v>389</v>
-      </c>
-      <c r="H31" s="225" t="s">
-        <v>416</v>
-      </c>
-      <c r="I31" s="225" t="s">
-        <v>406</v>
+        <v>383</v>
+      </c>
+      <c r="H31" s="219" t="s">
+        <v>410</v>
+      </c>
+      <c r="I31" s="219" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="226" t="s">
-        <v>377</v>
+      <c r="D32" s="220" t="s">
+        <v>371</v>
       </c>
       <c r="E32">
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G32" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" s="225" t="s">
-        <v>417</v>
-      </c>
-      <c r="I32" s="225" t="s">
-        <v>407</v>
+        <v>384</v>
+      </c>
+      <c r="H32" s="219" t="s">
+        <v>411</v>
+      </c>
+      <c r="I32" s="219" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="226" t="s">
-        <v>378</v>
+      <c r="D33" s="220" t="s">
+        <v>372</v>
       </c>
       <c r="E33">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G33" t="s">
+        <v>385</v>
+      </c>
+      <c r="H33" t="s">
+        <v>412</v>
+      </c>
+      <c r="I33" t="s">
         <v>391</v>
       </c>
-      <c r="H33" t="s">
-        <v>418</v>
-      </c>
-      <c r="I33" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="226" t="s">
-        <v>379</v>
+      <c r="D34" s="220" t="s">
+        <v>373</v>
       </c>
       <c r="E34">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G34" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H34" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I34" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="226" t="s">
-        <v>380</v>
+      <c r="D35" s="220" t="s">
+        <v>374</v>
       </c>
       <c r="E35">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G35" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H35" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="226" t="s">
-        <v>381</v>
+      <c r="D36" s="220" t="s">
+        <v>375</v>
       </c>
       <c r="E36">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H36" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D38" s="226" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="D38" s="220" t="s">
+        <v>419</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H38" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" t="s">
+        <v>306</v>
+      </c>
+      <c r="I39" t="s">
         <v>307</v>
-      </c>
-      <c r="F39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H39" t="s">
-        <v>310</v>
-      </c>
-      <c r="I39" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B40">
         <f>256/8</f>
         <v>32</v>
       </c>
-      <c r="D40" s="226"/>
+      <c r="D40" s="220"/>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H40" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I40" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>341</v>
-      </c>
-      <c r="B41" s="226" t="s">
-        <v>427</v>
+        <v>335</v>
+      </c>
+      <c r="B41" s="220" t="s">
+        <v>421</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G41" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B42">
         <v>27</v>
       </c>
-      <c r="D42" s="226"/>
+      <c r="D42" s="220"/>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H42" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I42" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B43">
         <f>2^5-2</f>
@@ -8551,34 +8790,34 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H43" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I43" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="226"/>
+      <c r="D44" s="220"/>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G44" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H44" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I44" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -8586,34 +8825,34 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G45" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H45" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I45" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="226"/>
+      <c r="D46" s="220"/>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H46" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I46" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -8621,16 +8860,16 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8639,7 +8878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1066F-76F3-4834-8CFB-41449B38856E}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -8659,143 +8898,143 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="225">
+      <c r="G8" s="219">
         <v>255255255128</v>
       </c>
       <c r="H8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F9">
         <v>26</v>
       </c>
-      <c r="G9" s="225">
+      <c r="G9" s="219">
         <v>255255255192</v>
       </c>
       <c r="H9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F10">
         <v>26</v>
       </c>
-      <c r="G10" s="225">
+      <c r="G10" s="219">
         <v>255255255192</v>
       </c>
       <c r="H10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F11">
         <v>27</v>
       </c>
-      <c r="G11" s="225">
+      <c r="G11" s="219">
         <v>255255255224</v>
       </c>
       <c r="H11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3E924-B686-4247-AA61-7FAB9F4DC13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD23180-1FB0-4954-BF5D-D9842E2E5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="538">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -2105,15 +2105,9 @@
     <t>172.16.0.30</t>
   </si>
   <si>
-    <t>Modelo OSI</t>
-  </si>
-  <si>
     <t>PDU</t>
   </si>
   <si>
-    <t>Modelo TCP/IP</t>
-  </si>
-  <si>
     <t>Protocolos</t>
   </si>
   <si>
@@ -2208,6 +2202,108 @@
   </si>
   <si>
     <t>32 - n</t>
+  </si>
+  <si>
+    <t>OSI</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>172.16.0.64</t>
+  </si>
+  <si>
+    <t>172.16.0.63</t>
+  </si>
+  <si>
+    <t>172.16.0.62</t>
+  </si>
+  <si>
+    <t>172.16.0.65</t>
+  </si>
+  <si>
+    <t>172.16.0.224</t>
+  </si>
+  <si>
+    <t>172.16.0.225</t>
+  </si>
+  <si>
+    <t>172.16.0.223</t>
+  </si>
+  <si>
+    <t>172.16.0.222</t>
+  </si>
+  <si>
+    <t>172.16.1.32</t>
+  </si>
+  <si>
+    <t>172.16.1.30</t>
+  </si>
+  <si>
+    <t>172.16.1.31</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>172.16.0.</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>172.20.0.128</t>
+  </si>
+  <si>
+    <t>172.20.0.192</t>
+  </si>
+  <si>
+    <t>172.20.0.129</t>
+  </si>
+  <si>
+    <t>172.20.0.193</t>
+  </si>
+  <si>
+    <t>172.20.0.127</t>
+  </si>
+  <si>
+    <t>172.20.0.191</t>
+  </si>
+  <si>
+    <t>172.20.0.255</t>
+  </si>
+  <si>
+    <t>172.20.0.126</t>
+  </si>
+  <si>
+    <t>172.20.0.190</t>
+  </si>
+  <si>
+    <t>172.20.0.254</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/120</t>
+  </si>
+  <si>
+    <t>00FF</t>
+  </si>
+  <si>
+    <t>00FE</t>
+  </si>
+  <si>
+    <t>DB8</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2312,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2367,7 +2463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2578,6 +2674,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C020"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F2121"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2990,7 +3092,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3018,7 +3120,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3040,7 +3142,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3049,7 +3151,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
@@ -3067,10 +3169,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
@@ -3535,248 +3637,14 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3789,15 +3657,9 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3807,66 +3669,320 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3885,6 +4001,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9F2121"/>
       <color rgb="FFE0C020"/>
       <color rgb="FF18A890"/>
       <color rgb="FF18A84B"/>
@@ -3893,7 +4010,6 @@
       <color rgb="FFE0D720"/>
       <color rgb="FFE07B20"/>
       <color rgb="FF9F5D21"/>
-      <color rgb="FF9F2121"/>
       <color rgb="FF40C0AB"/>
     </mruColors>
   </colors>
@@ -4208,7 +4324,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,100 +4338,100 @@
   <sheetData>
     <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="232" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="232" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="D2" s="232" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="232" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="312" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="225" t="s">
         <v>473</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="C3" s="245" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="226" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="301" t="s">
+      <c r="C4" s="245"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="302" t="s">
+      <c r="C5" s="245"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="228" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="341" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="228" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="340" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="231" t="s">
         <v>482</v>
       </c>
-      <c r="D3" s="302" t="s">
+      <c r="D7" s="342" t="s">
         <v>487</v>
       </c>
-      <c r="E3" s="303" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="304" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="303"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="305" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="303"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="306" t="s">
+      <c r="E7" s="231" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="306" t="s">
+      <c r="C8" s="229" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="306" t="s">
+      <c r="D8" s="247" t="s">
         <v>488</v>
       </c>
-      <c r="E6" s="306" t="s">
+      <c r="E8" s="247" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="311" t="s">
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="233" t="s">
         <v>479</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C9" s="230" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="311" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" s="311" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="340" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="307" t="s">
-        <v>485</v>
-      </c>
-      <c r="D8" s="308" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" s="310" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="313" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="309" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" s="308"/>
-      <c r="E9" s="310"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4329,6 +4445,7 @@
   <hyperlinks>
     <hyperlink ref="B9" location="Cableado!A1" display="Capa 1: FISICA" xr:uid="{16D93A38-CBC3-4262-A568-D37AF0A98542}"/>
     <hyperlink ref="B8" location="SIST!A1" display="Capa 2: ENLACE DATOS" xr:uid="{8B23261F-6CB1-43AF-B595-432B270C0B1E}"/>
+    <hyperlink ref="B7" location="'IPv4'!A1" display="Capa 3: RED" xr:uid="{1EB9F61E-BEC8-4D92-AA80-55C3240190DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4369,43 +4486,43 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="225"/>
-      <c r="I2" s="227" t="s">
+      <c r="E2" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="265"/>
+      <c r="I2" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="227" t="s">
+      <c r="K2" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="226" t="s">
+      <c r="M2" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="227" t="s">
+      <c r="O2" s="249" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" s="227" t="s">
+      <c r="Q2" s="249" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="225"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="242" t="s">
+      <c r="E3" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="243"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="227"/>
+      <c r="I3" s="249"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="227"/>
-      <c r="M3" s="226"/>
-      <c r="O3" s="227"/>
-      <c r="Q3" s="227"/>
+      <c r="K3" s="249"/>
+      <c r="M3" s="266"/>
+      <c r="O3" s="249"/>
+      <c r="Q3" s="249"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4429,21 +4546,21 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="235" t="s">
+      <c r="I4" s="258" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="229" t="s">
+      <c r="K4" s="248" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="229" t="s">
+      <c r="M4" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="229" t="s">
+      <c r="O4" s="248" t="s">
         <v>291</v>
       </c>
-      <c r="Q4" s="229" t="s">
+      <c r="Q4" s="248" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4469,13 +4586,13 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="229"/>
+      <c r="I5" s="248"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="229"/>
+      <c r="K5" s="248"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="229"/>
-      <c r="O5" s="229"/>
-      <c r="Q5" s="229"/>
+      <c r="M5" s="248"/>
+      <c r="O5" s="248"/>
+      <c r="Q5" s="248"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4499,13 +4616,13 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="229"/>
+      <c r="I6" s="248"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="229"/>
+      <c r="K6" s="248"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="Q6" s="229"/>
+      <c r="M6" s="248"/>
+      <c r="O6" s="248"/>
+      <c r="Q6" s="248"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4529,13 +4646,13 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="229"/>
+      <c r="I7" s="248"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="229"/>
+      <c r="K7" s="248"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="Q7" s="229"/>
+      <c r="M7" s="248"/>
+      <c r="O7" s="248"/>
+      <c r="Q7" s="248"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4559,13 +4676,13 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="229"/>
+      <c r="I8" s="248"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="229"/>
+      <c r="K8" s="248"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="Q8" s="229"/>
+      <c r="M8" s="248"/>
+      <c r="O8" s="248"/>
+      <c r="Q8" s="248"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4589,13 +4706,13 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="229"/>
+      <c r="I9" s="248"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="229"/>
+      <c r="K9" s="248"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="229"/>
-      <c r="O9" s="229"/>
-      <c r="Q9" s="229"/>
+      <c r="M9" s="248"/>
+      <c r="O9" s="248"/>
+      <c r="Q9" s="248"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4619,13 +4736,13 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="229"/>
+      <c r="I10" s="248"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="229"/>
+      <c r="K10" s="248"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="229"/>
-      <c r="O10" s="229"/>
-      <c r="Q10" s="229"/>
+      <c r="M10" s="248"/>
+      <c r="O10" s="248"/>
+      <c r="Q10" s="248"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4649,122 +4766,121 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="229"/>
+      <c r="I11" s="248"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="229"/>
+      <c r="K11" s="248"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="229"/>
-      <c r="O11" s="229"/>
-      <c r="Q11" s="229"/>
+      <c r="M11" s="248"/>
+      <c r="O11" s="248"/>
+      <c r="Q11" s="248"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="229"/>
-      <c r="O12" s="229"/>
-      <c r="Q12" s="229"/>
+      <c r="M12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="Q12" s="248"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="239" t="s">
+      <c r="C13" s="254"/>
+      <c r="D13" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="241"/>
-      <c r="M13" s="229"/>
-      <c r="O13" s="229"/>
-      <c r="Q13" s="229"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="264"/>
+      <c r="M13" s="248"/>
+      <c r="O13" s="248"/>
+      <c r="Q13" s="248"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="236" t="s">
+      <c r="C14" s="255"/>
+      <c r="D14" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="238"/>
-      <c r="M14" s="229"/>
-      <c r="O14" s="229"/>
-      <c r="Q14" s="229"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="261"/>
+      <c r="M14" s="248"/>
+      <c r="O14" s="248"/>
+      <c r="Q14" s="248"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="228"/>
-      <c r="D15" s="232" t="s">
+      <c r="C15" s="254"/>
+      <c r="D15" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="M15" s="229"/>
-      <c r="O15" s="229"/>
-      <c r="Q15" s="229"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="M15" s="248"/>
+      <c r="O15" s="248"/>
+      <c r="Q15" s="248"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="231"/>
-      <c r="D16" s="234" t="s">
+      <c r="C16" s="256"/>
+      <c r="D16" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="M16" s="229"/>
-      <c r="O16" s="229"/>
-      <c r="Q16" s="229"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="257"/>
+      <c r="M16" s="248"/>
+      <c r="O16" s="248"/>
+      <c r="Q16" s="248"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="228"/>
-      <c r="D17" s="232" t="s">
+      <c r="C17" s="254"/>
+      <c r="D17" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="M17" s="229"/>
-      <c r="O17" s="229"/>
-      <c r="Q17" s="229"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="M17" s="248"/>
+      <c r="O17" s="248"/>
+      <c r="Q17" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q4:Q17"/>
-    <mergeCell ref="O4:O17"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
     <mergeCell ref="B14:C14"/>
@@ -4777,11 +4893,12 @@
     <mergeCell ref="K4:K11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D13:K13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Q4:Q17"/>
+    <mergeCell ref="O4:O17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4792,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4817,41 +4934,41 @@
   <sheetData>
     <row r="1" spans="1:30" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
       <c r="O2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="258" t="s">
+      <c r="P2" s="289" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="258"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="258"/>
-      <c r="W2" s="259"/>
-      <c r="Y2" s="263" t="s">
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="290"/>
+      <c r="Y2" s="271" t="s">
         <v>202</v>
       </c>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="263"/>
-      <c r="AB2" s="263"/>
-      <c r="AC2" s="263"/>
-      <c r="AD2" s="263"/>
+      <c r="Z2" s="271"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="271"/>
+      <c r="AD2" s="271"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -4888,8 +5005,8 @@
       <c r="L3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="337" t="s">
-        <v>501</v>
+      <c r="M3" s="241" t="s">
+        <v>499</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="72" t="s">
@@ -4919,14 +5036,14 @@
       <c r="W3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="314" t="s">
+      <c r="Y3" s="273" t="s">
         <v>201</v>
       </c>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="314"/>
-      <c r="AD3" s="314"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -4963,8 +5080,8 @@
       <c r="L4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="338" t="s">
-        <v>502</v>
+      <c r="M4" s="242" t="s">
+        <v>500</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="73" t="s">
@@ -5002,12 +5119,12 @@
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="314"/>
-      <c r="Z4" s="314"/>
-      <c r="AA4" s="314"/>
-      <c r="AB4" s="314"/>
-      <c r="AC4" s="314"/>
-      <c r="AD4" s="314"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -5044,8 +5161,8 @@
       <c r="L5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="339" t="s">
-        <v>503</v>
+      <c r="M5" s="243" t="s">
+        <v>501</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="74" t="s">
@@ -5075,12 +5192,12 @@
       <c r="W5" s="32">
         <v>0</v>
       </c>
-      <c r="Y5" s="314"/>
-      <c r="Z5" s="314"/>
-      <c r="AA5" s="314"/>
-      <c r="AB5" s="314"/>
-      <c r="AC5" s="314"/>
-      <c r="AD5" s="314"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -5099,40 +5216,40 @@
       <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="295" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="J7" s="256" t="s">
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="J7" s="276" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
       <c r="O7" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="264" t="s">
+      <c r="P7" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="Y7" s="260" t="s">
+      <c r="Q7" s="275"/>
+      <c r="R7" s="275"/>
+      <c r="S7" s="275"/>
+      <c r="T7" s="275"/>
+      <c r="U7" s="275"/>
+      <c r="V7" s="275"/>
+      <c r="W7" s="275"/>
+      <c r="Y7" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="Z7" s="258"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="259"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="290"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
@@ -5398,14 +5515,14 @@
       <c r="AD11" s="161"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="246"/>
+      <c r="C12" s="297"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="298"/>
       <c r="H12" s="24"/>
       <c r="J12" s="152">
         <v>3</v>
@@ -5586,12 +5703,12 @@
       <c r="W14" s="66">
         <v>1</v>
       </c>
-      <c r="Y14" s="261" t="s">
+      <c r="Y14" s="286" t="s">
         <v>200</v>
       </c>
-      <c r="Z14" s="262"/>
-      <c r="AA14" s="262"/>
-      <c r="AB14" s="262"/>
+      <c r="Z14" s="287"/>
+      <c r="AA14" s="287"/>
+      <c r="AB14" s="287"/>
       <c r="AC14" s="156"/>
       <c r="AD14" s="157"/>
     </row>
@@ -5687,15 +5804,15 @@
       </c>
     </row>
     <row r="17" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="247" t="s">
+      <c r="B17" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="249"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="301"/>
       <c r="J17" s="146">
         <v>8</v>
       </c>
@@ -5711,39 +5828,39 @@
       <c r="O17" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="326" t="s">
+      <c r="P17" s="288" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="326"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="Y17" s="263" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z17" s="263"/>
-      <c r="AA17" s="263"/>
-      <c r="AB17" s="263"/>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="263"/>
+      <c r="Q17" s="288"/>
+      <c r="R17" s="288"/>
+      <c r="S17" s="288"/>
+      <c r="T17" s="288"/>
+      <c r="U17" s="288"/>
+      <c r="V17" s="288"/>
+      <c r="W17" s="288"/>
+      <c r="Y17" s="271" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
     </row>
     <row r="18" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="250"/>
-      <c r="E18" s="315" t="s">
-        <v>496</v>
-      </c>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="251"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="302" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="303"/>
       <c r="J18" s="147">
         <v>9</v>
       </c>
@@ -5759,47 +5876,47 @@
       <c r="O18" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="P18" s="321" t="s">
+      <c r="P18" s="279" t="s">
         <v>216</v>
       </c>
-      <c r="Q18" s="320"/>
-      <c r="R18" s="322" t="s">
+      <c r="Q18" s="280"/>
+      <c r="R18" s="281" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="322"/>
-      <c r="T18" s="320" t="s">
+      <c r="S18" s="281"/>
+      <c r="T18" s="280" t="s">
         <v>214</v>
       </c>
-      <c r="U18" s="320"/>
+      <c r="U18" s="280"/>
       <c r="V18" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="W18" s="327" t="s">
+      <c r="W18" s="235" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="336" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z18" s="314"/>
-      <c r="AA18" s="314"/>
-      <c r="AB18" s="314"/>
-      <c r="AC18" s="314"/>
-      <c r="AD18" s="314"/>
+      <c r="Y18" s="272" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z18" s="273"/>
+      <c r="AA18" s="273"/>
+      <c r="AB18" s="273"/>
+      <c r="AC18" s="273"/>
+      <c r="AD18" s="273"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="254" t="s">
+      <c r="C19" s="293" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="254"/>
-      <c r="E19" s="316" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="254"/>
-      <c r="G19" s="254"/>
-      <c r="H19" s="255"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="306" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="307"/>
       <c r="J19" s="146" t="s">
         <v>105</v>
       </c>
@@ -5815,21 +5932,21 @@
       <c r="O19" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="319">
+      <c r="P19" s="277">
         <f>16^4</f>
         <v>65536</v>
       </c>
-      <c r="Q19" s="318"/>
-      <c r="R19" s="323">
+      <c r="Q19" s="278"/>
+      <c r="R19" s="282">
         <f>16^3</f>
         <v>4096</v>
       </c>
-      <c r="S19" s="323"/>
-      <c r="T19" s="318">
+      <c r="S19" s="282"/>
+      <c r="T19" s="278">
         <f>16^2</f>
         <v>256</v>
       </c>
-      <c r="U19" s="318"/>
+      <c r="U19" s="278"/>
       <c r="V19" s="28">
         <f>16^1</f>
         <v>16</v>
@@ -5838,27 +5955,27 @@
         <f>16^0</f>
         <v>1</v>
       </c>
-      <c r="Y19" s="314"/>
-      <c r="Z19" s="314"/>
-      <c r="AA19" s="314"/>
-      <c r="AB19" s="314"/>
-      <c r="AC19" s="314"/>
-      <c r="AD19" s="314"/>
+      <c r="Y19" s="273"/>
+      <c r="Z19" s="273"/>
+      <c r="AA19" s="273"/>
+      <c r="AB19" s="273"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="273"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="252" t="s">
+      <c r="C20" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="252"/>
-      <c r="E20" s="317" t="s">
-        <v>497</v>
-      </c>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="253"/>
+      <c r="D20" s="294"/>
+      <c r="E20" s="304" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="305"/>
       <c r="J20" s="147" t="s">
         <v>51</v>
       </c>
@@ -5874,22 +5991,22 @@
       <c r="O20" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="P20" s="328" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q20" s="329"/>
-      <c r="R20" s="329"/>
-      <c r="S20" s="329"/>
-      <c r="T20" s="329"/>
-      <c r="U20" s="329"/>
-      <c r="V20" s="329"/>
-      <c r="W20" s="330"/>
-      <c r="Y20" s="314"/>
-      <c r="Z20" s="314"/>
-      <c r="AA20" s="314"/>
-      <c r="AB20" s="314"/>
-      <c r="AC20" s="314"/>
-      <c r="AD20" s="314"/>
+      <c r="P20" s="283" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q20" s="284"/>
+      <c r="R20" s="284"/>
+      <c r="S20" s="284"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="284"/>
+      <c r="V20" s="284"/>
+      <c r="W20" s="285"/>
+      <c r="Y20" s="273"/>
+      <c r="Z20" s="273"/>
+      <c r="AA20" s="273"/>
+      <c r="AB20" s="273"/>
+      <c r="AC20" s="273"/>
+      <c r="AD20" s="273"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J21" s="146" t="s">
@@ -5921,30 +6038,30 @@
       <c r="O22" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="264" t="s">
+      <c r="P22" s="275" t="s">
         <v>261</v>
       </c>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="264"/>
-      <c r="T22" s="264" t="s">
+      <c r="Q22" s="275"/>
+      <c r="R22" s="275"/>
+      <c r="S22" s="275"/>
+      <c r="T22" s="275" t="s">
         <v>261</v>
       </c>
-      <c r="U22" s="264"/>
-      <c r="V22" s="264"/>
-      <c r="W22" s="264"/>
-      <c r="X22" s="264" t="s">
+      <c r="U22" s="275"/>
+      <c r="V22" s="275"/>
+      <c r="W22" s="275"/>
+      <c r="X22" s="275" t="s">
         <v>83</v>
       </c>
-      <c r="Y22" s="264"/>
-      <c r="AA22" s="331" t="s">
+      <c r="Y22" s="275"/>
+      <c r="AA22" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="AB22" s="324"/>
-      <c r="AC22" s="324"/>
-      <c r="AD22" s="332"/>
-      <c r="AE22" s="333"/>
-      <c r="AF22" s="333"/>
+      <c r="AB22" s="234"/>
+      <c r="AC22" s="234"/>
+      <c r="AD22" s="237"/>
+      <c r="AE22" s="238"/>
+      <c r="AF22" s="238"/>
     </row>
     <row r="23" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J23" s="146" t="s">
@@ -5998,12 +6115,12 @@
       <c r="AB23" s="166">
         <v>16</v>
       </c>
-      <c r="AC23" s="293" t="s">
+      <c r="AC23" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD23" s="294"/>
-      <c r="AE23" s="334"/>
-      <c r="AF23" s="334"/>
+      <c r="AD23" s="268"/>
+      <c r="AE23" s="239"/>
+      <c r="AF23" s="239"/>
     </row>
     <row r="24" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J24" s="149" t="s">
@@ -6057,12 +6174,12 @@
       <c r="AB24" s="190">
         <v>3</v>
       </c>
-      <c r="AC24" s="291">
+      <c r="AC24" s="269">
         <v>36</v>
       </c>
-      <c r="AD24" s="292"/>
-      <c r="AE24" s="335"/>
-      <c r="AF24" s="335"/>
+      <c r="AD24" s="270"/>
+      <c r="AE24" s="240"/>
+      <c r="AF24" s="240"/>
     </row>
     <row r="25" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J25" s="150">
@@ -6116,12 +6233,12 @@
       <c r="AB25" s="166">
         <v>16</v>
       </c>
-      <c r="AC25" s="293" t="s">
+      <c r="AC25" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD25" s="294"/>
-      <c r="AE25" s="334"/>
-      <c r="AF25" s="334"/>
+      <c r="AD25" s="268"/>
+      <c r="AE25" s="239"/>
+      <c r="AF25" s="239"/>
     </row>
     <row r="26" spans="2:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="153">
@@ -6175,12 +6292,12 @@
       <c r="AB26" s="190">
         <v>7</v>
       </c>
-      <c r="AC26" s="291" t="s">
+      <c r="AC26" s="269" t="s">
         <v>226</v>
       </c>
-      <c r="AD26" s="292"/>
-      <c r="AE26" s="335"/>
-      <c r="AF26" s="335"/>
+      <c r="AD26" s="270"/>
+      <c r="AE26" s="240"/>
+      <c r="AF26" s="240"/>
     </row>
     <row r="27" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="146">
@@ -6234,12 +6351,12 @@
       <c r="AB27" s="166">
         <v>16</v>
       </c>
-      <c r="AC27" s="293" t="s">
+      <c r="AC27" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD27" s="294"/>
-      <c r="AE27" s="334"/>
-      <c r="AF27" s="334"/>
+      <c r="AD27" s="268"/>
+      <c r="AE27" s="239"/>
+      <c r="AF27" s="239"/>
     </row>
     <row r="28" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O28" s="65">
@@ -6281,12 +6398,12 @@
       <c r="AB28" s="190">
         <v>1</v>
       </c>
-      <c r="AC28" s="291">
+      <c r="AC28" s="269">
         <v>19</v>
       </c>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="335"/>
-      <c r="AF28" s="335"/>
+      <c r="AD28" s="270"/>
+      <c r="AE28" s="240"/>
+      <c r="AF28" s="240"/>
     </row>
     <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O29" s="68">
@@ -6328,12 +6445,12 @@
       <c r="AB29" s="166">
         <v>16</v>
       </c>
-      <c r="AC29" s="293" t="s">
+      <c r="AC29" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD29" s="294"/>
-      <c r="AE29" s="334"/>
-      <c r="AF29" s="334"/>
+      <c r="AD29" s="268"/>
+      <c r="AE29" s="239"/>
+      <c r="AF29" s="239"/>
     </row>
     <row r="30" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O30" s="62">
@@ -6375,12 +6492,12 @@
       <c r="AB30" s="190">
         <v>3</v>
       </c>
-      <c r="AC30" s="291" t="s">
+      <c r="AC30" s="269" t="s">
         <v>223</v>
       </c>
-      <c r="AD30" s="292"/>
-      <c r="AE30" s="335"/>
-      <c r="AF30" s="335"/>
+      <c r="AD30" s="270"/>
+      <c r="AE30" s="240"/>
+      <c r="AF30" s="240"/>
     </row>
     <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O31" s="68">
@@ -6422,12 +6539,12 @@
       <c r="AB31" s="166">
         <v>16</v>
       </c>
-      <c r="AC31" s="293" t="s">
+      <c r="AC31" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD31" s="294"/>
-      <c r="AE31" s="334"/>
-      <c r="AF31" s="334"/>
+      <c r="AD31" s="268"/>
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="239"/>
     </row>
     <row r="32" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O32" s="65">
@@ -6469,12 +6586,12 @@
       <c r="AB32" s="190">
         <v>6</v>
       </c>
-      <c r="AC32" s="291" t="s">
+      <c r="AC32" s="269" t="s">
         <v>224</v>
       </c>
-      <c r="AD32" s="292"/>
-      <c r="AE32" s="335"/>
-      <c r="AF32" s="335"/>
+      <c r="AD32" s="270"/>
+      <c r="AE32" s="240"/>
+      <c r="AF32" s="240"/>
     </row>
     <row r="33" spans="15:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O33" s="68">
@@ -6516,12 +6633,12 @@
       <c r="AB33" s="166">
         <v>16</v>
       </c>
-      <c r="AC33" s="293" t="s">
+      <c r="AC33" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="AD33" s="294"/>
-      <c r="AE33" s="334"/>
-      <c r="AF33" s="334"/>
+      <c r="AD33" s="268"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="239"/>
     </row>
     <row r="34" spans="15:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O34" s="62">
@@ -6563,15 +6680,41 @@
       <c r="AB34" s="190">
         <v>1</v>
       </c>
-      <c r="AC34" s="291" t="s">
+      <c r="AC34" s="269" t="s">
         <v>262</v>
       </c>
-      <c r="AD34" s="292"/>
-      <c r="AE34" s="335"/>
-      <c r="AF34" s="335"/>
+      <c r="AD34" s="270"/>
+      <c r="AE34" s="240"/>
+      <c r="AF34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="P17:W17"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AC33:AD33"/>
     <mergeCell ref="AC34:AD34"/>
     <mergeCell ref="Y17:AD17"/>
@@ -6588,32 +6731,6 @@
     <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="P17:W17"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y3:AD5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6627,7 +6744,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,39 +6764,39 @@
       <c r="B2" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="329" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="265" t="s">
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="329" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="330"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="331" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="268" t="s">
+      <c r="D3" s="331"/>
+      <c r="E3" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="269"/>
-      <c r="G3" s="268" t="s">
+      <c r="F3" s="333"/>
+      <c r="G3" s="332" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="269"/>
-      <c r="I3" s="267" t="s">
+      <c r="H3" s="333"/>
+      <c r="I3" s="331" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="269"/>
+      <c r="J3" s="333"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="120" t="s">
@@ -6796,9 +6913,9 @@
       <c r="J7" s="112">
         <v>192168255255</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
+      <c r="K7" s="322"/>
+      <c r="L7" s="322"/>
+      <c r="M7" s="322"/>
       <c r="N7" s="75"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -6817,12 +6934,12 @@
       <c r="F8" s="102">
         <v>239255255255</v>
       </c>
-      <c r="G8" s="276" t="s">
+      <c r="G8" s="323" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="278"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="325"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -6844,12 +6961,12 @@
       <c r="F9" s="117">
         <v>255255255255</v>
       </c>
-      <c r="G9" s="279" t="s">
+      <c r="G9" s="326" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="280"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="281"/>
+      <c r="H9" s="327"/>
+      <c r="I9" s="327"/>
+      <c r="J9" s="328"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -6867,7 +6984,7 @@
       <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="282" t="s">
+      <c r="B11" s="308" t="s">
         <v>181</v>
       </c>
       <c r="C11" s="126" t="s">
@@ -6893,7 +7010,7 @@
       <c r="M11" s="136"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="282"/>
+      <c r="B12" s="308"/>
       <c r="C12" s="127" t="s">
         <v>156</v>
       </c>
@@ -6929,7 +7046,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="282"/>
+      <c r="B13" s="308"/>
       <c r="C13" s="127" t="s">
         <v>157</v>
       </c>
@@ -6965,7 +7082,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="282"/>
+      <c r="B14" s="308"/>
       <c r="C14" s="127" t="s">
         <v>154</v>
       </c>
@@ -7001,7 +7118,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="282"/>
+      <c r="B15" s="308"/>
       <c r="C15" s="127" t="s">
         <v>155</v>
       </c>
@@ -7037,7 +7154,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="282"/>
+      <c r="B16" s="308"/>
       <c r="C16" s="127" t="s">
         <v>152</v>
       </c>
@@ -7048,12 +7165,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="F16" s="288" t="str">
+      <c r="F16" s="316" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="G16" s="289"/>
-      <c r="H16" s="290"/>
+      <c r="G16" s="317"/>
+      <c r="H16" s="318"/>
       <c r="I16" s="128" t="s">
         <v>158</v>
       </c>
@@ -7061,12 +7178,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="K16" s="288" t="str">
+      <c r="K16" s="316" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="L16" s="289"/>
-      <c r="M16" s="290"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="318"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -7084,7 +7201,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="308" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="126" t="s">
@@ -7112,7 +7229,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="282"/>
+      <c r="B19" s="308"/>
       <c r="C19" s="127" t="s">
         <v>156</v>
       </c>
@@ -7150,7 +7267,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="282"/>
+      <c r="B20" s="308"/>
       <c r="C20" s="127" t="s">
         <v>157</v>
       </c>
@@ -7188,7 +7305,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="282"/>
+      <c r="B21" s="308"/>
       <c r="C21" s="127" t="s">
         <v>154</v>
       </c>
@@ -7226,7 +7343,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="282"/>
+      <c r="B22" s="308"/>
       <c r="C22" s="127" t="s">
         <v>155</v>
       </c>
@@ -7264,36 +7381,36 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="282"/>
+      <c r="B23" s="308"/>
       <c r="C23" s="127" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="286" t="str">
+      <c r="E23" s="312" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="F23" s="287"/>
-      <c r="G23" s="274" t="str">
+      <c r="F23" s="313"/>
+      <c r="G23" s="314" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="H23" s="275"/>
+      <c r="H23" s="315"/>
       <c r="I23" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="286" t="str">
+      <c r="J23" s="312" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="K23" s="287"/>
-      <c r="L23" s="274" t="str">
+      <c r="K23" s="313"/>
+      <c r="L23" s="314" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="M23" s="275"/>
+      <c r="M23" s="315"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D24" s="131"/>
@@ -7304,7 +7421,7 @@
       <c r="M24" s="141"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="282" t="s">
+      <c r="B25" s="308" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="126" t="s">
@@ -7313,24 +7430,24 @@
       <c r="D25" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="271" t="s">
+      <c r="E25" s="319" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="272"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="273"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="321"/>
       <c r="I25" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="271" t="s">
+      <c r="J25" s="319" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="272"/>
-      <c r="L25" s="272"/>
-      <c r="M25" s="273"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="320"/>
+      <c r="M25" s="321"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="282"/>
+      <c r="B26" s="308"/>
       <c r="C26" s="127" t="s">
         <v>156</v>
       </c>
@@ -7366,7 +7483,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="282"/>
+      <c r="B27" s="308"/>
       <c r="C27" s="127" t="s">
         <v>157</v>
       </c>
@@ -7402,7 +7519,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="282"/>
+      <c r="B28" s="308"/>
       <c r="C28" s="127" t="s">
         <v>154</v>
       </c>
@@ -7438,7 +7555,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="282"/>
+      <c r="B29" s="308"/>
       <c r="C29" s="127" t="s">
         <v>155</v>
       </c>
@@ -7474,19 +7591,19 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="282"/>
+      <c r="B30" s="308"/>
       <c r="C30" s="127" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="283" t="str">
+      <c r="E30" s="309" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="F30" s="284"/>
-      <c r="G30" s="285"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="311"/>
       <c r="H30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -7494,12 +7611,12 @@
       <c r="I30" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J30" s="283" t="str">
+      <c r="J30" s="309" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="K30" s="284"/>
-      <c r="L30" s="285"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="311"/>
       <c r="M30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -7507,6 +7624,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B11:B16"/>
@@ -7518,17 +7646,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="J25:M25"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7542,7 +7659,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,28 +7679,28 @@
       <c r="A1" s="200" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="336" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
       <c r="E1" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="300" t="s">
+      <c r="F1" s="339" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
       <c r="J1" s="217" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="295" t="s">
+      <c r="K1" s="334" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
@@ -7683,11 +7800,11 @@
       <c r="E4" s="205">
         <v>1</v>
       </c>
-      <c r="F4" s="298" t="s">
+      <c r="F4" s="337" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="298"/>
-      <c r="H4" s="298"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
       <c r="I4" s="206">
         <v>1</v>
       </c>
@@ -7708,16 +7825,16 @@
       <c r="A5" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="338" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
       <c r="J5" s="216" t="s">
         <v>232</v>
       </c>
@@ -7745,16 +7862,16 @@
       <c r="A7" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="296" t="s">
+      <c r="B7" s="335" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="335"/>
+      <c r="H7" s="335"/>
+      <c r="I7" s="335"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="192" t="s">
@@ -8021,7 +8138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D435661-3ABF-402C-8B05-AD993B7D7E51}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A3:D6"/>
     </sheetView>
@@ -8051,7 +8168,7 @@
         <v>328</v>
       </c>
       <c r="E1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8065,7 +8182,7 @@
         <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8880,43 +8997,49 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1066F-76F3-4834-8CFB-41449B38856E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -8933,7 +9056,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -8959,7 +9082,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -8985,7 +9108,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -9011,7 +9134,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -9037,7 +9160,457 @@
         <v>469</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="219">
+        <v>255255255192</v>
+      </c>
+      <c r="I13" t="s">
+        <v>456</v>
+      </c>
+      <c r="J13" t="s">
+        <v>508</v>
+      </c>
+      <c r="K13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="343" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14" s="344" t="s">
+        <v>506</v>
+      </c>
+      <c r="H14" s="345">
+        <v>255255255128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>509</v>
+      </c>
+      <c r="J14" t="s">
+        <v>462</v>
+      </c>
+      <c r="K14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="219">
+        <v>255255255</v>
+      </c>
+      <c r="C15" s="343" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>461</v>
+      </c>
+      <c r="H15" s="219">
+        <v>255255255224</v>
+      </c>
+      <c r="I15" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" t="s">
+        <v>513</v>
+      </c>
+      <c r="K15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" s="343" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16" s="344" t="s">
+        <v>510</v>
+      </c>
+      <c r="H16" s="345">
+        <v>255255255192</v>
+      </c>
+      <c r="I16" t="s">
+        <v>511</v>
+      </c>
+      <c r="J16" t="s">
+        <v>515</v>
+      </c>
+      <c r="K16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="343" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="219">
+        <v>255255255128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J23" t="s">
+        <v>530</v>
+      </c>
+      <c r="K23" t="s">
+        <v>527</v>
+      </c>
+      <c r="L23" t="s">
+        <v>533</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>454</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24" s="219">
+        <v>255255255192</v>
+      </c>
+      <c r="H24" t="s">
+        <v>523</v>
+      </c>
+      <c r="I24" t="s">
+        <v>525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>531</v>
+      </c>
+      <c r="K24" t="s">
+        <v>528</v>
+      </c>
+      <c r="L24" t="s">
+        <v>533</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25" s="219">
+        <v>255255255224</v>
+      </c>
+      <c r="H25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I25" t="s">
+        <v>526</v>
+      </c>
+      <c r="J25" t="s">
+        <v>532</v>
+      </c>
+      <c r="K25" t="s">
+        <v>529</v>
+      </c>
+      <c r="L25" t="s">
+        <v>533</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="346">
+        <v>2001</v>
+      </c>
+      <c r="B30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" s="220" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2001</v>
+      </c>
+      <c r="B31" s="220" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" t="s">
+        <v>534</v>
+      </c>
+      <c r="J31" s="220" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2002</v>
+      </c>
+      <c r="B32" s="220" t="s">
+        <v>537</v>
+      </c>
+      <c r="C32" s="220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="220" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2003</v>
+      </c>
+      <c r="B33" s="220" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="220" t="s">
+        <v>536</v>
+      </c>
+      <c r="J33" s="220" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2004</v>
+      </c>
+      <c r="B34" s="220" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34" s="220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="220" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="220" t="s">
+        <v>535</v>
+      </c>
+      <c r="J34" s="220" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="182"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2001</v>
+      </c>
+      <c r="B36" s="220" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" s="220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="220" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="182"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="182"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/modelo_OSI.xlsx
+++ b/docs/modelo_OSI.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD23180-1FB0-4954-BF5D-D9842E2E5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC337737-3F76-4A2E-8E0A-A5B9A27CCEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="11" r:id="rId1"/>
     <sheet name="TIA-568" sheetId="1" r:id="rId2"/>
     <sheet name="SIST" sheetId="2" r:id="rId3"/>
-    <sheet name="IPv4" sheetId="5" r:id="rId4"/>
-    <sheet name="IPv6" sheetId="7" r:id="rId5"/>
-    <sheet name="CLASSIC" sheetId="8" r:id="rId6"/>
-    <sheet name="VLSM" sheetId="9" r:id="rId7"/>
+    <sheet name="AND" sheetId="12" r:id="rId4"/>
+    <sheet name="IPv4" sheetId="5" r:id="rId5"/>
+    <sheet name="IPv6" sheetId="7" r:id="rId6"/>
+    <sheet name="CLASSIC" sheetId="8" r:id="rId7"/>
+    <sheet name="VLSM" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="547">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -2304,6 +2305,90 @@
   </si>
   <si>
     <t>DB8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.54</t>
+  </si>
+  <si>
+    <t>00110110</t>
+  </si>
+  <si>
+    <t>00110100</t>
+  </si>
+  <si>
+    <t>10.0.0.52</t>
+  </si>
+  <si>
+    <t>00110000</t>
+  </si>
+  <si>
+    <t>10.0.0.48</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3177,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3682,291 +3767,6 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3983,6 +3783,305 @@
     <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="22" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4324,7 +4423,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,13 +4454,13 @@
       <c r="B3" s="225" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="254" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="252" t="s">
         <v>485</v>
       </c>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="252" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4369,17 +4468,17 @@
       <c r="B4" s="226" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
     </row>
     <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
     </row>
     <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="228" t="s">
@@ -4388,7 +4487,7 @@
       <c r="C6" s="228" t="s">
         <v>481</v>
       </c>
-      <c r="D6" s="341" t="s">
+      <c r="D6" s="246" t="s">
         <v>486</v>
       </c>
       <c r="E6" s="228" t="s">
@@ -4396,13 +4495,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="340" t="s">
+      <c r="B7" s="245" t="s">
         <v>477</v>
       </c>
       <c r="C7" s="231" t="s">
         <v>482</v>
       </c>
-      <c r="D7" s="342" t="s">
+      <c r="D7" s="247" t="s">
         <v>487</v>
       </c>
       <c r="E7" s="231" t="s">
@@ -4416,10 +4515,10 @@
       <c r="C8" s="229" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="253" t="s">
         <v>488</v>
       </c>
-      <c r="E8" s="247" t="s">
+      <c r="E8" s="253" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4430,8 +4529,8 @@
       <c r="C9" s="230" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4486,43 +4585,43 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="265" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="265"/>
-      <c r="I2" s="249" t="s">
+      <c r="E2" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="255"/>
+      <c r="I2" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="249" t="s">
+      <c r="K2" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="266" t="s">
+      <c r="M2" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="249" t="s">
+      <c r="O2" s="257" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" s="249" t="s">
+      <c r="Q2" s="257" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="265"/>
+      <c r="C3" s="255"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="252" t="s">
+      <c r="E3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="253"/>
+      <c r="F3" s="273"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="249"/>
+      <c r="I3" s="257"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="249"/>
-      <c r="M3" s="266"/>
-      <c r="O3" s="249"/>
-      <c r="Q3" s="249"/>
+      <c r="K3" s="257"/>
+      <c r="M3" s="256"/>
+      <c r="O3" s="257"/>
+      <c r="Q3" s="257"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4546,21 +4645,21 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="258" t="s">
+      <c r="I4" s="265" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="259" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="248" t="s">
+      <c r="O4" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="Q4" s="248" t="s">
+      <c r="Q4" s="259" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4586,13 +4685,13 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="248"/>
+      <c r="I5" s="259"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="248"/>
+      <c r="K5" s="259"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="248"/>
-      <c r="O5" s="248"/>
-      <c r="Q5" s="248"/>
+      <c r="M5" s="259"/>
+      <c r="O5" s="259"/>
+      <c r="Q5" s="259"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4616,13 +4715,13 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="248"/>
+      <c r="I6" s="259"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="248"/>
+      <c r="K6" s="259"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="Q6" s="248"/>
+      <c r="M6" s="259"/>
+      <c r="O6" s="259"/>
+      <c r="Q6" s="259"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4646,13 +4745,13 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="248"/>
+      <c r="I7" s="259"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="248"/>
+      <c r="K7" s="259"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="248"/>
-      <c r="O7" s="248"/>
-      <c r="Q7" s="248"/>
+      <c r="M7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="Q7" s="259"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4676,13 +4775,13 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="248"/>
+      <c r="I8" s="259"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="248"/>
+      <c r="K8" s="259"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="248"/>
-      <c r="O8" s="248"/>
-      <c r="Q8" s="248"/>
+      <c r="M8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="Q8" s="259"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4706,13 +4805,13 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="248"/>
+      <c r="I9" s="259"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="248"/>
+      <c r="K9" s="259"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="248"/>
-      <c r="O9" s="248"/>
-      <c r="Q9" s="248"/>
+      <c r="M9" s="259"/>
+      <c r="O9" s="259"/>
+      <c r="Q9" s="259"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4736,13 +4835,13 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="248"/>
+      <c r="I10" s="259"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="248"/>
+      <c r="K10" s="259"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="248"/>
-      <c r="O10" s="248"/>
-      <c r="Q10" s="248"/>
+      <c r="M10" s="259"/>
+      <c r="O10" s="259"/>
+      <c r="Q10" s="259"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4766,121 +4865,122 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="248"/>
+      <c r="I11" s="259"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="248"/>
+      <c r="K11" s="259"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="248"/>
-      <c r="O11" s="248"/>
-      <c r="Q11" s="248"/>
+      <c r="M11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="Q11" s="259"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="248"/>
-      <c r="O12" s="248"/>
-      <c r="Q12" s="248"/>
+      <c r="M12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="Q12" s="259"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="262" t="s">
+      <c r="C13" s="258"/>
+      <c r="D13" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="264"/>
-      <c r="M13" s="248"/>
-      <c r="O13" s="248"/>
-      <c r="Q13" s="248"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="270"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="270"/>
+      <c r="K13" s="271"/>
+      <c r="M13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="Q13" s="259"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="259" t="s">
+      <c r="C14" s="260"/>
+      <c r="D14" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="260"/>
-      <c r="K14" s="261"/>
-      <c r="M14" s="248"/>
-      <c r="O14" s="248"/>
-      <c r="Q14" s="248"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="268"/>
+      <c r="M14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="Q14" s="259"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="250" t="s">
+      <c r="C15" s="258"/>
+      <c r="D15" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
-      <c r="M15" s="248"/>
-      <c r="O15" s="248"/>
-      <c r="Q15" s="248"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="263"/>
+      <c r="I15" s="263"/>
+      <c r="J15" s="263"/>
+      <c r="K15" s="263"/>
+      <c r="M15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="Q15" s="259"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="257" t="s">
+      <c r="C16" s="261"/>
+      <c r="D16" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="M16" s="248"/>
-      <c r="O16" s="248"/>
-      <c r="Q16" s="248"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="264"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="264"/>
+      <c r="K16" s="264"/>
+      <c r="M16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="Q16" s="259"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="254" t="s">
+      <c r="B17" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="250" t="s">
+      <c r="C17" s="258"/>
+      <c r="D17" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="251"/>
-      <c r="M17" s="248"/>
-      <c r="O17" s="248"/>
-      <c r="Q17" s="248"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="263"/>
+      <c r="I17" s="263"/>
+      <c r="J17" s="263"/>
+      <c r="K17" s="263"/>
+      <c r="M17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="Q17" s="259"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="Q4:Q17"/>
+    <mergeCell ref="O4:O17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
     <mergeCell ref="B14:C14"/>
@@ -4893,12 +4993,11 @@
     <mergeCell ref="K4:K11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D13:K13"/>
-    <mergeCell ref="Q4:Q17"/>
-    <mergeCell ref="O4:O17"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4934,41 +5033,41 @@
   <sheetData>
     <row r="1" spans="1:30" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
       <c r="O2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="290" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="290"/>
-      <c r="Y2" s="271" t="s">
+      <c r="Q2" s="290"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="290"/>
+      <c r="T2" s="290"/>
+      <c r="U2" s="290"/>
+      <c r="V2" s="290"/>
+      <c r="W2" s="291"/>
+      <c r="Y2" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="271"/>
-      <c r="AC2" s="271"/>
-      <c r="AD2" s="271"/>
+      <c r="Z2" s="292"/>
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="292"/>
+      <c r="AC2" s="292"/>
+      <c r="AD2" s="292"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -5036,14 +5135,14 @@
       <c r="W3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="273" t="s">
+      <c r="Y3" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
+      <c r="Z3" s="293"/>
+      <c r="AA3" s="293"/>
+      <c r="AB3" s="293"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="293"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -5119,12 +5218,12 @@
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
+      <c r="Y4" s="293"/>
+      <c r="Z4" s="293"/>
+      <c r="AA4" s="293"/>
+      <c r="AB4" s="293"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="293"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -5192,12 +5291,12 @@
       <c r="W5" s="32">
         <v>0</v>
       </c>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
+      <c r="Y5" s="293"/>
+      <c r="Z5" s="293"/>
+      <c r="AA5" s="293"/>
+      <c r="AB5" s="293"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="293"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -5216,40 +5315,40 @@
       <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="295" t="s">
+      <c r="B7" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="J7" s="276" t="s">
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="J7" s="305" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="276"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
       <c r="O7" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="275" t="s">
+      <c r="P7" s="294" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="275"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="275"/>
-      <c r="T7" s="275"/>
-      <c r="U7" s="275"/>
-      <c r="V7" s="275"/>
-      <c r="W7" s="275"/>
-      <c r="Y7" s="291" t="s">
+      <c r="Q7" s="294"/>
+      <c r="R7" s="294"/>
+      <c r="S7" s="294"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="294"/>
+      <c r="V7" s="294"/>
+      <c r="W7" s="294"/>
+      <c r="Y7" s="295" t="s">
         <v>190</v>
       </c>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="289"/>
-      <c r="AB7" s="289"/>
-      <c r="AC7" s="289"/>
-      <c r="AD7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="291"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
@@ -5515,14 +5614,14 @@
       <c r="AD11" s="161"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="297"/>
-      <c r="F12" s="297"/>
-      <c r="G12" s="298"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="280"/>
       <c r="H12" s="24"/>
       <c r="J12" s="152">
         <v>3</v>
@@ -5703,12 +5802,12 @@
       <c r="W14" s="66">
         <v>1</v>
       </c>
-      <c r="Y14" s="286" t="s">
+      <c r="Y14" s="300" t="s">
         <v>200</v>
       </c>
-      <c r="Z14" s="287"/>
-      <c r="AA14" s="287"/>
-      <c r="AB14" s="287"/>
+      <c r="Z14" s="301"/>
+      <c r="AA14" s="301"/>
+      <c r="AB14" s="301"/>
       <c r="AC14" s="156"/>
       <c r="AD14" s="157"/>
     </row>
@@ -5804,15 +5903,15 @@
       </c>
     </row>
     <row r="17" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="299" t="s">
+      <c r="B17" s="281" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="301"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="283"/>
       <c r="J17" s="146">
         <v>8</v>
       </c>
@@ -5828,39 +5927,39 @@
       <c r="O17" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="288" t="s">
+      <c r="P17" s="302" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="288"/>
-      <c r="R17" s="288"/>
-      <c r="S17" s="288"/>
-      <c r="T17" s="288"/>
-      <c r="U17" s="288"/>
-      <c r="V17" s="288"/>
-      <c r="W17" s="288"/>
-      <c r="Y17" s="271" t="s">
+      <c r="Q17" s="302"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="302"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="Y17" s="292" t="s">
         <v>497</v>
       </c>
-      <c r="Z17" s="271"/>
-      <c r="AA17" s="271"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="271"/>
+      <c r="Z17" s="292"/>
+      <c r="AA17" s="292"/>
+      <c r="AB17" s="292"/>
+      <c r="AC17" s="292"/>
+      <c r="AD17" s="292"/>
     </row>
     <row r="18" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="292" t="s">
+      <c r="C18" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="292"/>
-      <c r="E18" s="302" t="s">
+      <c r="D18" s="274"/>
+      <c r="E18" s="284" t="s">
         <v>494</v>
       </c>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="303"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="285"/>
       <c r="J18" s="147">
         <v>9</v>
       </c>
@@ -5876,47 +5975,47 @@
       <c r="O18" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="P18" s="279" t="s">
+      <c r="P18" s="308" t="s">
         <v>216</v>
       </c>
-      <c r="Q18" s="280"/>
-      <c r="R18" s="281" t="s">
+      <c r="Q18" s="309"/>
+      <c r="R18" s="310" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="281"/>
-      <c r="T18" s="280" t="s">
+      <c r="S18" s="310"/>
+      <c r="T18" s="309" t="s">
         <v>214</v>
       </c>
-      <c r="U18" s="280"/>
+      <c r="U18" s="309"/>
       <c r="V18" s="70" t="s">
         <v>213</v>
       </c>
       <c r="W18" s="235" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="272" t="s">
+      <c r="Y18" s="303" t="s">
         <v>498</v>
       </c>
-      <c r="Z18" s="273"/>
-      <c r="AA18" s="273"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="273"/>
-      <c r="AD18" s="273"/>
+      <c r="Z18" s="293"/>
+      <c r="AA18" s="293"/>
+      <c r="AB18" s="293"/>
+      <c r="AC18" s="293"/>
+      <c r="AD18" s="293"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="293" t="s">
+      <c r="C19" s="275" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="293"/>
-      <c r="E19" s="306" t="s">
+      <c r="D19" s="275"/>
+      <c r="E19" s="288" t="s">
         <v>493</v>
       </c>
-      <c r="F19" s="293"/>
-      <c r="G19" s="293"/>
-      <c r="H19" s="307"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="289"/>
       <c r="J19" s="146" t="s">
         <v>105</v>
       </c>
@@ -5932,21 +6031,21 @@
       <c r="O19" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="277">
+      <c r="P19" s="306">
         <f>16^4</f>
         <v>65536</v>
       </c>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="282">
+      <c r="Q19" s="307"/>
+      <c r="R19" s="311">
         <f>16^3</f>
         <v>4096</v>
       </c>
-      <c r="S19" s="282"/>
-      <c r="T19" s="278">
+      <c r="S19" s="311"/>
+      <c r="T19" s="307">
         <f>16^2</f>
         <v>256</v>
       </c>
-      <c r="U19" s="278"/>
+      <c r="U19" s="307"/>
       <c r="V19" s="28">
         <f>16^1</f>
         <v>16</v>
@@ -5955,27 +6054,27 @@
         <f>16^0</f>
         <v>1</v>
       </c>
-      <c r="Y19" s="273"/>
-      <c r="Z19" s="273"/>
-      <c r="AA19" s="273"/>
-      <c r="AB19" s="273"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="273"/>
+      <c r="Y19" s="293"/>
+      <c r="Z19" s="293"/>
+      <c r="AA19" s="293"/>
+      <c r="AB19" s="293"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="293"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="294" t="s">
+      <c r="C20" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="294"/>
-      <c r="E20" s="304" t="s">
+      <c r="D20" s="276"/>
+      <c r="E20" s="286" t="s">
         <v>495</v>
       </c>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="305"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="287"/>
       <c r="J20" s="147" t="s">
         <v>51</v>
       </c>
@@ -5991,22 +6090,22 @@
       <c r="O20" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="P20" s="283" t="s">
+      <c r="P20" s="312" t="s">
         <v>496</v>
       </c>
-      <c r="Q20" s="284"/>
-      <c r="R20" s="284"/>
-      <c r="S20" s="284"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="284"/>
-      <c r="V20" s="284"/>
-      <c r="W20" s="285"/>
-      <c r="Y20" s="273"/>
-      <c r="Z20" s="273"/>
-      <c r="AA20" s="273"/>
-      <c r="AB20" s="273"/>
-      <c r="AC20" s="273"/>
-      <c r="AD20" s="273"/>
+      <c r="Q20" s="313"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="313"/>
+      <c r="T20" s="313"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="313"/>
+      <c r="W20" s="314"/>
+      <c r="Y20" s="293"/>
+      <c r="Z20" s="293"/>
+      <c r="AA20" s="293"/>
+      <c r="AB20" s="293"/>
+      <c r="AC20" s="293"/>
+      <c r="AD20" s="293"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J21" s="146" t="s">
@@ -6038,22 +6137,22 @@
       <c r="O22" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="275" t="s">
+      <c r="P22" s="294" t="s">
         <v>261</v>
       </c>
-      <c r="Q22" s="275"/>
-      <c r="R22" s="275"/>
-      <c r="S22" s="275"/>
-      <c r="T22" s="275" t="s">
+      <c r="Q22" s="294"/>
+      <c r="R22" s="294"/>
+      <c r="S22" s="294"/>
+      <c r="T22" s="294" t="s">
         <v>261</v>
       </c>
-      <c r="U22" s="275"/>
-      <c r="V22" s="275"/>
-      <c r="W22" s="275"/>
-      <c r="X22" s="275" t="s">
+      <c r="U22" s="294"/>
+      <c r="V22" s="294"/>
+      <c r="W22" s="294"/>
+      <c r="X22" s="294" t="s">
         <v>83</v>
       </c>
-      <c r="Y22" s="275"/>
+      <c r="Y22" s="294"/>
       <c r="AA22" s="236" t="s">
         <v>190</v>
       </c>
@@ -6115,10 +6214,10 @@
       <c r="AB23" s="166">
         <v>16</v>
       </c>
-      <c r="AC23" s="267" t="s">
+      <c r="AC23" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD23" s="268"/>
+      <c r="AD23" s="297"/>
       <c r="AE23" s="239"/>
       <c r="AF23" s="239"/>
     </row>
@@ -6174,10 +6273,10 @@
       <c r="AB24" s="190">
         <v>3</v>
       </c>
-      <c r="AC24" s="269">
+      <c r="AC24" s="298">
         <v>36</v>
       </c>
-      <c r="AD24" s="270"/>
+      <c r="AD24" s="299"/>
       <c r="AE24" s="240"/>
       <c r="AF24" s="240"/>
     </row>
@@ -6233,10 +6332,10 @@
       <c r="AB25" s="166">
         <v>16</v>
       </c>
-      <c r="AC25" s="267" t="s">
+      <c r="AC25" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD25" s="268"/>
+      <c r="AD25" s="297"/>
       <c r="AE25" s="239"/>
       <c r="AF25" s="239"/>
     </row>
@@ -6292,10 +6391,10 @@
       <c r="AB26" s="190">
         <v>7</v>
       </c>
-      <c r="AC26" s="269" t="s">
+      <c r="AC26" s="298" t="s">
         <v>226</v>
       </c>
-      <c r="AD26" s="270"/>
+      <c r="AD26" s="299"/>
       <c r="AE26" s="240"/>
       <c r="AF26" s="240"/>
     </row>
@@ -6351,10 +6450,10 @@
       <c r="AB27" s="166">
         <v>16</v>
       </c>
-      <c r="AC27" s="267" t="s">
+      <c r="AC27" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD27" s="268"/>
+      <c r="AD27" s="297"/>
       <c r="AE27" s="239"/>
       <c r="AF27" s="239"/>
     </row>
@@ -6398,10 +6497,10 @@
       <c r="AB28" s="190">
         <v>1</v>
       </c>
-      <c r="AC28" s="269">
+      <c r="AC28" s="298">
         <v>19</v>
       </c>
-      <c r="AD28" s="270"/>
+      <c r="AD28" s="299"/>
       <c r="AE28" s="240"/>
       <c r="AF28" s="240"/>
     </row>
@@ -6445,10 +6544,10 @@
       <c r="AB29" s="166">
         <v>16</v>
       </c>
-      <c r="AC29" s="267" t="s">
+      <c r="AC29" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD29" s="268"/>
+      <c r="AD29" s="297"/>
       <c r="AE29" s="239"/>
       <c r="AF29" s="239"/>
     </row>
@@ -6492,10 +6591,10 @@
       <c r="AB30" s="190">
         <v>3</v>
       </c>
-      <c r="AC30" s="269" t="s">
+      <c r="AC30" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="AD30" s="270"/>
+      <c r="AD30" s="299"/>
       <c r="AE30" s="240"/>
       <c r="AF30" s="240"/>
     </row>
@@ -6539,10 +6638,10 @@
       <c r="AB31" s="166">
         <v>16</v>
       </c>
-      <c r="AC31" s="267" t="s">
+      <c r="AC31" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD31" s="268"/>
+      <c r="AD31" s="297"/>
       <c r="AE31" s="239"/>
       <c r="AF31" s="239"/>
     </row>
@@ -6586,10 +6685,10 @@
       <c r="AB32" s="190">
         <v>6</v>
       </c>
-      <c r="AC32" s="269" t="s">
+      <c r="AC32" s="298" t="s">
         <v>224</v>
       </c>
-      <c r="AD32" s="270"/>
+      <c r="AD32" s="299"/>
       <c r="AE32" s="240"/>
       <c r="AF32" s="240"/>
     </row>
@@ -6633,10 +6732,10 @@
       <c r="AB33" s="166">
         <v>16</v>
       </c>
-      <c r="AC33" s="267" t="s">
+      <c r="AC33" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AD33" s="268"/>
+      <c r="AD33" s="297"/>
       <c r="AE33" s="239"/>
       <c r="AF33" s="239"/>
     </row>
@@ -6680,41 +6779,15 @@
       <c r="AB34" s="190">
         <v>1</v>
       </c>
-      <c r="AC34" s="269" t="s">
+      <c r="AC34" s="298" t="s">
         <v>262</v>
       </c>
-      <c r="AD34" s="270"/>
+      <c r="AD34" s="299"/>
       <c r="AE34" s="240"/>
       <c r="AF34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y3:AD5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="P17:W17"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="AC33:AD33"/>
     <mergeCell ref="AC34:AD34"/>
     <mergeCell ref="Y17:AD17"/>
@@ -6731,6 +6804,32 @@
     <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="P17:W17"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6739,6 +6838,305 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C533AE-9AC8-4775-8491-F28B589A4A4E}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="347">
+        <v>24</v>
+      </c>
+      <c r="C1" s="347" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="348" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="349" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="350" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="352" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="353" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="354">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="355" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="356" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="347">
+        <v>30</v>
+      </c>
+      <c r="C5" s="347" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="348" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="349" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="357">
+        <v>255255255252</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="352" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="353" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="354">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="355" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="356" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9" s="347">
+        <v>28</v>
+      </c>
+      <c r="C9" s="347" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="348" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="349" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="357">
+        <v>255255255240</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="352" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="353" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="354">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="355" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="356" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B13" s="347">
+        <v>26</v>
+      </c>
+      <c r="C13" s="347" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="348" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="348" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="349" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="357">
+        <v>255255255192</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="351" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="358" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="353" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="354">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="355" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="356" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6148F79-43E5-497E-9971-83B1A57C48C1}">
   <dimension ref="B1:O30"/>
   <sheetViews>
@@ -6764,39 +7162,39 @@
       <c r="B2" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="329" t="s">
+      <c r="C2" s="315" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="329" t="s">
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="315" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="330"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="316"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="331" t="s">
+      <c r="C3" s="317" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="331"/>
-      <c r="E3" s="332" t="s">
+      <c r="D3" s="317"/>
+      <c r="E3" s="318" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="332" t="s">
+      <c r="F3" s="319"/>
+      <c r="G3" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="333"/>
-      <c r="I3" s="331" t="s">
+      <c r="H3" s="319"/>
+      <c r="I3" s="317" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="333"/>
+      <c r="J3" s="319"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="120" t="s">
@@ -6913,9 +7311,9 @@
       <c r="J7" s="112">
         <v>192168255255</v>
       </c>
-      <c r="K7" s="322"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="322"/>
+      <c r="K7" s="320"/>
+      <c r="L7" s="320"/>
+      <c r="M7" s="320"/>
       <c r="N7" s="75"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -6934,12 +7332,12 @@
       <c r="F8" s="102">
         <v>239255255255</v>
       </c>
-      <c r="G8" s="323" t="s">
+      <c r="G8" s="326" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="325"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="328"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -6961,12 +7359,12 @@
       <c r="F9" s="117">
         <v>255255255255</v>
       </c>
-      <c r="G9" s="326" t="s">
+      <c r="G9" s="329" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="327"/>
-      <c r="I9" s="327"/>
-      <c r="J9" s="328"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="330"/>
+      <c r="J9" s="331"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -6984,7 +7382,7 @@
       <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="308" t="s">
+      <c r="B11" s="332" t="s">
         <v>181</v>
       </c>
       <c r="C11" s="126" t="s">
@@ -7010,7 +7408,7 @@
       <c r="M11" s="136"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="308"/>
+      <c r="B12" s="332"/>
       <c r="C12" s="127" t="s">
         <v>156</v>
       </c>
@@ -7046,7 +7444,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="308"/>
+      <c r="B13" s="332"/>
       <c r="C13" s="127" t="s">
         <v>157</v>
       </c>
@@ -7082,7 +7480,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="308"/>
+      <c r="B14" s="332"/>
       <c r="C14" s="127" t="s">
         <v>154</v>
       </c>
@@ -7118,7 +7516,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="308"/>
+      <c r="B15" s="332"/>
       <c r="C15" s="127" t="s">
         <v>155</v>
       </c>
@@ -7154,7 +7552,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="308"/>
+      <c r="B16" s="332"/>
       <c r="C16" s="127" t="s">
         <v>152</v>
       </c>
@@ -7165,12 +7563,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="F16" s="316" t="str">
+      <c r="F16" s="338" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="G16" s="317"/>
-      <c r="H16" s="318"/>
+      <c r="G16" s="339"/>
+      <c r="H16" s="340"/>
       <c r="I16" s="128" t="s">
         <v>158</v>
       </c>
@@ -7178,12 +7576,12 @@
         <f>_xlfn.CONCAT("Subnet: "&amp;2^0)</f>
         <v>Subnet: 1</v>
       </c>
-      <c r="K16" s="316" t="str">
+      <c r="K16" s="338" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^24-2)</f>
         <v>Hosts: 16777214</v>
       </c>
-      <c r="L16" s="317"/>
-      <c r="M16" s="318"/>
+      <c r="L16" s="339"/>
+      <c r="M16" s="340"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -7201,7 +7599,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="308" t="s">
+      <c r="B18" s="332" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="126" t="s">
@@ -7229,7 +7627,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="308"/>
+      <c r="B19" s="332"/>
       <c r="C19" s="127" t="s">
         <v>156</v>
       </c>
@@ -7267,7 +7665,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="308"/>
+      <c r="B20" s="332"/>
       <c r="C20" s="127" t="s">
         <v>157</v>
       </c>
@@ -7305,7 +7703,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="308"/>
+      <c r="B21" s="332"/>
       <c r="C21" s="127" t="s">
         <v>154</v>
       </c>
@@ -7343,7 +7741,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="308"/>
+      <c r="B22" s="332"/>
       <c r="C22" s="127" t="s">
         <v>155</v>
       </c>
@@ -7381,36 +7779,36 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="308"/>
+      <c r="B23" s="332"/>
       <c r="C23" s="127" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="312" t="str">
+      <c r="E23" s="336" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="F23" s="313"/>
-      <c r="G23" s="314" t="str">
+      <c r="F23" s="337"/>
+      <c r="G23" s="324" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="H23" s="315"/>
+      <c r="H23" s="325"/>
       <c r="I23" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="312" t="str">
+      <c r="J23" s="336" t="str">
         <f>_xlfn.CONCAT("Subnet: "&amp;2^4)</f>
         <v>Subnet: 16</v>
       </c>
-      <c r="K23" s="313"/>
-      <c r="L23" s="314" t="str">
+      <c r="K23" s="337"/>
+      <c r="L23" s="324" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^16-2)</f>
         <v>Hosts: 65534</v>
       </c>
-      <c r="M23" s="315"/>
+      <c r="M23" s="325"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D24" s="131"/>
@@ -7421,7 +7819,7 @@
       <c r="M24" s="141"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="308" t="s">
+      <c r="B25" s="332" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="126" t="s">
@@ -7430,24 +7828,24 @@
       <c r="D25" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="319" t="s">
+      <c r="E25" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="320"/>
-      <c r="G25" s="320"/>
-      <c r="H25" s="321"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="323"/>
       <c r="I25" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="319" t="s">
+      <c r="J25" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="320"/>
-      <c r="L25" s="320"/>
-      <c r="M25" s="321"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
+      <c r="M25" s="323"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="308"/>
+      <c r="B26" s="332"/>
       <c r="C26" s="127" t="s">
         <v>156</v>
       </c>
@@ -7483,7 +7881,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="308"/>
+      <c r="B27" s="332"/>
       <c r="C27" s="127" t="s">
         <v>157</v>
       </c>
@@ -7519,7 +7917,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="308"/>
+      <c r="B28" s="332"/>
       <c r="C28" s="127" t="s">
         <v>154</v>
       </c>
@@ -7555,7 +7953,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="308"/>
+      <c r="B29" s="332"/>
       <c r="C29" s="127" t="s">
         <v>155</v>
       </c>
@@ -7591,19 +7989,19 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="308"/>
+      <c r="B30" s="332"/>
       <c r="C30" s="127" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="309" t="str">
+      <c r="E30" s="333" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="F30" s="310"/>
-      <c r="G30" s="311"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="335"/>
       <c r="H30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -7611,12 +8009,12 @@
       <c r="I30" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="J30" s="309" t="str">
+      <c r="J30" s="333" t="str">
         <f>_xlfn.CONCAT("Subnets: "&amp;2^8)</f>
         <v>Subnets: 256</v>
       </c>
-      <c r="K30" s="310"/>
-      <c r="L30" s="311"/>
+      <c r="K30" s="334"/>
+      <c r="L30" s="335"/>
       <c r="M30" s="144" t="str">
         <f>_xlfn.CONCAT("Hosts: "&amp;2^8-2)</f>
         <v>Hosts: 254</v>
@@ -7624,17 +8022,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B11:B16"/>
@@ -7646,6 +8033,17 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="J25:M25"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7654,7 +8052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA523E9B-02D6-4DFC-9913-DDC28647DF6E}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -7679,28 +8077,28 @@
       <c r="A1" s="200" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="336" t="s">
+      <c r="B1" s="343" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
       <c r="E1" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="339" t="s">
+      <c r="F1" s="346" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="346"/>
+      <c r="I1" s="346"/>
       <c r="J1" s="217" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="334" t="s">
+      <c r="K1" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
@@ -7800,11 +8198,11 @@
       <c r="E4" s="205">
         <v>1</v>
       </c>
-      <c r="F4" s="337" t="s">
+      <c r="F4" s="344" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
       <c r="I4" s="206">
         <v>1</v>
       </c>
@@ -7825,16 +8223,16 @@
       <c r="A5" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="338" t="s">
+      <c r="B5" s="345" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="338"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="338"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
       <c r="J5" s="216" t="s">
         <v>232</v>
       </c>
@@ -7862,16 +8260,16 @@
       <c r="A7" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="335" t="s">
+      <c r="B7" s="342" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="335"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="335"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="335"/>
-      <c r="H7" s="335"/>
-      <c r="I7" s="335"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="192" t="s">
@@ -8134,12 +8532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D435661-3ABF-402C-8B05-AD993B7D7E51}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
@@ -8995,11 +9393,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1066F-76F3-4834-8CFB-41449B38856E}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -9196,7 +9594,7 @@
       <c r="B14" t="s">
         <v>521</v>
       </c>
-      <c r="C14" s="343" t="s">
+      <c r="C14" s="248" t="s">
         <v>522</v>
       </c>
       <c r="D14">
@@ -9208,10 +9606,10 @@
       <c r="F14">
         <v>25</v>
       </c>
-      <c r="G14" s="344" t="s">
+      <c r="G14" s="249" t="s">
         <v>506</v>
       </c>
-      <c r="H14" s="345">
+      <c r="H14" s="250">
         <v>255255255128</v>
       </c>
       <c r="I14" t="s">
@@ -9231,7 +9629,7 @@
       <c r="B15" s="219">
         <v>255255255</v>
       </c>
-      <c r="C15" s="343" t="s">
+      <c r="C15" s="248" t="s">
         <v>120</v>
       </c>
       <c r="D15">
@@ -9266,7 +9664,7 @@
       <c r="B16" t="s">
         <v>521</v>
       </c>
-      <c r="C16" s="343" t="s">
+      <c r="C16" s="248" t="s">
         <v>120</v>
       </c>
       <c r="D16">
@@ -9278,10 +9676,10 @@
       <c r="F16">
         <v>26</v>
       </c>
-      <c r="G16" s="344" t="s">
+      <c r="G16" s="249" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="345">
+      <c r="H16" s="250">
         <v>255255255192</v>
       </c>
       <c r="I16" t="s">
@@ -9301,7 +9699,7 @@
       <c r="B17" t="s">
         <v>521</v>
       </c>
-      <c r="C17" s="343" t="s">
+      <c r="C17" s="248" t="s">
         <v>122</v>
       </c>
       <c r="G17" t="s">
@@ -9433,7 +9831,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="346">
+      <c r="A30" s="251">
         <v>2001</v>
       </c>
       <c r="B30" s="220" t="s">
